--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design_document(screen)_WA10104_General_error.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design_document(screen)_WA10104_General_error.xlsx
@@ -1,40 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287DE377-80DD-4C90-A60D-72499525B4B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D40485A-3DDE-4B35-9FEA-654C2F4F7A4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="2820" windowWidth="24000" windowHeight="10710" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" state="hidden" r:id="rId1"/>
     <sheet name="変更履歴" sheetId="14" state="hidden" r:id="rId2"/>
-    <sheet name="目次" sheetId="30" r:id="rId3"/>
-    <sheet name="1.  画面取引定義" sheetId="13" r:id="rId4"/>
-    <sheet name="2. WA10104(汎用エラー)" sheetId="31" r:id="rId5"/>
-    <sheet name="データ" sheetId="29" r:id="rId6"/>
+    <sheet name="Contents" sheetId="30" r:id="rId3"/>
+    <sheet name="1 Screen subfunction definition" sheetId="13" r:id="rId4"/>
+    <sheet name="2. WA10104 (Generic error)" sheetId="31" r:id="rId5"/>
+    <sheet name="Data" sheetId="29" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2. WA10104(汎用エラー)'!#REF!</definedName>
-    <definedName name="_Toc46209822" localSheetId="3">'1.  画面取引定義'!$B$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1.  画面取引定義'!$A$1:$AI$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. WA10104(汎用エラー)'!$A$1:$AI$82</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">データ!$A$1:$E$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2. WA10104 (Generic error)'!#REF!</definedName>
+    <definedName name="_Toc46209822" localSheetId="3">'1 Screen subfunction definition'!$B$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1 Screen subfunction definition'!$A$1:$AI$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. WA10104 (Generic error)'!$A$1:$AI$82</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">Data!$A$1:$E$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'1.  画面取引定義'!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'2. WA10104(汎用エラー)'!$1:$4</definedName>
-    <definedName name="引継項目格納先">データ!$B$2:$B$2</definedName>
-    <definedName name="画面項目種類">データ!$A$2:$A$12</definedName>
-    <definedName name="種別一覧">データ!$C$2:$C$7</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'1 Screen subfunction definition'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'2. WA10104 (Generic error)'!$1:$4</definedName>
+    <definedName name="引継項目格納先">Data!$B$2:$B$2</definedName>
+    <definedName name="画面項目種類">Data!$A$2:$A$12</definedName>
+    <definedName name="種別一覧">Data!$C$2:$C$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -269,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="120">
   <si>
     <t>PJ名</t>
   </si>
@@ -398,232 +400,241 @@
     <t>TIS</t>
   </si>
   <si>
+    <t>2. WA10104 (Generic error)</t>
+  </si>
+  <si>
+    <t>2.1 Screen layout</t>
+  </si>
+  <si>
+    <t>2.2. List display</t>
+  </si>
+  <si>
+    <t>2.3 Screen item definition</t>
+  </si>
+  <si>
+    <t>2.4. Input/output list</t>
+  </si>
+  <si>
+    <t>2.5 Screen event list</t>
+  </si>
+  <si>
+    <t>2.6. Screen event details</t>
+  </si>
+  <si>
+    <t>WA10104</t>
+  </si>
+  <si>
+    <t>Generic error</t>
+  </si>
+  <si>
+    <t>Display the error details, which occurred, to the user.</t>
+  </si>
+  <si>
+    <t>Assumed user</t>
+  </si>
+  <si>
+    <t>All users</t>
+  </si>
+  <si>
+    <t>Area name</t>
+  </si>
+  <si>
+    <t>Paging Yes/No</t>
+  </si>
+  <si>
+    <t>Sort conditions</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Display information</t>
+  </si>
+  <si>
+    <t>Domain name</t>
+  </si>
+  <si>
+    <t>Display item name</t>
+  </si>
+  <si>
+    <t>Screen item classification</t>
+  </si>
+  <si>
+    <t>Information source</t>
+  </si>
+  <si>
+    <t>Editing specifications</t>
+  </si>
+  <si>
+    <t>Default value</t>
+  </si>
+  <si>
+    <t>Input/output name</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>I/O</t>
+  </si>
+  <si>
+    <t>DB access type</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Lock target</t>
+  </si>
+  <si>
+    <t>Screen event name</t>
+  </si>
+  <si>
+    <t>Occurrence timing</t>
+  </si>
+  <si>
+    <t>Screen event overview</t>
+  </si>
+  <si>
+    <t>Normal transition screen</t>
+  </si>
+  <si>
+    <t>Server communication Yes/No</t>
+  </si>
+  <si>
+    <t>Initial display</t>
+  </si>
+  <si>
+    <t>Displays the generic error screen.</t>
+  </si>
+  <si>
+    <t>Yes (synchronous)</t>
+  </si>
+  <si>
+    <t>2.6.1. Initial display event</t>
+  </si>
+  <si>
+    <t>(1) Validation processing</t>
+  </si>
+  <si>
+    <t>None.</t>
+  </si>
+  <si>
+    <t>(2) Display processing</t>
+  </si>
+  <si>
+    <t>Screen item type</t>
+  </si>
+  <si>
+    <t>Storage location for inherited items</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Type list</t>
+  </si>
+  <si>
+    <t>Request scope</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>HIDDEN store</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Yes (asynchronous)</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>DB store</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>text(disable)</t>
+  </si>
+  <si>
+    <t>HTTP session store</t>
+  </si>
+  <si>
+    <t>I/F file</t>
+  </si>
+  <si>
+    <t>textarea</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>checkbox</t>
+  </si>
+  <si>
+    <t>select(pulldown)</t>
+  </si>
+  <si>
+    <t>select(multiple)</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>1 Screen subfunction definition</t>
+  </si>
+  <si>
+    <t>1.1. Screen subfunction overview</t>
+  </si>
+  <si>
+    <t>1.1. Subfunction overview</t>
+  </si>
+  <si>
+    <t>Subfunction ID</t>
+  </si>
+  <si>
+    <t>Subfunction name</t>
+  </si>
+  <si>
+    <t>Subfunction summary</t>
+  </si>
+  <si>
+    <t>Required</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
     <t>Contents</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>1 Screen subfunction definition</t>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>2. WA10104 (Generic error)</t>
-  </si>
-  <si>
-    <t>2.1 Screen layout</t>
-  </si>
-  <si>
-    <t>2.2. List display</t>
-  </si>
-  <si>
-    <t>2.3 Screen item definition</t>
-  </si>
-  <si>
-    <t>2.4. Input/output list</t>
-  </si>
-  <si>
-    <t>2.5 Screen event list</t>
-  </si>
-  <si>
-    <t>2.6. Screen event details</t>
-  </si>
-  <si>
-    <t>WA10104</t>
-  </si>
-  <si>
-    <t>Generic error</t>
-  </si>
-  <si>
-    <t>Display the error details, which occurred, to the user.</t>
-  </si>
-  <si>
-    <t>Assumed user</t>
-  </si>
-  <si>
-    <t>All users</t>
-  </si>
-  <si>
-    <t>Area name</t>
-  </si>
-  <si>
-    <t>Paging Yes/No</t>
-  </si>
-  <si>
-    <t>Sort conditions</t>
-  </si>
-  <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>Display information</t>
-  </si>
-  <si>
-    <t>Domain name</t>
-  </si>
-  <si>
-    <t>Display item name</t>
-  </si>
-  <si>
-    <t>Screen item classification</t>
-  </si>
-  <si>
-    <t>Information source</t>
-  </si>
-  <si>
-    <t>Editing specifications</t>
-  </si>
-  <si>
-    <t>Default value</t>
-  </si>
-  <si>
-    <t>Input/output name</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>I/O</t>
-  </si>
-  <si>
-    <t>DB access type</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Lock target</t>
-  </si>
-  <si>
-    <t>Screen event name</t>
-  </si>
-  <si>
-    <t>Occurrence timing</t>
-  </si>
-  <si>
-    <t>Screen event overview</t>
-  </si>
-  <si>
-    <t>Normal transition screen</t>
-  </si>
-  <si>
-    <t>Server communication Yes/No</t>
-  </si>
-  <si>
-    <t>Initial display</t>
-  </si>
-  <si>
-    <t>Displays the generic error screen.</t>
-  </si>
-  <si>
-    <t>Yes (synchronous)</t>
-  </si>
-  <si>
-    <t>2.6.1. Initial display event</t>
-  </si>
-  <si>
-    <t>(1) Validation processing</t>
-  </si>
-  <si>
-    <t>None.</t>
-  </si>
-  <si>
-    <t>(2) Display processing</t>
-  </si>
-  <si>
-    <t>Screen item type</t>
-  </si>
-  <si>
-    <t>Storage location for inherited items</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Type list</t>
-  </si>
-  <si>
-    <t>Request scope</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>HIDDEN store</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>Yes (asynchronous)</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>DB store</t>
-  </si>
-  <si>
-    <t>Message</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>text(disable)</t>
-  </si>
-  <si>
-    <t>HTTP session store</t>
-  </si>
-  <si>
-    <t>I/F file</t>
-  </si>
-  <si>
-    <t>textarea</t>
-  </si>
-  <si>
-    <t>Report</t>
-  </si>
-  <si>
-    <t>radio</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>checkbox</t>
-  </si>
-  <si>
-    <t>select(pulldown)</t>
-  </si>
-  <si>
-    <t>select(multiple)</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>file</t>
-  </si>
-  <si>
-    <t>1 Screen subfunction definition</t>
-  </si>
-  <si>
-    <t>1.1. Screen subfunction overview</t>
-  </si>
-  <si>
-    <t>1.1. Subfunction overview</t>
-  </si>
-  <si>
-    <t>Subfunction ID</t>
-  </si>
-  <si>
-    <t>Subfunction name</t>
-  </si>
-  <si>
-    <t>Subfunction summary</t>
-  </si>
-  <si>
-    <t>Required</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -1603,6 +1614,111 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1639,24 +1755,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1666,24 +1764,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1720,74 +1800,77 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1807,78 +1890,6 @@
     <xf numFmtId="177" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1933,6 +1944,162 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1942,15 +2109,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1960,159 +2118,12 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="パーセント 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2176,8 +2187,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7905750" y="285750"/>
-          <a:ext cx="1390650" cy="590550"/>
+          <a:off x="7953375" y="285750"/>
+          <a:ext cx="1400175" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -3594,57 +3605,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="150" t="s">
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="152"/>
-      <c r="O1" s="183" t="s">
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="180"/>
+      <c r="L1" s="180"/>
+      <c r="M1" s="180"/>
+      <c r="N1" s="181"/>
+      <c r="O1" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="184"/>
-      <c r="Q1" s="184"/>
-      <c r="R1" s="185"/>
-      <c r="S1" s="162" t="s">
+      <c r="P1" s="136"/>
+      <c r="Q1" s="136"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="164"/>
-      <c r="AA1" s="180" t="s">
+      <c r="T1" s="186"/>
+      <c r="U1" s="186"/>
+      <c r="V1" s="186"/>
+      <c r="W1" s="186"/>
+      <c r="X1" s="186"/>
+      <c r="Y1" s="186"/>
+      <c r="Z1" s="187"/>
+      <c r="AA1" s="132" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="182"/>
-      <c r="AC1" s="132" t="str">
+      <c r="AB1" s="134"/>
+      <c r="AC1" s="167" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="133"/>
-      <c r="AE1" s="133"/>
-      <c r="AF1" s="134"/>
-      <c r="AG1" s="138">
+      <c r="AD1" s="168"/>
+      <c r="AE1" s="168"/>
+      <c r="AF1" s="169"/>
+      <c r="AG1" s="173">
         <f>IF(D8="","",D8)</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="139"/>
-      <c r="AI1" s="140"/>
+      <c r="AH1" s="174"/>
+      <c r="AI1" s="175"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -3652,53 +3663,53 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="150" t="s">
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="186"/>
-      <c r="P2" s="187"/>
-      <c r="Q2" s="187"/>
-      <c r="R2" s="188"/>
-      <c r="S2" s="165"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="166"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="167"/>
-      <c r="AA2" s="180" t="s">
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
+      <c r="M2" s="180"/>
+      <c r="N2" s="181"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="139"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="188"/>
+      <c r="T2" s="189"/>
+      <c r="U2" s="189"/>
+      <c r="V2" s="189"/>
+      <c r="W2" s="189"/>
+      <c r="X2" s="189"/>
+      <c r="Y2" s="189"/>
+      <c r="Z2" s="190"/>
+      <c r="AA2" s="132" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="182"/>
-      <c r="AC2" s="141" t="str">
+      <c r="AB2" s="134"/>
+      <c r="AC2" s="176" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="142"/>
-      <c r="AE2" s="142"/>
-      <c r="AF2" s="143"/>
-      <c r="AG2" s="138" t="str">
+      <c r="AD2" s="177"/>
+      <c r="AE2" s="177"/>
+      <c r="AF2" s="178"/>
+      <c r="AG2" s="173" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="139"/>
-      <c r="AI2" s="140"/>
+      <c r="AH2" s="174"/>
+      <c r="AI2" s="175"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -3706,45 +3717,45 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="150" t="s">
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="152"/>
-      <c r="O3" s="189"/>
-      <c r="P3" s="190"/>
-      <c r="Q3" s="190"/>
-      <c r="R3" s="191"/>
-      <c r="S3" s="168"/>
-      <c r="T3" s="169"/>
-      <c r="U3" s="169"/>
-      <c r="V3" s="169"/>
-      <c r="W3" s="169"/>
-      <c r="X3" s="169"/>
-      <c r="Y3" s="169"/>
-      <c r="Z3" s="170"/>
-      <c r="AA3" s="192"/>
-      <c r="AB3" s="193"/>
-      <c r="AC3" s="132"/>
-      <c r="AD3" s="133"/>
-      <c r="AE3" s="133"/>
-      <c r="AF3" s="134"/>
-      <c r="AG3" s="138"/>
-      <c r="AH3" s="139"/>
-      <c r="AI3" s="140"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="180"/>
+      <c r="L3" s="180"/>
+      <c r="M3" s="180"/>
+      <c r="N3" s="181"/>
+      <c r="O3" s="141"/>
+      <c r="P3" s="142"/>
+      <c r="Q3" s="142"/>
+      <c r="R3" s="143"/>
+      <c r="S3" s="191"/>
+      <c r="T3" s="192"/>
+      <c r="U3" s="192"/>
+      <c r="V3" s="192"/>
+      <c r="W3" s="192"/>
+      <c r="X3" s="192"/>
+      <c r="Y3" s="192"/>
+      <c r="Z3" s="193"/>
+      <c r="AA3" s="144"/>
+      <c r="AB3" s="145"/>
+      <c r="AC3" s="167"/>
+      <c r="AD3" s="168"/>
+      <c r="AE3" s="168"/>
+      <c r="AF3" s="169"/>
+      <c r="AG3" s="173"/>
+      <c r="AH3" s="174"/>
+      <c r="AI3" s="175"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -3883,1028 +3894,1028 @@
       <c r="A7" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="147" t="s">
+      <c r="B7" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="147" t="s">
+      <c r="C7" s="159"/>
+      <c r="D7" s="158" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="148"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="147" t="s">
+      <c r="E7" s="160"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="158" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="148"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="147" t="s">
+      <c r="H7" s="160"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="158" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="148"/>
-      <c r="L7" s="148"/>
-      <c r="M7" s="148"/>
-      <c r="N7" s="148"/>
-      <c r="O7" s="148"/>
-      <c r="P7" s="149"/>
-      <c r="Q7" s="147" t="s">
+      <c r="K7" s="160"/>
+      <c r="L7" s="160"/>
+      <c r="M7" s="160"/>
+      <c r="N7" s="160"/>
+      <c r="O7" s="160"/>
+      <c r="P7" s="159"/>
+      <c r="Q7" s="158" t="s">
         <v>35</v>
       </c>
-      <c r="R7" s="148"/>
-      <c r="S7" s="148"/>
-      <c r="T7" s="148"/>
-      <c r="U7" s="148"/>
-      <c r="V7" s="148"/>
-      <c r="W7" s="148"/>
-      <c r="X7" s="148"/>
-      <c r="Y7" s="148"/>
-      <c r="Z7" s="148"/>
-      <c r="AA7" s="148"/>
-      <c r="AB7" s="148"/>
-      <c r="AC7" s="148"/>
-      <c r="AD7" s="148"/>
-      <c r="AE7" s="149"/>
-      <c r="AF7" s="147" t="s">
+      <c r="R7" s="160"/>
+      <c r="S7" s="160"/>
+      <c r="T7" s="160"/>
+      <c r="U7" s="160"/>
+      <c r="V7" s="160"/>
+      <c r="W7" s="160"/>
+      <c r="X7" s="160"/>
+      <c r="Y7" s="160"/>
+      <c r="Z7" s="160"/>
+      <c r="AA7" s="160"/>
+      <c r="AB7" s="160"/>
+      <c r="AC7" s="160"/>
+      <c r="AD7" s="160"/>
+      <c r="AE7" s="159"/>
+      <c r="AF7" s="158" t="s">
         <v>36</v>
       </c>
-      <c r="AG7" s="148"/>
-      <c r="AH7" s="148"/>
-      <c r="AI7" s="149"/>
+      <c r="AG7" s="160"/>
+      <c r="AH7" s="160"/>
+      <c r="AI7" s="159"/>
     </row>
     <row r="8" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="29">
         <v>1</v>
       </c>
-      <c r="B8" s="174" t="s">
+      <c r="B8" s="161" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="175"/>
-      <c r="D8" s="176">
+      <c r="C8" s="162"/>
+      <c r="D8" s="163">
         <v>43599</v>
       </c>
-      <c r="E8" s="177"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="174" t="s">
+      <c r="E8" s="164"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="179"/>
-      <c r="I8" s="175"/>
-      <c r="J8" s="159" t="s">
+      <c r="H8" s="166"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="182" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="160"/>
-      <c r="L8" s="160"/>
-      <c r="M8" s="160"/>
-      <c r="N8" s="160"/>
-      <c r="O8" s="160"/>
-      <c r="P8" s="161"/>
-      <c r="Q8" s="135" t="s">
+      <c r="K8" s="183"/>
+      <c r="L8" s="183"/>
+      <c r="M8" s="183"/>
+      <c r="N8" s="183"/>
+      <c r="O8" s="183"/>
+      <c r="P8" s="184"/>
+      <c r="Q8" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="R8" s="136"/>
-      <c r="S8" s="136"/>
-      <c r="T8" s="136"/>
-      <c r="U8" s="136"/>
-      <c r="V8" s="136"/>
-      <c r="W8" s="136"/>
-      <c r="X8" s="136"/>
-      <c r="Y8" s="136"/>
-      <c r="Z8" s="136"/>
-      <c r="AA8" s="136"/>
-      <c r="AB8" s="136"/>
-      <c r="AC8" s="136"/>
-      <c r="AD8" s="136"/>
-      <c r="AE8" s="137"/>
-      <c r="AF8" s="159" t="s">
+      <c r="R8" s="171"/>
+      <c r="S8" s="171"/>
+      <c r="T8" s="171"/>
+      <c r="U8" s="171"/>
+      <c r="V8" s="171"/>
+      <c r="W8" s="171"/>
+      <c r="X8" s="171"/>
+      <c r="Y8" s="171"/>
+      <c r="Z8" s="171"/>
+      <c r="AA8" s="171"/>
+      <c r="AB8" s="171"/>
+      <c r="AC8" s="171"/>
+      <c r="AD8" s="171"/>
+      <c r="AE8" s="172"/>
+      <c r="AF8" s="182" t="s">
         <v>41</v>
       </c>
-      <c r="AG8" s="160"/>
-      <c r="AH8" s="160"/>
-      <c r="AI8" s="161"/>
+      <c r="AG8" s="183"/>
+      <c r="AH8" s="183"/>
+      <c r="AI8" s="184"/>
     </row>
     <row r="9" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
-      <c r="B9" s="144"/>
-      <c r="C9" s="146"/>
-      <c r="D9" s="171"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="173"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="156"/>
-      <c r="K9" s="157"/>
-      <c r="L9" s="157"/>
-      <c r="M9" s="157"/>
-      <c r="N9" s="157"/>
-      <c r="O9" s="157"/>
-      <c r="P9" s="158"/>
-      <c r="Q9" s="153"/>
-      <c r="R9" s="154"/>
-      <c r="S9" s="154"/>
-      <c r="T9" s="154"/>
-      <c r="U9" s="154"/>
-      <c r="V9" s="154"/>
-      <c r="W9" s="154"/>
-      <c r="X9" s="154"/>
-      <c r="Y9" s="154"/>
-      <c r="Z9" s="154"/>
-      <c r="AA9" s="154"/>
-      <c r="AB9" s="154"/>
-      <c r="AC9" s="154"/>
-      <c r="AD9" s="154"/>
-      <c r="AE9" s="155"/>
-      <c r="AF9" s="156"/>
-      <c r="AG9" s="157"/>
-      <c r="AH9" s="157"/>
-      <c r="AI9" s="158"/>
+      <c r="B9" s="152"/>
+      <c r="C9" s="153"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="149"/>
+      <c r="K9" s="150"/>
+      <c r="L9" s="150"/>
+      <c r="M9" s="150"/>
+      <c r="N9" s="150"/>
+      <c r="O9" s="150"/>
+      <c r="P9" s="151"/>
+      <c r="Q9" s="146"/>
+      <c r="R9" s="147"/>
+      <c r="S9" s="147"/>
+      <c r="T9" s="147"/>
+      <c r="U9" s="147"/>
+      <c r="V9" s="147"/>
+      <c r="W9" s="147"/>
+      <c r="X9" s="147"/>
+      <c r="Y9" s="147"/>
+      <c r="Z9" s="147"/>
+      <c r="AA9" s="147"/>
+      <c r="AB9" s="147"/>
+      <c r="AC9" s="147"/>
+      <c r="AD9" s="147"/>
+      <c r="AE9" s="148"/>
+      <c r="AF9" s="149"/>
+      <c r="AG9" s="150"/>
+      <c r="AH9" s="150"/>
+      <c r="AI9" s="151"/>
     </row>
     <row r="10" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="146"/>
-      <c r="D10" s="171"/>
-      <c r="E10" s="172"/>
-      <c r="F10" s="173"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="156"/>
-      <c r="K10" s="157"/>
-      <c r="L10" s="157"/>
-      <c r="M10" s="157"/>
-      <c r="N10" s="157"/>
-      <c r="O10" s="157"/>
-      <c r="P10" s="158"/>
-      <c r="Q10" s="153"/>
-      <c r="R10" s="154"/>
-      <c r="S10" s="154"/>
-      <c r="T10" s="154"/>
-      <c r="U10" s="154"/>
-      <c r="V10" s="154"/>
-      <c r="W10" s="154"/>
-      <c r="X10" s="154"/>
-      <c r="Y10" s="154"/>
-      <c r="Z10" s="154"/>
-      <c r="AA10" s="154"/>
-      <c r="AB10" s="154"/>
-      <c r="AC10" s="154"/>
-      <c r="AD10" s="154"/>
-      <c r="AE10" s="155"/>
-      <c r="AF10" s="156"/>
-      <c r="AG10" s="157"/>
-      <c r="AH10" s="157"/>
-      <c r="AI10" s="158"/>
+      <c r="B10" s="152"/>
+      <c r="C10" s="153"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="157"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="149"/>
+      <c r="K10" s="150"/>
+      <c r="L10" s="150"/>
+      <c r="M10" s="150"/>
+      <c r="N10" s="150"/>
+      <c r="O10" s="150"/>
+      <c r="P10" s="151"/>
+      <c r="Q10" s="146"/>
+      <c r="R10" s="147"/>
+      <c r="S10" s="147"/>
+      <c r="T10" s="147"/>
+      <c r="U10" s="147"/>
+      <c r="V10" s="147"/>
+      <c r="W10" s="147"/>
+      <c r="X10" s="147"/>
+      <c r="Y10" s="147"/>
+      <c r="Z10" s="147"/>
+      <c r="AA10" s="147"/>
+      <c r="AB10" s="147"/>
+      <c r="AC10" s="147"/>
+      <c r="AD10" s="147"/>
+      <c r="AE10" s="148"/>
+      <c r="AF10" s="149"/>
+      <c r="AG10" s="150"/>
+      <c r="AH10" s="150"/>
+      <c r="AI10" s="151"/>
     </row>
     <row r="11" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="30"/>
-      <c r="B11" s="144"/>
-      <c r="C11" s="146"/>
-      <c r="D11" s="171"/>
-      <c r="E11" s="172"/>
-      <c r="F11" s="173"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="146"/>
-      <c r="J11" s="156"/>
-      <c r="K11" s="157"/>
-      <c r="L11" s="157"/>
-      <c r="M11" s="157"/>
-      <c r="N11" s="157"/>
-      <c r="O11" s="157"/>
-      <c r="P11" s="158"/>
-      <c r="Q11" s="153"/>
-      <c r="R11" s="154"/>
-      <c r="S11" s="154"/>
-      <c r="T11" s="154"/>
-      <c r="U11" s="154"/>
-      <c r="V11" s="154"/>
-      <c r="W11" s="154"/>
-      <c r="X11" s="154"/>
-      <c r="Y11" s="154"/>
-      <c r="Z11" s="154"/>
-      <c r="AA11" s="154"/>
-      <c r="AB11" s="154"/>
-      <c r="AC11" s="154"/>
-      <c r="AD11" s="154"/>
-      <c r="AE11" s="155"/>
-      <c r="AF11" s="156"/>
-      <c r="AG11" s="157"/>
-      <c r="AH11" s="157"/>
-      <c r="AI11" s="158"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="157"/>
+      <c r="I11" s="153"/>
+      <c r="J11" s="149"/>
+      <c r="K11" s="150"/>
+      <c r="L11" s="150"/>
+      <c r="M11" s="150"/>
+      <c r="N11" s="150"/>
+      <c r="O11" s="150"/>
+      <c r="P11" s="151"/>
+      <c r="Q11" s="146"/>
+      <c r="R11" s="147"/>
+      <c r="S11" s="147"/>
+      <c r="T11" s="147"/>
+      <c r="U11" s="147"/>
+      <c r="V11" s="147"/>
+      <c r="W11" s="147"/>
+      <c r="X11" s="147"/>
+      <c r="Y11" s="147"/>
+      <c r="Z11" s="147"/>
+      <c r="AA11" s="147"/>
+      <c r="AB11" s="147"/>
+      <c r="AC11" s="147"/>
+      <c r="AD11" s="147"/>
+      <c r="AE11" s="148"/>
+      <c r="AF11" s="149"/>
+      <c r="AG11" s="150"/>
+      <c r="AH11" s="150"/>
+      <c r="AI11" s="151"/>
     </row>
     <row r="12" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="30"/>
-      <c r="B12" s="144"/>
-      <c r="C12" s="146"/>
-      <c r="D12" s="171"/>
-      <c r="E12" s="172"/>
-      <c r="F12" s="173"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="145"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="156"/>
-      <c r="K12" s="157"/>
-      <c r="L12" s="157"/>
-      <c r="M12" s="157"/>
-      <c r="N12" s="157"/>
-      <c r="O12" s="157"/>
-      <c r="P12" s="158"/>
-      <c r="Q12" s="153"/>
-      <c r="R12" s="154"/>
-      <c r="S12" s="154"/>
-      <c r="T12" s="154"/>
-      <c r="U12" s="154"/>
-      <c r="V12" s="154"/>
-      <c r="W12" s="154"/>
-      <c r="X12" s="154"/>
-      <c r="Y12" s="154"/>
-      <c r="Z12" s="154"/>
-      <c r="AA12" s="154"/>
-      <c r="AB12" s="154"/>
-      <c r="AC12" s="154"/>
-      <c r="AD12" s="154"/>
-      <c r="AE12" s="155"/>
-      <c r="AF12" s="156"/>
-      <c r="AG12" s="157"/>
-      <c r="AH12" s="157"/>
-      <c r="AI12" s="158"/>
+      <c r="B12" s="152"/>
+      <c r="C12" s="153"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="157"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="149"/>
+      <c r="K12" s="150"/>
+      <c r="L12" s="150"/>
+      <c r="M12" s="150"/>
+      <c r="N12" s="150"/>
+      <c r="O12" s="150"/>
+      <c r="P12" s="151"/>
+      <c r="Q12" s="146"/>
+      <c r="R12" s="147"/>
+      <c r="S12" s="147"/>
+      <c r="T12" s="147"/>
+      <c r="U12" s="147"/>
+      <c r="V12" s="147"/>
+      <c r="W12" s="147"/>
+      <c r="X12" s="147"/>
+      <c r="Y12" s="147"/>
+      <c r="Z12" s="147"/>
+      <c r="AA12" s="147"/>
+      <c r="AB12" s="147"/>
+      <c r="AC12" s="147"/>
+      <c r="AD12" s="147"/>
+      <c r="AE12" s="148"/>
+      <c r="AF12" s="149"/>
+      <c r="AG12" s="150"/>
+      <c r="AH12" s="150"/>
+      <c r="AI12" s="151"/>
     </row>
     <row r="13" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="30"/>
-      <c r="B13" s="144"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="171"/>
-      <c r="E13" s="172"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="146"/>
-      <c r="J13" s="156"/>
-      <c r="K13" s="157"/>
-      <c r="L13" s="157"/>
-      <c r="M13" s="157"/>
-      <c r="N13" s="157"/>
-      <c r="O13" s="157"/>
-      <c r="P13" s="158"/>
-      <c r="Q13" s="153"/>
-      <c r="R13" s="154"/>
-      <c r="S13" s="154"/>
-      <c r="T13" s="154"/>
-      <c r="U13" s="154"/>
-      <c r="V13" s="154"/>
-      <c r="W13" s="154"/>
-      <c r="X13" s="154"/>
-      <c r="Y13" s="154"/>
-      <c r="Z13" s="154"/>
-      <c r="AA13" s="154"/>
-      <c r="AB13" s="154"/>
-      <c r="AC13" s="154"/>
-      <c r="AD13" s="154"/>
-      <c r="AE13" s="155"/>
-      <c r="AF13" s="156"/>
-      <c r="AG13" s="157"/>
-      <c r="AH13" s="157"/>
-      <c r="AI13" s="158"/>
+      <c r="B13" s="152"/>
+      <c r="C13" s="153"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="157"/>
+      <c r="I13" s="153"/>
+      <c r="J13" s="149"/>
+      <c r="K13" s="150"/>
+      <c r="L13" s="150"/>
+      <c r="M13" s="150"/>
+      <c r="N13" s="150"/>
+      <c r="O13" s="150"/>
+      <c r="P13" s="151"/>
+      <c r="Q13" s="146"/>
+      <c r="R13" s="147"/>
+      <c r="S13" s="147"/>
+      <c r="T13" s="147"/>
+      <c r="U13" s="147"/>
+      <c r="V13" s="147"/>
+      <c r="W13" s="147"/>
+      <c r="X13" s="147"/>
+      <c r="Y13" s="147"/>
+      <c r="Z13" s="147"/>
+      <c r="AA13" s="147"/>
+      <c r="AB13" s="147"/>
+      <c r="AC13" s="147"/>
+      <c r="AD13" s="147"/>
+      <c r="AE13" s="148"/>
+      <c r="AF13" s="149"/>
+      <c r="AG13" s="150"/>
+      <c r="AH13" s="150"/>
+      <c r="AI13" s="151"/>
     </row>
     <row r="14" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="30"/>
-      <c r="B14" s="144"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="171"/>
-      <c r="E14" s="172"/>
-      <c r="F14" s="173"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="156"/>
-      <c r="K14" s="157"/>
-      <c r="L14" s="157"/>
-      <c r="M14" s="157"/>
-      <c r="N14" s="157"/>
-      <c r="O14" s="157"/>
-      <c r="P14" s="158"/>
-      <c r="Q14" s="153"/>
-      <c r="R14" s="154"/>
-      <c r="S14" s="154"/>
-      <c r="T14" s="154"/>
-      <c r="U14" s="154"/>
-      <c r="V14" s="154"/>
-      <c r="W14" s="154"/>
-      <c r="X14" s="154"/>
-      <c r="Y14" s="154"/>
-      <c r="Z14" s="154"/>
-      <c r="AA14" s="154"/>
-      <c r="AB14" s="154"/>
-      <c r="AC14" s="154"/>
-      <c r="AD14" s="154"/>
-      <c r="AE14" s="155"/>
-      <c r="AF14" s="156"/>
-      <c r="AG14" s="157"/>
-      <c r="AH14" s="157"/>
-      <c r="AI14" s="158"/>
+      <c r="B14" s="152"/>
+      <c r="C14" s="153"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="155"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="157"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="149"/>
+      <c r="K14" s="150"/>
+      <c r="L14" s="150"/>
+      <c r="M14" s="150"/>
+      <c r="N14" s="150"/>
+      <c r="O14" s="150"/>
+      <c r="P14" s="151"/>
+      <c r="Q14" s="146"/>
+      <c r="R14" s="147"/>
+      <c r="S14" s="147"/>
+      <c r="T14" s="147"/>
+      <c r="U14" s="147"/>
+      <c r="V14" s="147"/>
+      <c r="W14" s="147"/>
+      <c r="X14" s="147"/>
+      <c r="Y14" s="147"/>
+      <c r="Z14" s="147"/>
+      <c r="AA14" s="147"/>
+      <c r="AB14" s="147"/>
+      <c r="AC14" s="147"/>
+      <c r="AD14" s="147"/>
+      <c r="AE14" s="148"/>
+      <c r="AF14" s="149"/>
+      <c r="AG14" s="150"/>
+      <c r="AH14" s="150"/>
+      <c r="AI14" s="151"/>
     </row>
     <row r="15" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="30"/>
-      <c r="B15" s="144"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="171"/>
-      <c r="E15" s="172"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="146"/>
-      <c r="J15" s="156"/>
-      <c r="K15" s="157"/>
-      <c r="L15" s="157"/>
-      <c r="M15" s="157"/>
-      <c r="N15" s="157"/>
-      <c r="O15" s="157"/>
-      <c r="P15" s="158"/>
-      <c r="Q15" s="153"/>
-      <c r="R15" s="154"/>
-      <c r="S15" s="154"/>
-      <c r="T15" s="154"/>
-      <c r="U15" s="154"/>
-      <c r="V15" s="154"/>
-      <c r="W15" s="154"/>
-      <c r="X15" s="154"/>
-      <c r="Y15" s="154"/>
-      <c r="Z15" s="154"/>
-      <c r="AA15" s="154"/>
-      <c r="AB15" s="154"/>
-      <c r="AC15" s="154"/>
-      <c r="AD15" s="154"/>
-      <c r="AE15" s="155"/>
-      <c r="AF15" s="156"/>
-      <c r="AG15" s="157"/>
-      <c r="AH15" s="157"/>
-      <c r="AI15" s="158"/>
+      <c r="B15" s="152"/>
+      <c r="C15" s="153"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="157"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="149"/>
+      <c r="K15" s="150"/>
+      <c r="L15" s="150"/>
+      <c r="M15" s="150"/>
+      <c r="N15" s="150"/>
+      <c r="O15" s="150"/>
+      <c r="P15" s="151"/>
+      <c r="Q15" s="146"/>
+      <c r="R15" s="147"/>
+      <c r="S15" s="147"/>
+      <c r="T15" s="147"/>
+      <c r="U15" s="147"/>
+      <c r="V15" s="147"/>
+      <c r="W15" s="147"/>
+      <c r="X15" s="147"/>
+      <c r="Y15" s="147"/>
+      <c r="Z15" s="147"/>
+      <c r="AA15" s="147"/>
+      <c r="AB15" s="147"/>
+      <c r="AC15" s="147"/>
+      <c r="AD15" s="147"/>
+      <c r="AE15" s="148"/>
+      <c r="AF15" s="149"/>
+      <c r="AG15" s="150"/>
+      <c r="AH15" s="150"/>
+      <c r="AI15" s="151"/>
     </row>
     <row r="16" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="30"/>
-      <c r="B16" s="144"/>
-      <c r="C16" s="146"/>
-      <c r="D16" s="171"/>
-      <c r="E16" s="172"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="145"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="156"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="157"/>
-      <c r="M16" s="157"/>
-      <c r="N16" s="157"/>
-      <c r="O16" s="157"/>
-      <c r="P16" s="158"/>
-      <c r="Q16" s="153"/>
-      <c r="R16" s="154"/>
-      <c r="S16" s="154"/>
-      <c r="T16" s="154"/>
-      <c r="U16" s="154"/>
-      <c r="V16" s="154"/>
-      <c r="W16" s="154"/>
-      <c r="X16" s="154"/>
-      <c r="Y16" s="154"/>
-      <c r="Z16" s="154"/>
-      <c r="AA16" s="154"/>
-      <c r="AB16" s="154"/>
-      <c r="AC16" s="154"/>
-      <c r="AD16" s="154"/>
-      <c r="AE16" s="155"/>
-      <c r="AF16" s="156"/>
-      <c r="AG16" s="157"/>
-      <c r="AH16" s="157"/>
-      <c r="AI16" s="158"/>
+      <c r="B16" s="152"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="156"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="149"/>
+      <c r="K16" s="150"/>
+      <c r="L16" s="150"/>
+      <c r="M16" s="150"/>
+      <c r="N16" s="150"/>
+      <c r="O16" s="150"/>
+      <c r="P16" s="151"/>
+      <c r="Q16" s="146"/>
+      <c r="R16" s="147"/>
+      <c r="S16" s="147"/>
+      <c r="T16" s="147"/>
+      <c r="U16" s="147"/>
+      <c r="V16" s="147"/>
+      <c r="W16" s="147"/>
+      <c r="X16" s="147"/>
+      <c r="Y16" s="147"/>
+      <c r="Z16" s="147"/>
+      <c r="AA16" s="147"/>
+      <c r="AB16" s="147"/>
+      <c r="AC16" s="147"/>
+      <c r="AD16" s="147"/>
+      <c r="AE16" s="148"/>
+      <c r="AF16" s="149"/>
+      <c r="AG16" s="150"/>
+      <c r="AH16" s="150"/>
+      <c r="AI16" s="151"/>
     </row>
     <row r="17" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="30"/>
-      <c r="B17" s="144"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="171"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="156"/>
-      <c r="K17" s="157"/>
-      <c r="L17" s="157"/>
-      <c r="M17" s="157"/>
-      <c r="N17" s="157"/>
-      <c r="O17" s="157"/>
-      <c r="P17" s="158"/>
-      <c r="Q17" s="153"/>
-      <c r="R17" s="154"/>
-      <c r="S17" s="154"/>
-      <c r="T17" s="154"/>
-      <c r="U17" s="154"/>
-      <c r="V17" s="154"/>
-      <c r="W17" s="154"/>
-      <c r="X17" s="154"/>
-      <c r="Y17" s="154"/>
-      <c r="Z17" s="154"/>
-      <c r="AA17" s="154"/>
-      <c r="AB17" s="154"/>
-      <c r="AC17" s="154"/>
-      <c r="AD17" s="154"/>
-      <c r="AE17" s="155"/>
-      <c r="AF17" s="156"/>
-      <c r="AG17" s="157"/>
-      <c r="AH17" s="157"/>
-      <c r="AI17" s="158"/>
+      <c r="B17" s="152"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="155"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="157"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="149"/>
+      <c r="K17" s="150"/>
+      <c r="L17" s="150"/>
+      <c r="M17" s="150"/>
+      <c r="N17" s="150"/>
+      <c r="O17" s="150"/>
+      <c r="P17" s="151"/>
+      <c r="Q17" s="146"/>
+      <c r="R17" s="147"/>
+      <c r="S17" s="147"/>
+      <c r="T17" s="147"/>
+      <c r="U17" s="147"/>
+      <c r="V17" s="147"/>
+      <c r="W17" s="147"/>
+      <c r="X17" s="147"/>
+      <c r="Y17" s="147"/>
+      <c r="Z17" s="147"/>
+      <c r="AA17" s="147"/>
+      <c r="AB17" s="147"/>
+      <c r="AC17" s="147"/>
+      <c r="AD17" s="147"/>
+      <c r="AE17" s="148"/>
+      <c r="AF17" s="149"/>
+      <c r="AG17" s="150"/>
+      <c r="AH17" s="150"/>
+      <c r="AI17" s="151"/>
     </row>
     <row r="18" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="30"/>
-      <c r="B18" s="144"/>
-      <c r="C18" s="146"/>
-      <c r="D18" s="171"/>
-      <c r="E18" s="172"/>
-      <c r="F18" s="173"/>
-      <c r="G18" s="144"/>
-      <c r="H18" s="145"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="156"/>
-      <c r="K18" s="157"/>
-      <c r="L18" s="157"/>
-      <c r="M18" s="157"/>
-      <c r="N18" s="157"/>
-      <c r="O18" s="157"/>
-      <c r="P18" s="158"/>
-      <c r="Q18" s="153"/>
-      <c r="R18" s="154"/>
-      <c r="S18" s="154"/>
-      <c r="T18" s="154"/>
-      <c r="U18" s="154"/>
-      <c r="V18" s="154"/>
-      <c r="W18" s="154"/>
-      <c r="X18" s="154"/>
-      <c r="Y18" s="154"/>
-      <c r="Z18" s="154"/>
-      <c r="AA18" s="154"/>
-      <c r="AB18" s="154"/>
-      <c r="AC18" s="154"/>
-      <c r="AD18" s="154"/>
-      <c r="AE18" s="155"/>
-      <c r="AF18" s="156"/>
-      <c r="AG18" s="157"/>
-      <c r="AH18" s="157"/>
-      <c r="AI18" s="158"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="153"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="156"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="157"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="149"/>
+      <c r="K18" s="150"/>
+      <c r="L18" s="150"/>
+      <c r="M18" s="150"/>
+      <c r="N18" s="150"/>
+      <c r="O18" s="150"/>
+      <c r="P18" s="151"/>
+      <c r="Q18" s="146"/>
+      <c r="R18" s="147"/>
+      <c r="S18" s="147"/>
+      <c r="T18" s="147"/>
+      <c r="U18" s="147"/>
+      <c r="V18" s="147"/>
+      <c r="W18" s="147"/>
+      <c r="X18" s="147"/>
+      <c r="Y18" s="147"/>
+      <c r="Z18" s="147"/>
+      <c r="AA18" s="147"/>
+      <c r="AB18" s="147"/>
+      <c r="AC18" s="147"/>
+      <c r="AD18" s="147"/>
+      <c r="AE18" s="148"/>
+      <c r="AF18" s="149"/>
+      <c r="AG18" s="150"/>
+      <c r="AH18" s="150"/>
+      <c r="AI18" s="151"/>
     </row>
     <row r="19" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="30"/>
-      <c r="B19" s="144"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="171"/>
-      <c r="E19" s="172"/>
-      <c r="F19" s="173"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="156"/>
-      <c r="K19" s="157"/>
-      <c r="L19" s="157"/>
-      <c r="M19" s="157"/>
-      <c r="N19" s="157"/>
-      <c r="O19" s="157"/>
-      <c r="P19" s="158"/>
-      <c r="Q19" s="153"/>
-      <c r="R19" s="154"/>
-      <c r="S19" s="154"/>
-      <c r="T19" s="154"/>
-      <c r="U19" s="154"/>
-      <c r="V19" s="154"/>
-      <c r="W19" s="154"/>
-      <c r="X19" s="154"/>
-      <c r="Y19" s="154"/>
-      <c r="Z19" s="154"/>
-      <c r="AA19" s="154"/>
-      <c r="AB19" s="154"/>
-      <c r="AC19" s="154"/>
-      <c r="AD19" s="154"/>
-      <c r="AE19" s="155"/>
-      <c r="AF19" s="156"/>
-      <c r="AG19" s="157"/>
-      <c r="AH19" s="157"/>
-      <c r="AI19" s="158"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="157"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="149"/>
+      <c r="K19" s="150"/>
+      <c r="L19" s="150"/>
+      <c r="M19" s="150"/>
+      <c r="N19" s="150"/>
+      <c r="O19" s="150"/>
+      <c r="P19" s="151"/>
+      <c r="Q19" s="146"/>
+      <c r="R19" s="147"/>
+      <c r="S19" s="147"/>
+      <c r="T19" s="147"/>
+      <c r="U19" s="147"/>
+      <c r="V19" s="147"/>
+      <c r="W19" s="147"/>
+      <c r="X19" s="147"/>
+      <c r="Y19" s="147"/>
+      <c r="Z19" s="147"/>
+      <c r="AA19" s="147"/>
+      <c r="AB19" s="147"/>
+      <c r="AC19" s="147"/>
+      <c r="AD19" s="147"/>
+      <c r="AE19" s="148"/>
+      <c r="AF19" s="149"/>
+      <c r="AG19" s="150"/>
+      <c r="AH19" s="150"/>
+      <c r="AI19" s="151"/>
     </row>
     <row r="20" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="30"/>
-      <c r="B20" s="144"/>
-      <c r="C20" s="146"/>
-      <c r="D20" s="171"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="173"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="156"/>
-      <c r="K20" s="157"/>
-      <c r="L20" s="157"/>
-      <c r="M20" s="157"/>
-      <c r="N20" s="157"/>
-      <c r="O20" s="157"/>
-      <c r="P20" s="158"/>
-      <c r="Q20" s="153"/>
-      <c r="R20" s="154"/>
-      <c r="S20" s="154"/>
-      <c r="T20" s="154"/>
-      <c r="U20" s="154"/>
-      <c r="V20" s="154"/>
-      <c r="W20" s="154"/>
-      <c r="X20" s="154"/>
-      <c r="Y20" s="154"/>
-      <c r="Z20" s="154"/>
-      <c r="AA20" s="154"/>
-      <c r="AB20" s="154"/>
-      <c r="AC20" s="154"/>
-      <c r="AD20" s="154"/>
-      <c r="AE20" s="155"/>
-      <c r="AF20" s="156"/>
-      <c r="AG20" s="157"/>
-      <c r="AH20" s="157"/>
-      <c r="AI20" s="158"/>
+      <c r="B20" s="152"/>
+      <c r="C20" s="153"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="157"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="149"/>
+      <c r="K20" s="150"/>
+      <c r="L20" s="150"/>
+      <c r="M20" s="150"/>
+      <c r="N20" s="150"/>
+      <c r="O20" s="150"/>
+      <c r="P20" s="151"/>
+      <c r="Q20" s="146"/>
+      <c r="R20" s="147"/>
+      <c r="S20" s="147"/>
+      <c r="T20" s="147"/>
+      <c r="U20" s="147"/>
+      <c r="V20" s="147"/>
+      <c r="W20" s="147"/>
+      <c r="X20" s="147"/>
+      <c r="Y20" s="147"/>
+      <c r="Z20" s="147"/>
+      <c r="AA20" s="147"/>
+      <c r="AB20" s="147"/>
+      <c r="AC20" s="147"/>
+      <c r="AD20" s="147"/>
+      <c r="AE20" s="148"/>
+      <c r="AF20" s="149"/>
+      <c r="AG20" s="150"/>
+      <c r="AH20" s="150"/>
+      <c r="AI20" s="151"/>
     </row>
     <row r="21" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="30"/>
-      <c r="B21" s="144"/>
-      <c r="C21" s="146"/>
-      <c r="D21" s="171"/>
-      <c r="E21" s="172"/>
-      <c r="F21" s="173"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="156"/>
-      <c r="K21" s="157"/>
-      <c r="L21" s="157"/>
-      <c r="M21" s="157"/>
-      <c r="N21" s="157"/>
-      <c r="O21" s="157"/>
-      <c r="P21" s="158"/>
-      <c r="Q21" s="153"/>
-      <c r="R21" s="154"/>
-      <c r="S21" s="154"/>
-      <c r="T21" s="154"/>
-      <c r="U21" s="154"/>
-      <c r="V21" s="154"/>
-      <c r="W21" s="154"/>
-      <c r="X21" s="154"/>
-      <c r="Y21" s="154"/>
-      <c r="Z21" s="154"/>
-      <c r="AA21" s="154"/>
-      <c r="AB21" s="154"/>
-      <c r="AC21" s="154"/>
-      <c r="AD21" s="154"/>
-      <c r="AE21" s="155"/>
-      <c r="AF21" s="156"/>
-      <c r="AG21" s="157"/>
-      <c r="AH21" s="157"/>
-      <c r="AI21" s="158"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="153"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="157"/>
+      <c r="I21" s="153"/>
+      <c r="J21" s="149"/>
+      <c r="K21" s="150"/>
+      <c r="L21" s="150"/>
+      <c r="M21" s="150"/>
+      <c r="N21" s="150"/>
+      <c r="O21" s="150"/>
+      <c r="P21" s="151"/>
+      <c r="Q21" s="146"/>
+      <c r="R21" s="147"/>
+      <c r="S21" s="147"/>
+      <c r="T21" s="147"/>
+      <c r="U21" s="147"/>
+      <c r="V21" s="147"/>
+      <c r="W21" s="147"/>
+      <c r="X21" s="147"/>
+      <c r="Y21" s="147"/>
+      <c r="Z21" s="147"/>
+      <c r="AA21" s="147"/>
+      <c r="AB21" s="147"/>
+      <c r="AC21" s="147"/>
+      <c r="AD21" s="147"/>
+      <c r="AE21" s="148"/>
+      <c r="AF21" s="149"/>
+      <c r="AG21" s="150"/>
+      <c r="AH21" s="150"/>
+      <c r="AI21" s="151"/>
     </row>
     <row r="22" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="30"/>
-      <c r="B22" s="144"/>
-      <c r="C22" s="146"/>
-      <c r="D22" s="171"/>
-      <c r="E22" s="172"/>
-      <c r="F22" s="173"/>
-      <c r="G22" s="144"/>
-      <c r="H22" s="145"/>
-      <c r="I22" s="146"/>
-      <c r="J22" s="156"/>
-      <c r="K22" s="157"/>
-      <c r="L22" s="157"/>
-      <c r="M22" s="157"/>
-      <c r="N22" s="157"/>
-      <c r="O22" s="157"/>
-      <c r="P22" s="158"/>
-      <c r="Q22" s="153"/>
-      <c r="R22" s="154"/>
-      <c r="S22" s="154"/>
-      <c r="T22" s="154"/>
-      <c r="U22" s="154"/>
-      <c r="V22" s="154"/>
-      <c r="W22" s="154"/>
-      <c r="X22" s="154"/>
-      <c r="Y22" s="154"/>
-      <c r="Z22" s="154"/>
-      <c r="AA22" s="154"/>
-      <c r="AB22" s="154"/>
-      <c r="AC22" s="154"/>
-      <c r="AD22" s="154"/>
-      <c r="AE22" s="155"/>
-      <c r="AF22" s="156"/>
-      <c r="AG22" s="157"/>
-      <c r="AH22" s="157"/>
-      <c r="AI22" s="158"/>
+      <c r="B22" s="152"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="157"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="149"/>
+      <c r="K22" s="150"/>
+      <c r="L22" s="150"/>
+      <c r="M22" s="150"/>
+      <c r="N22" s="150"/>
+      <c r="O22" s="150"/>
+      <c r="P22" s="151"/>
+      <c r="Q22" s="146"/>
+      <c r="R22" s="147"/>
+      <c r="S22" s="147"/>
+      <c r="T22" s="147"/>
+      <c r="U22" s="147"/>
+      <c r="V22" s="147"/>
+      <c r="W22" s="147"/>
+      <c r="X22" s="147"/>
+      <c r="Y22" s="147"/>
+      <c r="Z22" s="147"/>
+      <c r="AA22" s="147"/>
+      <c r="AB22" s="147"/>
+      <c r="AC22" s="147"/>
+      <c r="AD22" s="147"/>
+      <c r="AE22" s="148"/>
+      <c r="AF22" s="149"/>
+      <c r="AG22" s="150"/>
+      <c r="AH22" s="150"/>
+      <c r="AI22" s="151"/>
     </row>
     <row r="23" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="30"/>
-      <c r="B23" s="144"/>
-      <c r="C23" s="146"/>
-      <c r="D23" s="171"/>
-      <c r="E23" s="172"/>
-      <c r="F23" s="173"/>
-      <c r="G23" s="144"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="146"/>
-      <c r="J23" s="156"/>
-      <c r="K23" s="157"/>
-      <c r="L23" s="157"/>
-      <c r="M23" s="157"/>
-      <c r="N23" s="157"/>
-      <c r="O23" s="157"/>
-      <c r="P23" s="158"/>
-      <c r="Q23" s="153"/>
-      <c r="R23" s="154"/>
-      <c r="S23" s="154"/>
-      <c r="T23" s="154"/>
-      <c r="U23" s="154"/>
-      <c r="V23" s="154"/>
-      <c r="W23" s="154"/>
-      <c r="X23" s="154"/>
-      <c r="Y23" s="154"/>
-      <c r="Z23" s="154"/>
-      <c r="AA23" s="154"/>
-      <c r="AB23" s="154"/>
-      <c r="AC23" s="154"/>
-      <c r="AD23" s="154"/>
-      <c r="AE23" s="155"/>
-      <c r="AF23" s="156"/>
-      <c r="AG23" s="157"/>
-      <c r="AH23" s="157"/>
-      <c r="AI23" s="158"/>
+      <c r="B23" s="152"/>
+      <c r="C23" s="153"/>
+      <c r="D23" s="154"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="157"/>
+      <c r="I23" s="153"/>
+      <c r="J23" s="149"/>
+      <c r="K23" s="150"/>
+      <c r="L23" s="150"/>
+      <c r="M23" s="150"/>
+      <c r="N23" s="150"/>
+      <c r="O23" s="150"/>
+      <c r="P23" s="151"/>
+      <c r="Q23" s="146"/>
+      <c r="R23" s="147"/>
+      <c r="S23" s="147"/>
+      <c r="T23" s="147"/>
+      <c r="U23" s="147"/>
+      <c r="V23" s="147"/>
+      <c r="W23" s="147"/>
+      <c r="X23" s="147"/>
+      <c r="Y23" s="147"/>
+      <c r="Z23" s="147"/>
+      <c r="AA23" s="147"/>
+      <c r="AB23" s="147"/>
+      <c r="AC23" s="147"/>
+      <c r="AD23" s="147"/>
+      <c r="AE23" s="148"/>
+      <c r="AF23" s="149"/>
+      <c r="AG23" s="150"/>
+      <c r="AH23" s="150"/>
+      <c r="AI23" s="151"/>
     </row>
     <row r="24" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="30"/>
-      <c r="B24" s="144"/>
-      <c r="C24" s="146"/>
-      <c r="D24" s="171"/>
-      <c r="E24" s="172"/>
-      <c r="F24" s="173"/>
-      <c r="G24" s="144"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="146"/>
-      <c r="J24" s="156"/>
-      <c r="K24" s="157"/>
-      <c r="L24" s="157"/>
-      <c r="M24" s="157"/>
-      <c r="N24" s="157"/>
-      <c r="O24" s="157"/>
-      <c r="P24" s="158"/>
-      <c r="Q24" s="153"/>
-      <c r="R24" s="154"/>
-      <c r="S24" s="154"/>
-      <c r="T24" s="154"/>
-      <c r="U24" s="154"/>
-      <c r="V24" s="154"/>
-      <c r="W24" s="154"/>
-      <c r="X24" s="154"/>
-      <c r="Y24" s="154"/>
-      <c r="Z24" s="154"/>
-      <c r="AA24" s="154"/>
-      <c r="AB24" s="154"/>
-      <c r="AC24" s="154"/>
-      <c r="AD24" s="154"/>
-      <c r="AE24" s="155"/>
-      <c r="AF24" s="156"/>
-      <c r="AG24" s="157"/>
-      <c r="AH24" s="157"/>
-      <c r="AI24" s="158"/>
+      <c r="B24" s="152"/>
+      <c r="C24" s="153"/>
+      <c r="D24" s="154"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="157"/>
+      <c r="I24" s="153"/>
+      <c r="J24" s="149"/>
+      <c r="K24" s="150"/>
+      <c r="L24" s="150"/>
+      <c r="M24" s="150"/>
+      <c r="N24" s="150"/>
+      <c r="O24" s="150"/>
+      <c r="P24" s="151"/>
+      <c r="Q24" s="146"/>
+      <c r="R24" s="147"/>
+      <c r="S24" s="147"/>
+      <c r="T24" s="147"/>
+      <c r="U24" s="147"/>
+      <c r="V24" s="147"/>
+      <c r="W24" s="147"/>
+      <c r="X24" s="147"/>
+      <c r="Y24" s="147"/>
+      <c r="Z24" s="147"/>
+      <c r="AA24" s="147"/>
+      <c r="AB24" s="147"/>
+      <c r="AC24" s="147"/>
+      <c r="AD24" s="147"/>
+      <c r="AE24" s="148"/>
+      <c r="AF24" s="149"/>
+      <c r="AG24" s="150"/>
+      <c r="AH24" s="150"/>
+      <c r="AI24" s="151"/>
     </row>
     <row r="25" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="30"/>
-      <c r="B25" s="144"/>
-      <c r="C25" s="146"/>
-      <c r="D25" s="171"/>
-      <c r="E25" s="172"/>
-      <c r="F25" s="173"/>
-      <c r="G25" s="144"/>
-      <c r="H25" s="145"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="156"/>
-      <c r="K25" s="157"/>
-      <c r="L25" s="157"/>
-      <c r="M25" s="157"/>
-      <c r="N25" s="157"/>
-      <c r="O25" s="157"/>
-      <c r="P25" s="158"/>
-      <c r="Q25" s="153"/>
-      <c r="R25" s="154"/>
-      <c r="S25" s="154"/>
-      <c r="T25" s="154"/>
-      <c r="U25" s="154"/>
-      <c r="V25" s="154"/>
-      <c r="W25" s="154"/>
-      <c r="X25" s="154"/>
-      <c r="Y25" s="154"/>
-      <c r="Z25" s="154"/>
-      <c r="AA25" s="154"/>
-      <c r="AB25" s="154"/>
-      <c r="AC25" s="154"/>
-      <c r="AD25" s="154"/>
-      <c r="AE25" s="155"/>
-      <c r="AF25" s="156"/>
-      <c r="AG25" s="157"/>
-      <c r="AH25" s="157"/>
-      <c r="AI25" s="158"/>
+      <c r="B25" s="152"/>
+      <c r="C25" s="153"/>
+      <c r="D25" s="154"/>
+      <c r="E25" s="155"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="157"/>
+      <c r="I25" s="153"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="150"/>
+      <c r="L25" s="150"/>
+      <c r="M25" s="150"/>
+      <c r="N25" s="150"/>
+      <c r="O25" s="150"/>
+      <c r="P25" s="151"/>
+      <c r="Q25" s="146"/>
+      <c r="R25" s="147"/>
+      <c r="S25" s="147"/>
+      <c r="T25" s="147"/>
+      <c r="U25" s="147"/>
+      <c r="V25" s="147"/>
+      <c r="W25" s="147"/>
+      <c r="X25" s="147"/>
+      <c r="Y25" s="147"/>
+      <c r="Z25" s="147"/>
+      <c r="AA25" s="147"/>
+      <c r="AB25" s="147"/>
+      <c r="AC25" s="147"/>
+      <c r="AD25" s="147"/>
+      <c r="AE25" s="148"/>
+      <c r="AF25" s="149"/>
+      <c r="AG25" s="150"/>
+      <c r="AH25" s="150"/>
+      <c r="AI25" s="151"/>
     </row>
     <row r="26" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="30"/>
-      <c r="B26" s="144"/>
-      <c r="C26" s="146"/>
-      <c r="D26" s="171"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="173"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="156"/>
-      <c r="K26" s="157"/>
-      <c r="L26" s="157"/>
-      <c r="M26" s="157"/>
-      <c r="N26" s="157"/>
-      <c r="O26" s="157"/>
-      <c r="P26" s="158"/>
-      <c r="Q26" s="153"/>
-      <c r="R26" s="154"/>
-      <c r="S26" s="154"/>
-      <c r="T26" s="154"/>
-      <c r="U26" s="154"/>
-      <c r="V26" s="154"/>
-      <c r="W26" s="154"/>
-      <c r="X26" s="154"/>
-      <c r="Y26" s="154"/>
-      <c r="Z26" s="154"/>
-      <c r="AA26" s="154"/>
-      <c r="AB26" s="154"/>
-      <c r="AC26" s="154"/>
-      <c r="AD26" s="154"/>
-      <c r="AE26" s="155"/>
-      <c r="AF26" s="156"/>
-      <c r="AG26" s="157"/>
-      <c r="AH26" s="157"/>
-      <c r="AI26" s="158"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="153"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="157"/>
+      <c r="I26" s="153"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
+      <c r="N26" s="150"/>
+      <c r="O26" s="150"/>
+      <c r="P26" s="151"/>
+      <c r="Q26" s="146"/>
+      <c r="R26" s="147"/>
+      <c r="S26" s="147"/>
+      <c r="T26" s="147"/>
+      <c r="U26" s="147"/>
+      <c r="V26" s="147"/>
+      <c r="W26" s="147"/>
+      <c r="X26" s="147"/>
+      <c r="Y26" s="147"/>
+      <c r="Z26" s="147"/>
+      <c r="AA26" s="147"/>
+      <c r="AB26" s="147"/>
+      <c r="AC26" s="147"/>
+      <c r="AD26" s="147"/>
+      <c r="AE26" s="148"/>
+      <c r="AF26" s="149"/>
+      <c r="AG26" s="150"/>
+      <c r="AH26" s="150"/>
+      <c r="AI26" s="151"/>
     </row>
     <row r="27" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
-      <c r="B27" s="144"/>
-      <c r="C27" s="146"/>
-      <c r="D27" s="171"/>
-      <c r="E27" s="172"/>
-      <c r="F27" s="173"/>
-      <c r="G27" s="144"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="156"/>
-      <c r="K27" s="157"/>
-      <c r="L27" s="157"/>
-      <c r="M27" s="157"/>
-      <c r="N27" s="157"/>
-      <c r="O27" s="157"/>
-      <c r="P27" s="158"/>
-      <c r="Q27" s="153"/>
-      <c r="R27" s="154"/>
-      <c r="S27" s="154"/>
-      <c r="T27" s="154"/>
-      <c r="U27" s="154"/>
-      <c r="V27" s="154"/>
-      <c r="W27" s="154"/>
-      <c r="X27" s="154"/>
-      <c r="Y27" s="154"/>
-      <c r="Z27" s="154"/>
-      <c r="AA27" s="154"/>
-      <c r="AB27" s="154"/>
-      <c r="AC27" s="154"/>
-      <c r="AD27" s="154"/>
-      <c r="AE27" s="155"/>
-      <c r="AF27" s="156"/>
-      <c r="AG27" s="157"/>
-      <c r="AH27" s="157"/>
-      <c r="AI27" s="158"/>
+      <c r="B27" s="152"/>
+      <c r="C27" s="153"/>
+      <c r="D27" s="154"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="156"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="157"/>
+      <c r="I27" s="153"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
+      <c r="N27" s="150"/>
+      <c r="O27" s="150"/>
+      <c r="P27" s="151"/>
+      <c r="Q27" s="146"/>
+      <c r="R27" s="147"/>
+      <c r="S27" s="147"/>
+      <c r="T27" s="147"/>
+      <c r="U27" s="147"/>
+      <c r="V27" s="147"/>
+      <c r="W27" s="147"/>
+      <c r="X27" s="147"/>
+      <c r="Y27" s="147"/>
+      <c r="Z27" s="147"/>
+      <c r="AA27" s="147"/>
+      <c r="AB27" s="147"/>
+      <c r="AC27" s="147"/>
+      <c r="AD27" s="147"/>
+      <c r="AE27" s="148"/>
+      <c r="AF27" s="149"/>
+      <c r="AG27" s="150"/>
+      <c r="AH27" s="150"/>
+      <c r="AI27" s="151"/>
     </row>
     <row r="28" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="30"/>
-      <c r="B28" s="144"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="171"/>
-      <c r="E28" s="172"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="145"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="156"/>
-      <c r="K28" s="157"/>
-      <c r="L28" s="157"/>
-      <c r="M28" s="157"/>
-      <c r="N28" s="157"/>
-      <c r="O28" s="157"/>
-      <c r="P28" s="158"/>
-      <c r="Q28" s="153"/>
-      <c r="R28" s="154"/>
-      <c r="S28" s="154"/>
-      <c r="T28" s="154"/>
-      <c r="U28" s="154"/>
-      <c r="V28" s="154"/>
-      <c r="W28" s="154"/>
-      <c r="X28" s="154"/>
-      <c r="Y28" s="154"/>
-      <c r="Z28" s="154"/>
-      <c r="AA28" s="154"/>
-      <c r="AB28" s="154"/>
-      <c r="AC28" s="154"/>
-      <c r="AD28" s="154"/>
-      <c r="AE28" s="155"/>
-      <c r="AF28" s="156"/>
-      <c r="AG28" s="157"/>
-      <c r="AH28" s="157"/>
-      <c r="AI28" s="158"/>
+      <c r="B28" s="152"/>
+      <c r="C28" s="153"/>
+      <c r="D28" s="154"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="157"/>
+      <c r="I28" s="153"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
+      <c r="N28" s="150"/>
+      <c r="O28" s="150"/>
+      <c r="P28" s="151"/>
+      <c r="Q28" s="146"/>
+      <c r="R28" s="147"/>
+      <c r="S28" s="147"/>
+      <c r="T28" s="147"/>
+      <c r="U28" s="147"/>
+      <c r="V28" s="147"/>
+      <c r="W28" s="147"/>
+      <c r="X28" s="147"/>
+      <c r="Y28" s="147"/>
+      <c r="Z28" s="147"/>
+      <c r="AA28" s="147"/>
+      <c r="AB28" s="147"/>
+      <c r="AC28" s="147"/>
+      <c r="AD28" s="147"/>
+      <c r="AE28" s="148"/>
+      <c r="AF28" s="149"/>
+      <c r="AG28" s="150"/>
+      <c r="AH28" s="150"/>
+      <c r="AI28" s="151"/>
     </row>
     <row r="29" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
-      <c r="B29" s="144"/>
-      <c r="C29" s="146"/>
-      <c r="D29" s="171"/>
-      <c r="E29" s="172"/>
-      <c r="F29" s="173"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="145"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="156"/>
-      <c r="K29" s="157"/>
-      <c r="L29" s="157"/>
-      <c r="M29" s="157"/>
-      <c r="N29" s="157"/>
-      <c r="O29" s="157"/>
-      <c r="P29" s="158"/>
-      <c r="Q29" s="153"/>
-      <c r="R29" s="154"/>
-      <c r="S29" s="154"/>
-      <c r="T29" s="154"/>
-      <c r="U29" s="154"/>
-      <c r="V29" s="154"/>
-      <c r="W29" s="154"/>
-      <c r="X29" s="154"/>
-      <c r="Y29" s="154"/>
-      <c r="Z29" s="154"/>
-      <c r="AA29" s="154"/>
-      <c r="AB29" s="154"/>
-      <c r="AC29" s="154"/>
-      <c r="AD29" s="154"/>
-      <c r="AE29" s="155"/>
-      <c r="AF29" s="156"/>
-      <c r="AG29" s="157"/>
-      <c r="AH29" s="157"/>
-      <c r="AI29" s="158"/>
+      <c r="B29" s="152"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="155"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="157"/>
+      <c r="I29" s="153"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
+      <c r="N29" s="150"/>
+      <c r="O29" s="150"/>
+      <c r="P29" s="151"/>
+      <c r="Q29" s="146"/>
+      <c r="R29" s="147"/>
+      <c r="S29" s="147"/>
+      <c r="T29" s="147"/>
+      <c r="U29" s="147"/>
+      <c r="V29" s="147"/>
+      <c r="W29" s="147"/>
+      <c r="X29" s="147"/>
+      <c r="Y29" s="147"/>
+      <c r="Z29" s="147"/>
+      <c r="AA29" s="147"/>
+      <c r="AB29" s="147"/>
+      <c r="AC29" s="147"/>
+      <c r="AD29" s="147"/>
+      <c r="AE29" s="148"/>
+      <c r="AF29" s="149"/>
+      <c r="AG29" s="150"/>
+      <c r="AH29" s="150"/>
+      <c r="AI29" s="151"/>
     </row>
     <row r="30" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
-      <c r="B30" s="144"/>
-      <c r="C30" s="146"/>
-      <c r="D30" s="171"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="173"/>
-      <c r="G30" s="144"/>
-      <c r="H30" s="145"/>
-      <c r="I30" s="146"/>
-      <c r="J30" s="156"/>
-      <c r="K30" s="157"/>
-      <c r="L30" s="157"/>
-      <c r="M30" s="157"/>
-      <c r="N30" s="157"/>
-      <c r="O30" s="157"/>
-      <c r="P30" s="158"/>
-      <c r="Q30" s="153"/>
-      <c r="R30" s="154"/>
-      <c r="S30" s="154"/>
-      <c r="T30" s="154"/>
-      <c r="U30" s="154"/>
-      <c r="V30" s="154"/>
-      <c r="W30" s="154"/>
-      <c r="X30" s="154"/>
-      <c r="Y30" s="154"/>
-      <c r="Z30" s="154"/>
-      <c r="AA30" s="154"/>
-      <c r="AB30" s="154"/>
-      <c r="AC30" s="154"/>
-      <c r="AD30" s="154"/>
-      <c r="AE30" s="155"/>
-      <c r="AF30" s="156"/>
-      <c r="AG30" s="157"/>
-      <c r="AH30" s="157"/>
-      <c r="AI30" s="158"/>
+      <c r="B30" s="152"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="155"/>
+      <c r="F30" s="156"/>
+      <c r="G30" s="152"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="153"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
+      <c r="N30" s="150"/>
+      <c r="O30" s="150"/>
+      <c r="P30" s="151"/>
+      <c r="Q30" s="146"/>
+      <c r="R30" s="147"/>
+      <c r="S30" s="147"/>
+      <c r="T30" s="147"/>
+      <c r="U30" s="147"/>
+      <c r="V30" s="147"/>
+      <c r="W30" s="147"/>
+      <c r="X30" s="147"/>
+      <c r="Y30" s="147"/>
+      <c r="Z30" s="147"/>
+      <c r="AA30" s="147"/>
+      <c r="AB30" s="147"/>
+      <c r="AC30" s="147"/>
+      <c r="AD30" s="147"/>
+      <c r="AE30" s="148"/>
+      <c r="AF30" s="149"/>
+      <c r="AG30" s="150"/>
+      <c r="AH30" s="150"/>
+      <c r="AI30" s="151"/>
     </row>
     <row r="31" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="30"/>
-      <c r="B31" s="144"/>
-      <c r="C31" s="146"/>
-      <c r="D31" s="171"/>
-      <c r="E31" s="172"/>
-      <c r="F31" s="173"/>
-      <c r="G31" s="144"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="146"/>
-      <c r="J31" s="156"/>
-      <c r="K31" s="157"/>
-      <c r="L31" s="157"/>
-      <c r="M31" s="157"/>
-      <c r="N31" s="157"/>
-      <c r="O31" s="157"/>
-      <c r="P31" s="158"/>
-      <c r="Q31" s="153"/>
-      <c r="R31" s="154"/>
-      <c r="S31" s="154"/>
-      <c r="T31" s="154"/>
-      <c r="U31" s="154"/>
-      <c r="V31" s="154"/>
-      <c r="W31" s="154"/>
-      <c r="X31" s="154"/>
-      <c r="Y31" s="154"/>
-      <c r="Z31" s="154"/>
-      <c r="AA31" s="154"/>
-      <c r="AB31" s="154"/>
-      <c r="AC31" s="154"/>
-      <c r="AD31" s="154"/>
-      <c r="AE31" s="155"/>
-      <c r="AF31" s="156"/>
-      <c r="AG31" s="157"/>
-      <c r="AH31" s="157"/>
-      <c r="AI31" s="158"/>
+      <c r="B31" s="152"/>
+      <c r="C31" s="153"/>
+      <c r="D31" s="154"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="152"/>
+      <c r="H31" s="157"/>
+      <c r="I31" s="153"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
+      <c r="N31" s="150"/>
+      <c r="O31" s="150"/>
+      <c r="P31" s="151"/>
+      <c r="Q31" s="146"/>
+      <c r="R31" s="147"/>
+      <c r="S31" s="147"/>
+      <c r="T31" s="147"/>
+      <c r="U31" s="147"/>
+      <c r="V31" s="147"/>
+      <c r="W31" s="147"/>
+      <c r="X31" s="147"/>
+      <c r="Y31" s="147"/>
+      <c r="Z31" s="147"/>
+      <c r="AA31" s="147"/>
+      <c r="AB31" s="147"/>
+      <c r="AC31" s="147"/>
+      <c r="AD31" s="147"/>
+      <c r="AE31" s="148"/>
+      <c r="AF31" s="149"/>
+      <c r="AG31" s="150"/>
+      <c r="AH31" s="150"/>
+      <c r="AI31" s="151"/>
     </row>
     <row r="32" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="30"/>
-      <c r="B32" s="144"/>
-      <c r="C32" s="146"/>
-      <c r="D32" s="171"/>
-      <c r="E32" s="172"/>
-      <c r="F32" s="173"/>
-      <c r="G32" s="144"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="146"/>
-      <c r="J32" s="156"/>
-      <c r="K32" s="157"/>
-      <c r="L32" s="157"/>
-      <c r="M32" s="157"/>
-      <c r="N32" s="157"/>
-      <c r="O32" s="157"/>
-      <c r="P32" s="158"/>
-      <c r="Q32" s="153"/>
-      <c r="R32" s="154"/>
-      <c r="S32" s="154"/>
-      <c r="T32" s="154"/>
-      <c r="U32" s="154"/>
-      <c r="V32" s="154"/>
-      <c r="W32" s="154"/>
-      <c r="X32" s="154"/>
-      <c r="Y32" s="154"/>
-      <c r="Z32" s="154"/>
-      <c r="AA32" s="154"/>
-      <c r="AB32" s="154"/>
-      <c r="AC32" s="154"/>
-      <c r="AD32" s="154"/>
-      <c r="AE32" s="155"/>
-      <c r="AF32" s="156"/>
-      <c r="AG32" s="157"/>
-      <c r="AH32" s="157"/>
-      <c r="AI32" s="158"/>
+      <c r="B32" s="152"/>
+      <c r="C32" s="153"/>
+      <c r="D32" s="154"/>
+      <c r="E32" s="155"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="152"/>
+      <c r="H32" s="157"/>
+      <c r="I32" s="153"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
+      <c r="N32" s="150"/>
+      <c r="O32" s="150"/>
+      <c r="P32" s="151"/>
+      <c r="Q32" s="146"/>
+      <c r="R32" s="147"/>
+      <c r="S32" s="147"/>
+      <c r="T32" s="147"/>
+      <c r="U32" s="147"/>
+      <c r="V32" s="147"/>
+      <c r="W32" s="147"/>
+      <c r="X32" s="147"/>
+      <c r="Y32" s="147"/>
+      <c r="Z32" s="147"/>
+      <c r="AA32" s="147"/>
+      <c r="AB32" s="147"/>
+      <c r="AC32" s="147"/>
+      <c r="AD32" s="147"/>
+      <c r="AE32" s="148"/>
+      <c r="AF32" s="149"/>
+      <c r="AG32" s="150"/>
+      <c r="AH32" s="150"/>
+      <c r="AI32" s="151"/>
     </row>
     <row r="33" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="30"/>
-      <c r="B33" s="144"/>
-      <c r="C33" s="146"/>
-      <c r="D33" s="171"/>
-      <c r="E33" s="172"/>
-      <c r="F33" s="173"/>
-      <c r="G33" s="144"/>
-      <c r="H33" s="145"/>
-      <c r="I33" s="146"/>
-      <c r="J33" s="156"/>
-      <c r="K33" s="157"/>
-      <c r="L33" s="157"/>
-      <c r="M33" s="157"/>
-      <c r="N33" s="157"/>
-      <c r="O33" s="157"/>
-      <c r="P33" s="158"/>
-      <c r="Q33" s="153"/>
-      <c r="R33" s="154"/>
-      <c r="S33" s="154"/>
-      <c r="T33" s="154"/>
-      <c r="U33" s="154"/>
-      <c r="V33" s="154"/>
-      <c r="W33" s="154"/>
-      <c r="X33" s="154"/>
-      <c r="Y33" s="154"/>
-      <c r="Z33" s="154"/>
-      <c r="AA33" s="154"/>
-      <c r="AB33" s="154"/>
-      <c r="AC33" s="154"/>
-      <c r="AD33" s="154"/>
-      <c r="AE33" s="155"/>
-      <c r="AF33" s="156"/>
-      <c r="AG33" s="157"/>
-      <c r="AH33" s="157"/>
-      <c r="AI33" s="158"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="153"/>
+      <c r="D33" s="154"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="156"/>
+      <c r="G33" s="152"/>
+      <c r="H33" s="157"/>
+      <c r="I33" s="153"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
+      <c r="N33" s="150"/>
+      <c r="O33" s="150"/>
+      <c r="P33" s="151"/>
+      <c r="Q33" s="146"/>
+      <c r="R33" s="147"/>
+      <c r="S33" s="147"/>
+      <c r="T33" s="147"/>
+      <c r="U33" s="147"/>
+      <c r="V33" s="147"/>
+      <c r="W33" s="147"/>
+      <c r="X33" s="147"/>
+      <c r="Y33" s="147"/>
+      <c r="Z33" s="147"/>
+      <c r="AA33" s="147"/>
+      <c r="AB33" s="147"/>
+      <c r="AC33" s="147"/>
+      <c r="AD33" s="147"/>
+      <c r="AE33" s="148"/>
+      <c r="AF33" s="149"/>
+      <c r="AG33" s="150"/>
+      <c r="AH33" s="150"/>
+      <c r="AI33" s="151"/>
     </row>
     <row r="34" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="26"/>
@@ -4945,6 +4956,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -4969,161 +5135,6 @@
     <mergeCell ref="AF22:AI22"/>
     <mergeCell ref="J23:P23"/>
     <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <printOptions horizontalCentered="1"/>
@@ -5279,158 +5290,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="194" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="200" t="str">
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="215" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="202"/>
-      <c r="O1" s="206" t="s">
+      <c r="F1" s="216"/>
+      <c r="G1" s="216"/>
+      <c r="H1" s="216"/>
+      <c r="I1" s="216"/>
+      <c r="J1" s="216"/>
+      <c r="K1" s="216"/>
+      <c r="L1" s="216"/>
+      <c r="M1" s="216"/>
+      <c r="N1" s="217"/>
+      <c r="O1" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="207"/>
-      <c r="Q1" s="207"/>
-      <c r="R1" s="208"/>
-      <c r="S1" s="215" t="str">
+      <c r="P1" s="198"/>
+      <c r="Q1" s="198"/>
+      <c r="R1" s="199"/>
+      <c r="S1" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10104/汎用エラー</v>
       </c>
-      <c r="T1" s="216"/>
-      <c r="U1" s="216"/>
-      <c r="V1" s="216"/>
-      <c r="W1" s="216"/>
-      <c r="X1" s="216"/>
-      <c r="Y1" s="216"/>
-      <c r="Z1" s="217"/>
-      <c r="AA1" s="203" t="s">
+      <c r="T1" s="207"/>
+      <c r="U1" s="207"/>
+      <c r="V1" s="207"/>
+      <c r="W1" s="207"/>
+      <c r="X1" s="207"/>
+      <c r="Y1" s="207"/>
+      <c r="Z1" s="208"/>
+      <c r="AA1" s="194" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="205"/>
-      <c r="AC1" s="194" t="str">
+      <c r="AB1" s="196"/>
+      <c r="AC1" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="196"/>
-      <c r="AG1" s="197">
+      <c r="AD1" s="219"/>
+      <c r="AE1" s="219"/>
+      <c r="AF1" s="220"/>
+      <c r="AG1" s="221">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="198"/>
-      <c r="AI1" s="199"/>
+      <c r="AH1" s="222"/>
+      <c r="AI1" s="223"/>
     </row>
     <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="203" t="s">
+      <c r="A2" s="194" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="200" t="str">
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="215" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="202"/>
-      <c r="O2" s="209"/>
-      <c r="P2" s="210"/>
-      <c r="Q2" s="210"/>
-      <c r="R2" s="211"/>
-      <c r="S2" s="218"/>
-      <c r="T2" s="219"/>
-      <c r="U2" s="219"/>
-      <c r="V2" s="219"/>
-      <c r="W2" s="219"/>
-      <c r="X2" s="219"/>
-      <c r="Y2" s="219"/>
-      <c r="Z2" s="220"/>
-      <c r="AA2" s="203" t="s">
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="216"/>
+      <c r="N2" s="217"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="209"/>
+      <c r="T2" s="210"/>
+      <c r="U2" s="210"/>
+      <c r="V2" s="210"/>
+      <c r="W2" s="210"/>
+      <c r="X2" s="210"/>
+      <c r="Y2" s="210"/>
+      <c r="Z2" s="211"/>
+      <c r="AA2" s="194" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="194" t="str">
+      <c r="AB2" s="196"/>
+      <c r="AC2" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="197" t="str">
+      <c r="AD2" s="219"/>
+      <c r="AE2" s="219"/>
+      <c r="AF2" s="220"/>
+      <c r="AG2" s="221" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="199"/>
+      <c r="AH2" s="222"/>
+      <c r="AI2" s="223"/>
     </row>
     <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="203" t="s">
+      <c r="A3" s="194" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="200" t="str">
+      <c r="B3" s="195"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="215" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="202"/>
-      <c r="O3" s="212"/>
-      <c r="P3" s="213"/>
-      <c r="Q3" s="213"/>
-      <c r="R3" s="214"/>
-      <c r="S3" s="221"/>
-      <c r="T3" s="222"/>
-      <c r="U3" s="222"/>
-      <c r="V3" s="222"/>
-      <c r="W3" s="222"/>
-      <c r="X3" s="222"/>
-      <c r="Y3" s="222"/>
-      <c r="Z3" s="223"/>
-      <c r="AA3" s="203"/>
-      <c r="AB3" s="205"/>
-      <c r="AC3" s="194" t="str">
+      <c r="F3" s="216"/>
+      <c r="G3" s="216"/>
+      <c r="H3" s="216"/>
+      <c r="I3" s="216"/>
+      <c r="J3" s="216"/>
+      <c r="K3" s="216"/>
+      <c r="L3" s="216"/>
+      <c r="M3" s="216"/>
+      <c r="N3" s="217"/>
+      <c r="O3" s="203"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="205"/>
+      <c r="S3" s="212"/>
+      <c r="T3" s="213"/>
+      <c r="U3" s="213"/>
+      <c r="V3" s="213"/>
+      <c r="W3" s="213"/>
+      <c r="X3" s="213"/>
+      <c r="Y3" s="213"/>
+      <c r="Z3" s="214"/>
+      <c r="AA3" s="194"/>
+      <c r="AB3" s="196"/>
+      <c r="AC3" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="196"/>
-      <c r="AG3" s="197" t="str">
+      <c r="AD3" s="219"/>
+      <c r="AE3" s="219"/>
+      <c r="AF3" s="220"/>
+      <c r="AG3" s="221" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="198"/>
-      <c r="AI3" s="199"/>
+      <c r="AH3" s="222"/>
+      <c r="AI3" s="223"/>
     </row>
     <row r="4" spans="1:35" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
@@ -5487,7 +5498,7 @@
       <c r="O5" s="38"/>
       <c r="P5" s="38"/>
       <c r="Q5" s="41" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="R5" s="38"/>
       <c r="S5" s="38"/>
@@ -5548,7 +5559,7 @@
     <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="42"/>
       <c r="B7" s="43" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C7" s="43"/>
       <c r="D7" s="44"/>
@@ -5588,7 +5599,7 @@
       <c r="A8" s="42"/>
       <c r="B8" s="43"/>
       <c r="C8" s="43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
@@ -5663,7 +5674,7 @@
     <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="42"/>
       <c r="B10" s="53" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="42"/>
@@ -5703,7 +5714,7 @@
       <c r="A11" s="42"/>
       <c r="B11" s="44"/>
       <c r="C11" s="53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="42"/>
       <c r="E11" s="44"/>
@@ -5742,7 +5753,7 @@
       <c r="A12" s="42"/>
       <c r="B12" s="44"/>
       <c r="C12" s="42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I12" s="48"/>
       <c r="J12" s="44"/>
@@ -5776,7 +5787,7 @@
       <c r="A13" s="42"/>
       <c r="B13" s="48"/>
       <c r="C13" s="54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="48"/>
       <c r="E13" s="48"/>
@@ -5815,7 +5826,7 @@
       <c r="A14" s="42"/>
       <c r="B14" s="53"/>
       <c r="C14" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="44"/>
       <c r="E14" s="44"/>
@@ -5854,7 +5865,7 @@
       <c r="A15" s="42"/>
       <c r="B15" s="53"/>
       <c r="C15" s="54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H15" s="44"/>
       <c r="I15" s="38"/>
@@ -5889,7 +5900,7 @@
       <c r="A16" s="42"/>
       <c r="B16" s="38"/>
       <c r="C16" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="38"/>
       <c r="E16" s="38"/>
@@ -6312,6 +6323,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -6321,14 +6340,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -6354,181 +6365,181 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="194" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="200" t="str">
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="215" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="202"/>
-      <c r="O1" s="206" t="s">
+      <c r="F1" s="216"/>
+      <c r="G1" s="216"/>
+      <c r="H1" s="216"/>
+      <c r="I1" s="216"/>
+      <c r="J1" s="216"/>
+      <c r="K1" s="216"/>
+      <c r="L1" s="216"/>
+      <c r="M1" s="216"/>
+      <c r="N1" s="217"/>
+      <c r="O1" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="207"/>
-      <c r="Q1" s="207"/>
-      <c r="R1" s="208"/>
-      <c r="S1" s="215" t="str">
+      <c r="P1" s="198"/>
+      <c r="Q1" s="198"/>
+      <c r="R1" s="199"/>
+      <c r="S1" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10104/汎用エラー</v>
       </c>
-      <c r="T1" s="216"/>
-      <c r="U1" s="216"/>
-      <c r="V1" s="216"/>
-      <c r="W1" s="216"/>
-      <c r="X1" s="216"/>
-      <c r="Y1" s="216"/>
-      <c r="Z1" s="217"/>
-      <c r="AA1" s="203" t="s">
+      <c r="T1" s="207"/>
+      <c r="U1" s="207"/>
+      <c r="V1" s="207"/>
+      <c r="W1" s="207"/>
+      <c r="X1" s="207"/>
+      <c r="Y1" s="207"/>
+      <c r="Z1" s="208"/>
+      <c r="AA1" s="194" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="205"/>
-      <c r="AC1" s="194" t="str">
+      <c r="AB1" s="196"/>
+      <c r="AC1" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="196"/>
-      <c r="AG1" s="197">
+      <c r="AD1" s="219"/>
+      <c r="AE1" s="219"/>
+      <c r="AF1" s="220"/>
+      <c r="AG1" s="221">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="198"/>
-      <c r="AI1" s="199"/>
+      <c r="AH1" s="222"/>
+      <c r="AI1" s="223"/>
     </row>
     <row r="2" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="203" t="s">
+      <c r="A2" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="200" t="str">
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="215" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="202"/>
-      <c r="O2" s="209"/>
-      <c r="P2" s="210"/>
-      <c r="Q2" s="210"/>
-      <c r="R2" s="211"/>
-      <c r="S2" s="218"/>
-      <c r="T2" s="219"/>
-      <c r="U2" s="219"/>
-      <c r="V2" s="219"/>
-      <c r="W2" s="219"/>
-      <c r="X2" s="219"/>
-      <c r="Y2" s="219"/>
-      <c r="Z2" s="220"/>
-      <c r="AA2" s="203" t="s">
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="216"/>
+      <c r="N2" s="217"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="209"/>
+      <c r="T2" s="210"/>
+      <c r="U2" s="210"/>
+      <c r="V2" s="210"/>
+      <c r="W2" s="210"/>
+      <c r="X2" s="210"/>
+      <c r="Y2" s="210"/>
+      <c r="Z2" s="211"/>
+      <c r="AA2" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="194" t="str">
+      <c r="AB2" s="196"/>
+      <c r="AC2" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="197" t="str">
+      <c r="AD2" s="219"/>
+      <c r="AE2" s="219"/>
+      <c r="AF2" s="220"/>
+      <c r="AG2" s="221" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="199"/>
+      <c r="AH2" s="222"/>
+      <c r="AI2" s="223"/>
     </row>
     <row r="3" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="203" t="s">
+      <c r="A3" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="200" t="str">
+      <c r="B3" s="195"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="215" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="202"/>
-      <c r="O3" s="212"/>
-      <c r="P3" s="213"/>
-      <c r="Q3" s="213"/>
-      <c r="R3" s="214"/>
-      <c r="S3" s="221"/>
-      <c r="T3" s="222"/>
-      <c r="U3" s="222"/>
-      <c r="V3" s="222"/>
-      <c r="W3" s="222"/>
-      <c r="X3" s="222"/>
-      <c r="Y3" s="222"/>
-      <c r="Z3" s="223"/>
-      <c r="AA3" s="203"/>
-      <c r="AB3" s="205"/>
-      <c r="AC3" s="194" t="str">
+      <c r="F3" s="216"/>
+      <c r="G3" s="216"/>
+      <c r="H3" s="216"/>
+      <c r="I3" s="216"/>
+      <c r="J3" s="216"/>
+      <c r="K3" s="216"/>
+      <c r="L3" s="216"/>
+      <c r="M3" s="216"/>
+      <c r="N3" s="217"/>
+      <c r="O3" s="203"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="205"/>
+      <c r="S3" s="212"/>
+      <c r="T3" s="213"/>
+      <c r="U3" s="213"/>
+      <c r="V3" s="213"/>
+      <c r="W3" s="213"/>
+      <c r="X3" s="213"/>
+      <c r="Y3" s="213"/>
+      <c r="Z3" s="214"/>
+      <c r="AA3" s="194"/>
+      <c r="AB3" s="196"/>
+      <c r="AC3" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="196"/>
-      <c r="AG3" s="197" t="str">
+      <c r="AD3" s="219"/>
+      <c r="AE3" s="219"/>
+      <c r="AF3" s="220"/>
+      <c r="AG3" s="221" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="198"/>
-      <c r="AI3" s="199"/>
+      <c r="AH3" s="222"/>
+      <c r="AI3" s="223"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="81"/>
       <c r="C8" s="234" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="235"/>
       <c r="E8" s="235"/>
       <c r="F8" s="236"/>
       <c r="G8" s="237" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="238"/>
       <c r="I8" s="238"/>
@@ -6560,13 +6571,13 @@
     <row r="9" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="81"/>
       <c r="C9" s="239" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" s="240"/>
       <c r="E9" s="240"/>
       <c r="F9" s="241"/>
       <c r="G9" s="237" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" s="235"/>
       <c r="I9" s="235"/>
@@ -6598,13 +6609,13 @@
     <row r="10" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="81"/>
       <c r="C10" s="225" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" s="226"/>
       <c r="E10" s="226"/>
       <c r="F10" s="227"/>
       <c r="G10" s="82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H10" s="83"/>
       <c r="I10" s="83"/>
@@ -6738,13 +6749,13 @@
     <row r="14" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="81"/>
       <c r="C14" s="224" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="224"/>
       <c r="E14" s="224"/>
       <c r="F14" s="224"/>
       <c r="G14" s="91" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H14" s="92"/>
       <c r="I14" s="92"/>
@@ -6813,6 +6824,18 @@
     <row r="52" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C10:F13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:AG8"/>
+    <mergeCell ref="G9:AG9"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -6824,18 +6847,6 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C10:F13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:AG8"/>
-    <mergeCell ref="G9:AG9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -6866,171 +6877,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="279" t="s">
+      <c r="A1" s="271" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="280"/>
-      <c r="C1" s="280"/>
-      <c r="D1" s="281"/>
-      <c r="E1" s="200" t="str">
+      <c r="B1" s="272"/>
+      <c r="C1" s="272"/>
+      <c r="D1" s="273"/>
+      <c r="E1" s="215" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="202"/>
-      <c r="O1" s="206" t="s">
+      <c r="F1" s="216"/>
+      <c r="G1" s="216"/>
+      <c r="H1" s="216"/>
+      <c r="I1" s="216"/>
+      <c r="J1" s="216"/>
+      <c r="K1" s="216"/>
+      <c r="L1" s="216"/>
+      <c r="M1" s="216"/>
+      <c r="N1" s="217"/>
+      <c r="O1" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="207"/>
-      <c r="Q1" s="207"/>
-      <c r="R1" s="208"/>
-      <c r="S1" s="215" t="str">
+      <c r="P1" s="198"/>
+      <c r="Q1" s="198"/>
+      <c r="R1" s="199"/>
+      <c r="S1" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10104/汎用エラー</v>
       </c>
-      <c r="T1" s="216"/>
-      <c r="U1" s="216"/>
-      <c r="V1" s="216"/>
-      <c r="W1" s="216"/>
-      <c r="X1" s="216"/>
-      <c r="Y1" s="216"/>
-      <c r="Z1" s="217"/>
-      <c r="AA1" s="203" t="s">
+      <c r="T1" s="207"/>
+      <c r="U1" s="207"/>
+      <c r="V1" s="207"/>
+      <c r="W1" s="207"/>
+      <c r="X1" s="207"/>
+      <c r="Y1" s="207"/>
+      <c r="Z1" s="208"/>
+      <c r="AA1" s="194" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="205"/>
-      <c r="AC1" s="194" t="str">
+      <c r="AB1" s="196"/>
+      <c r="AC1" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="196"/>
-      <c r="AG1" s="276">
+      <c r="AD1" s="219"/>
+      <c r="AE1" s="219"/>
+      <c r="AF1" s="220"/>
+      <c r="AG1" s="268">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="277"/>
-      <c r="AI1" s="278"/>
+      <c r="AH1" s="269"/>
+      <c r="AI1" s="270"/>
       <c r="AJ1" s="94"/>
     </row>
     <row r="2" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="279" t="s">
+      <c r="A2" s="271" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="280"/>
-      <c r="C2" s="280"/>
-      <c r="D2" s="281"/>
-      <c r="E2" s="200" t="str">
+      <c r="B2" s="272"/>
+      <c r="C2" s="272"/>
+      <c r="D2" s="273"/>
+      <c r="E2" s="215" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="202"/>
-      <c r="O2" s="209"/>
-      <c r="P2" s="210"/>
-      <c r="Q2" s="210"/>
-      <c r="R2" s="211"/>
-      <c r="S2" s="218"/>
-      <c r="T2" s="219"/>
-      <c r="U2" s="219"/>
-      <c r="V2" s="219"/>
-      <c r="W2" s="219"/>
-      <c r="X2" s="219"/>
-      <c r="Y2" s="219"/>
-      <c r="Z2" s="220"/>
-      <c r="AA2" s="203" t="s">
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="216"/>
+      <c r="N2" s="217"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="209"/>
+      <c r="T2" s="210"/>
+      <c r="U2" s="210"/>
+      <c r="V2" s="210"/>
+      <c r="W2" s="210"/>
+      <c r="X2" s="210"/>
+      <c r="Y2" s="210"/>
+      <c r="Z2" s="211"/>
+      <c r="AA2" s="194" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="194" t="str">
+      <c r="AB2" s="196"/>
+      <c r="AC2" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="276" t="str">
+      <c r="AD2" s="219"/>
+      <c r="AE2" s="219"/>
+      <c r="AF2" s="220"/>
+      <c r="AG2" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="277"/>
-      <c r="AI2" s="278"/>
+      <c r="AH2" s="269"/>
+      <c r="AI2" s="270"/>
       <c r="AJ2" s="94"/>
     </row>
     <row r="3" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="279" t="s">
+      <c r="A3" s="271" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="280"/>
-      <c r="C3" s="280"/>
-      <c r="D3" s="281"/>
-      <c r="E3" s="200" t="str">
+      <c r="B3" s="272"/>
+      <c r="C3" s="272"/>
+      <c r="D3" s="273"/>
+      <c r="E3" s="215" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="202"/>
-      <c r="O3" s="212"/>
-      <c r="P3" s="213"/>
-      <c r="Q3" s="213"/>
-      <c r="R3" s="214"/>
-      <c r="S3" s="221"/>
-      <c r="T3" s="222"/>
-      <c r="U3" s="222"/>
-      <c r="V3" s="222"/>
-      <c r="W3" s="222"/>
-      <c r="X3" s="222"/>
-      <c r="Y3" s="222"/>
-      <c r="Z3" s="223"/>
-      <c r="AA3" s="203"/>
-      <c r="AB3" s="205"/>
-      <c r="AC3" s="194" t="str">
+      <c r="F3" s="216"/>
+      <c r="G3" s="216"/>
+      <c r="H3" s="216"/>
+      <c r="I3" s="216"/>
+      <c r="J3" s="216"/>
+      <c r="K3" s="216"/>
+      <c r="L3" s="216"/>
+      <c r="M3" s="216"/>
+      <c r="N3" s="217"/>
+      <c r="O3" s="203"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="205"/>
+      <c r="S3" s="212"/>
+      <c r="T3" s="213"/>
+      <c r="U3" s="213"/>
+      <c r="V3" s="213"/>
+      <c r="W3" s="213"/>
+      <c r="X3" s="213"/>
+      <c r="Y3" s="213"/>
+      <c r="Z3" s="214"/>
+      <c r="AA3" s="194"/>
+      <c r="AB3" s="196"/>
+      <c r="AC3" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="196"/>
-      <c r="AG3" s="276" t="str">
+      <c r="AD3" s="219"/>
+      <c r="AE3" s="219"/>
+      <c r="AF3" s="220"/>
+      <c r="AG3" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="277"/>
-      <c r="AI3" s="278"/>
+      <c r="AH3" s="269"/>
+      <c r="AI3" s="270"/>
       <c r="AJ3" s="94"/>
     </row>
     <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7101,7 +7112,7 @@
     </row>
     <row r="41" spans="3:53" x14ac:dyDescent="0.2">
       <c r="C41" s="40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D41" s="96"/>
       <c r="E41" s="96"/>
@@ -7171,39 +7182,39 @@
       <c r="D43" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="285" t="s">
+      <c r="E43" s="267" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="267"/>
+      <c r="G43" s="267"/>
+      <c r="H43" s="267"/>
+      <c r="I43" s="267"/>
+      <c r="J43" s="267"/>
+      <c r="K43" s="267"/>
+      <c r="L43" s="267"/>
+      <c r="M43" s="267"/>
+      <c r="N43" s="267" t="s">
         <v>55</v>
       </c>
-      <c r="F43" s="285"/>
-      <c r="G43" s="285"/>
-      <c r="H43" s="285"/>
-      <c r="I43" s="285"/>
-      <c r="J43" s="285"/>
-      <c r="K43" s="285"/>
-      <c r="L43" s="285"/>
-      <c r="M43" s="285"/>
-      <c r="N43" s="285" t="s">
+      <c r="O43" s="267"/>
+      <c r="P43" s="267"/>
+      <c r="Q43" s="267" t="s">
         <v>56</v>
       </c>
-      <c r="O43" s="285"/>
-      <c r="P43" s="285"/>
-      <c r="Q43" s="285" t="s">
+      <c r="R43" s="267"/>
+      <c r="S43" s="267"/>
+      <c r="T43" s="267"/>
+      <c r="U43" s="267"/>
+      <c r="V43" s="267" t="s">
         <v>57</v>
       </c>
-      <c r="R43" s="285"/>
-      <c r="S43" s="285"/>
-      <c r="T43" s="285"/>
-      <c r="U43" s="285"/>
-      <c r="V43" s="285" t="s">
-        <v>58</v>
-      </c>
-      <c r="W43" s="285"/>
-      <c r="X43" s="285"/>
-      <c r="Y43" s="285"/>
-      <c r="Z43" s="285"/>
-      <c r="AA43" s="285"/>
-      <c r="AB43" s="285"/>
-      <c r="AC43" s="285"/>
+      <c r="W43" s="267"/>
+      <c r="X43" s="267"/>
+      <c r="Y43" s="267"/>
+      <c r="Z43" s="267"/>
+      <c r="AA43" s="267"/>
+      <c r="AB43" s="267"/>
+      <c r="AC43" s="267"/>
       <c r="AD43" s="96"/>
       <c r="AE43" s="96"/>
       <c r="AF43" s="96"/>
@@ -7214,39 +7225,39 @@
       <c r="D44" s="98">
         <v>1</v>
       </c>
-      <c r="E44" s="300" t="s">
+      <c r="E44" s="259" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="300"/>
-      <c r="G44" s="300"/>
-      <c r="H44" s="300"/>
-      <c r="I44" s="300"/>
-      <c r="J44" s="300"/>
-      <c r="K44" s="300"/>
-      <c r="L44" s="300"/>
-      <c r="M44" s="300"/>
-      <c r="N44" s="300" t="s">
+      <c r="F44" s="259"/>
+      <c r="G44" s="259"/>
+      <c r="H44" s="259"/>
+      <c r="I44" s="259"/>
+      <c r="J44" s="259"/>
+      <c r="K44" s="259"/>
+      <c r="L44" s="259"/>
+      <c r="M44" s="259"/>
+      <c r="N44" s="259" t="s">
         <v>39</v>
       </c>
-      <c r="O44" s="300"/>
-      <c r="P44" s="300"/>
-      <c r="Q44" s="295" t="s">
+      <c r="O44" s="259"/>
+      <c r="P44" s="259"/>
+      <c r="Q44" s="251" t="s">
         <v>39</v>
       </c>
-      <c r="R44" s="295"/>
-      <c r="S44" s="295"/>
-      <c r="T44" s="295"/>
-      <c r="U44" s="295"/>
-      <c r="V44" s="295" t="s">
+      <c r="R44" s="251"/>
+      <c r="S44" s="251"/>
+      <c r="T44" s="251"/>
+      <c r="U44" s="251"/>
+      <c r="V44" s="251" t="s">
         <v>39</v>
       </c>
-      <c r="W44" s="295"/>
-      <c r="X44" s="295"/>
-      <c r="Y44" s="295"/>
-      <c r="Z44" s="295"/>
-      <c r="AA44" s="295"/>
-      <c r="AB44" s="295"/>
-      <c r="AC44" s="295"/>
+      <c r="W44" s="251"/>
+      <c r="X44" s="251"/>
+      <c r="Y44" s="251"/>
+      <c r="Z44" s="251"/>
+      <c r="AA44" s="251"/>
+      <c r="AB44" s="251"/>
+      <c r="AC44" s="251"/>
       <c r="AM44" s="40"/>
     </row>
     <row r="45" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7283,7 +7294,7 @@
     </row>
     <row r="47" spans="3:53" x14ac:dyDescent="0.2">
       <c r="C47" s="54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK47" s="81"/>
       <c r="AL47" s="81"/>
@@ -7323,38 +7334,38 @@
       <c r="AZ48" s="49"/>
     </row>
     <row r="49" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D49" s="286" t="s">
+      <c r="D49" s="242" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="270" t="s">
+      <c r="E49" s="256" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="257"/>
+      <c r="G49" s="257"/>
+      <c r="H49" s="257"/>
+      <c r="I49" s="257"/>
+      <c r="J49" s="257"/>
+      <c r="K49" s="257"/>
+      <c r="L49" s="257"/>
+      <c r="M49" s="257"/>
+      <c r="N49" s="257"/>
+      <c r="O49" s="257"/>
+      <c r="P49" s="257"/>
+      <c r="Q49" s="257"/>
+      <c r="R49" s="257"/>
+      <c r="S49" s="257"/>
+      <c r="T49" s="257"/>
+      <c r="U49" s="257"/>
+      <c r="V49" s="257"/>
+      <c r="W49" s="257"/>
+      <c r="X49" s="257"/>
+      <c r="Y49" s="257"/>
+      <c r="Z49" s="257"/>
+      <c r="AA49" s="257"/>
+      <c r="AB49" s="257"/>
+      <c r="AC49" s="258"/>
+      <c r="AD49" s="225" t="s">
         <v>59</v>
-      </c>
-      <c r="F49" s="271"/>
-      <c r="G49" s="271"/>
-      <c r="H49" s="271"/>
-      <c r="I49" s="271"/>
-      <c r="J49" s="271"/>
-      <c r="K49" s="271"/>
-      <c r="L49" s="271"/>
-      <c r="M49" s="271"/>
-      <c r="N49" s="271"/>
-      <c r="O49" s="271"/>
-      <c r="P49" s="271"/>
-      <c r="Q49" s="271"/>
-      <c r="R49" s="271"/>
-      <c r="S49" s="271"/>
-      <c r="T49" s="271"/>
-      <c r="U49" s="271"/>
-      <c r="V49" s="271"/>
-      <c r="W49" s="271"/>
-      <c r="X49" s="271"/>
-      <c r="Y49" s="271"/>
-      <c r="Z49" s="271"/>
-      <c r="AA49" s="271"/>
-      <c r="AB49" s="271"/>
-      <c r="AC49" s="272"/>
-      <c r="AD49" s="225" t="s">
-        <v>60</v>
       </c>
       <c r="AE49" s="226"/>
       <c r="AF49" s="226"/>
@@ -7371,43 +7382,43 @@
       <c r="AQ49" s="81"/>
     </row>
     <row r="50" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D50" s="287"/>
+      <c r="D50" s="243"/>
       <c r="E50" s="225" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F50" s="226"/>
       <c r="G50" s="226"/>
       <c r="H50" s="227"/>
-      <c r="I50" s="289" t="s">
+      <c r="I50" s="245" t="s">
+        <v>61</v>
+      </c>
+      <c r="J50" s="246"/>
+      <c r="K50" s="246"/>
+      <c r="L50" s="247"/>
+      <c r="M50" s="245" t="s">
         <v>62</v>
       </c>
-      <c r="J50" s="290"/>
-      <c r="K50" s="290"/>
-      <c r="L50" s="291"/>
-      <c r="M50" s="289" t="s">
+      <c r="N50" s="246"/>
+      <c r="O50" s="246"/>
+      <c r="P50" s="246"/>
+      <c r="Q50" s="246"/>
+      <c r="R50" s="246"/>
+      <c r="S50" s="246"/>
+      <c r="T50" s="247"/>
+      <c r="U50" s="225" t="s">
         <v>63</v>
-      </c>
-      <c r="N50" s="290"/>
-      <c r="O50" s="290"/>
-      <c r="P50" s="290"/>
-      <c r="Q50" s="290"/>
-      <c r="R50" s="290"/>
-      <c r="S50" s="290"/>
-      <c r="T50" s="291"/>
-      <c r="U50" s="225" t="s">
-        <v>64</v>
       </c>
       <c r="V50" s="226"/>
       <c r="W50" s="226"/>
       <c r="X50" s="226"/>
       <c r="Y50" s="227"/>
       <c r="Z50" s="225" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AA50" s="226"/>
       <c r="AB50" s="227"/>
-      <c r="AC50" s="286" t="s">
-        <v>117</v>
+      <c r="AC50" s="242" t="s">
+        <v>116</v>
       </c>
       <c r="AD50" s="228"/>
       <c r="AE50" s="229"/>
@@ -7428,23 +7439,23 @@
       <c r="AT50" s="49"/>
     </row>
     <row r="51" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D51" s="288"/>
+      <c r="D51" s="244"/>
       <c r="E51" s="231"/>
       <c r="F51" s="232"/>
       <c r="G51" s="232"/>
       <c r="H51" s="233"/>
-      <c r="I51" s="292"/>
-      <c r="J51" s="293"/>
-      <c r="K51" s="293"/>
-      <c r="L51" s="294"/>
-      <c r="M51" s="292"/>
-      <c r="N51" s="293"/>
-      <c r="O51" s="293"/>
-      <c r="P51" s="293"/>
-      <c r="Q51" s="293"/>
-      <c r="R51" s="293"/>
-      <c r="S51" s="293"/>
-      <c r="T51" s="294"/>
+      <c r="I51" s="248"/>
+      <c r="J51" s="249"/>
+      <c r="K51" s="249"/>
+      <c r="L51" s="250"/>
+      <c r="M51" s="248"/>
+      <c r="N51" s="249"/>
+      <c r="O51" s="249"/>
+      <c r="P51" s="249"/>
+      <c r="Q51" s="249"/>
+      <c r="R51" s="249"/>
+      <c r="S51" s="249"/>
+      <c r="T51" s="250"/>
       <c r="U51" s="231"/>
       <c r="V51" s="232"/>
       <c r="W51" s="232"/>
@@ -7453,7 +7464,7 @@
       <c r="Z51" s="231"/>
       <c r="AA51" s="232"/>
       <c r="AB51" s="233"/>
-      <c r="AC51" s="288"/>
+      <c r="AC51" s="244"/>
       <c r="AD51" s="231"/>
       <c r="AE51" s="232"/>
       <c r="AF51" s="232"/>
@@ -7481,44 +7492,44 @@
       </c>
       <c r="F52" s="238"/>
       <c r="G52" s="238"/>
-      <c r="H52" s="296"/>
-      <c r="I52" s="297" t="s">
+      <c r="H52" s="252"/>
+      <c r="I52" s="253" t="s">
         <v>39</v>
       </c>
-      <c r="J52" s="298"/>
-      <c r="K52" s="298"/>
-      <c r="L52" s="299"/>
-      <c r="M52" s="301" t="s">
+      <c r="J52" s="254"/>
+      <c r="K52" s="254"/>
+      <c r="L52" s="255"/>
+      <c r="M52" s="260" t="s">
         <v>39</v>
       </c>
-      <c r="N52" s="302"/>
-      <c r="O52" s="302"/>
-      <c r="P52" s="302"/>
-      <c r="Q52" s="302"/>
-      <c r="R52" s="302"/>
-      <c r="S52" s="302"/>
-      <c r="T52" s="303"/>
-      <c r="U52" s="245" t="s">
+      <c r="N52" s="261"/>
+      <c r="O52" s="261"/>
+      <c r="P52" s="261"/>
+      <c r="Q52" s="261"/>
+      <c r="R52" s="261"/>
+      <c r="S52" s="261"/>
+      <c r="T52" s="262"/>
+      <c r="U52" s="263" t="s">
         <v>39</v>
       </c>
-      <c r="V52" s="246"/>
-      <c r="W52" s="246"/>
-      <c r="X52" s="246"/>
-      <c r="Y52" s="247"/>
-      <c r="Z52" s="284" t="s">
+      <c r="V52" s="264"/>
+      <c r="W52" s="264"/>
+      <c r="X52" s="264"/>
+      <c r="Y52" s="265"/>
+      <c r="Z52" s="266" t="s">
         <v>39</v>
       </c>
-      <c r="AA52" s="284"/>
-      <c r="AB52" s="284"/>
+      <c r="AA52" s="266"/>
+      <c r="AB52" s="266"/>
       <c r="AC52" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="AD52" s="245" t="s">
+      <c r="AD52" s="263" t="s">
         <v>39</v>
       </c>
-      <c r="AE52" s="246"/>
-      <c r="AF52" s="246"/>
-      <c r="AG52" s="247"/>
+      <c r="AE52" s="264"/>
+      <c r="AF52" s="264"/>
+      <c r="AG52" s="265"/>
       <c r="AH52" s="49"/>
       <c r="AI52" s="49"/>
       <c r="AJ52" s="49"/>
@@ -7580,7 +7591,7 @@
     </row>
     <row r="55" spans="3:53" x14ac:dyDescent="0.2">
       <c r="C55" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D55" s="103"/>
       <c r="E55" s="104"/>
@@ -7641,49 +7652,49 @@
       <c r="AW56" s="42"/>
     </row>
     <row r="57" spans="3:53" x14ac:dyDescent="0.2">
-      <c r="D57" s="259" t="s">
+      <c r="D57" s="292" t="s">
         <v>30</v>
       </c>
-      <c r="E57" s="261" t="s">
+      <c r="E57" s="274" t="s">
+        <v>65</v>
+      </c>
+      <c r="F57" s="275"/>
+      <c r="G57" s="275"/>
+      <c r="H57" s="275"/>
+      <c r="I57" s="275"/>
+      <c r="J57" s="276"/>
+      <c r="K57" s="274" t="s">
         <v>66</v>
       </c>
-      <c r="F57" s="262"/>
-      <c r="G57" s="262"/>
-      <c r="H57" s="262"/>
-      <c r="I57" s="262"/>
-      <c r="J57" s="263"/>
-      <c r="K57" s="261" t="s">
+      <c r="L57" s="275"/>
+      <c r="M57" s="275"/>
+      <c r="N57" s="276"/>
+      <c r="O57" s="297" t="s">
         <v>67</v>
       </c>
-      <c r="L57" s="262"/>
-      <c r="M57" s="262"/>
-      <c r="N57" s="263"/>
-      <c r="O57" s="248" t="s">
+      <c r="P57" s="107" t="s">
         <v>68</v>
-      </c>
-      <c r="P57" s="107" t="s">
-        <v>69</v>
       </c>
       <c r="Q57" s="108"/>
       <c r="R57" s="108"/>
       <c r="S57" s="108"/>
       <c r="T57" s="108"/>
       <c r="U57" s="108"/>
-      <c r="V57" s="261" t="s">
-        <v>58</v>
-      </c>
-      <c r="W57" s="262"/>
-      <c r="X57" s="262"/>
-      <c r="Y57" s="262"/>
-      <c r="Z57" s="262"/>
-      <c r="AA57" s="262"/>
-      <c r="AB57" s="262"/>
-      <c r="AC57" s="262"/>
-      <c r="AD57" s="262"/>
-      <c r="AE57" s="262"/>
-      <c r="AF57" s="262"/>
-      <c r="AG57" s="262"/>
-      <c r="AH57" s="263"/>
+      <c r="V57" s="274" t="s">
+        <v>57</v>
+      </c>
+      <c r="W57" s="275"/>
+      <c r="X57" s="275"/>
+      <c r="Y57" s="275"/>
+      <c r="Z57" s="275"/>
+      <c r="AA57" s="275"/>
+      <c r="AB57" s="275"/>
+      <c r="AC57" s="275"/>
+      <c r="AD57" s="275"/>
+      <c r="AE57" s="275"/>
+      <c r="AF57" s="275"/>
+      <c r="AG57" s="275"/>
+      <c r="AH57" s="276"/>
       <c r="AK57" s="42"/>
       <c r="AL57" s="42"/>
       <c r="AM57" s="42"/>
@@ -7699,47 +7710,47 @@
       <c r="AW57" s="42"/>
     </row>
     <row r="58" spans="3:53" x14ac:dyDescent="0.2">
-      <c r="D58" s="260"/>
-      <c r="E58" s="264"/>
-      <c r="F58" s="265"/>
-      <c r="G58" s="265"/>
-      <c r="H58" s="265"/>
-      <c r="I58" s="265"/>
-      <c r="J58" s="266"/>
-      <c r="K58" s="264"/>
-      <c r="L58" s="265"/>
-      <c r="M58" s="265"/>
-      <c r="N58" s="266"/>
-      <c r="O58" s="249"/>
+      <c r="D58" s="293"/>
+      <c r="E58" s="277"/>
+      <c r="F58" s="278"/>
+      <c r="G58" s="278"/>
+      <c r="H58" s="278"/>
+      <c r="I58" s="278"/>
+      <c r="J58" s="279"/>
+      <c r="K58" s="277"/>
+      <c r="L58" s="278"/>
+      <c r="M58" s="278"/>
+      <c r="N58" s="279"/>
+      <c r="O58" s="298"/>
       <c r="P58" s="109" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q58" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="Q58" s="109" t="s">
+      <c r="R58" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="R58" s="109" t="s">
+      <c r="S58" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="S58" s="109" t="s">
+      <c r="T58" s="280" t="s">
         <v>73</v>
       </c>
-      <c r="T58" s="282" t="s">
-        <v>74</v>
-      </c>
-      <c r="U58" s="283"/>
-      <c r="V58" s="264"/>
-      <c r="W58" s="265"/>
-      <c r="X58" s="265"/>
-      <c r="Y58" s="265"/>
-      <c r="Z58" s="265"/>
-      <c r="AA58" s="265"/>
-      <c r="AB58" s="265"/>
-      <c r="AC58" s="265"/>
-      <c r="AD58" s="265"/>
-      <c r="AE58" s="265"/>
-      <c r="AF58" s="265"/>
-      <c r="AG58" s="265"/>
-      <c r="AH58" s="266"/>
+      <c r="U58" s="281"/>
+      <c r="V58" s="277"/>
+      <c r="W58" s="278"/>
+      <c r="X58" s="278"/>
+      <c r="Y58" s="278"/>
+      <c r="Z58" s="278"/>
+      <c r="AA58" s="278"/>
+      <c r="AB58" s="278"/>
+      <c r="AC58" s="278"/>
+      <c r="AD58" s="278"/>
+      <c r="AE58" s="278"/>
+      <c r="AF58" s="278"/>
+      <c r="AG58" s="278"/>
+      <c r="AH58" s="279"/>
       <c r="AK58" s="42"/>
       <c r="AL58" s="42"/>
       <c r="AM58" s="42"/>
@@ -7758,20 +7769,20 @@
       <c r="D59" s="110">
         <v>1</v>
       </c>
-      <c r="E59" s="254" t="s">
+      <c r="E59" s="301" t="s">
         <v>39</v>
       </c>
-      <c r="F59" s="255"/>
-      <c r="G59" s="255"/>
-      <c r="H59" s="255"/>
-      <c r="I59" s="255"/>
-      <c r="J59" s="256"/>
-      <c r="K59" s="245" t="s">
+      <c r="F59" s="302"/>
+      <c r="G59" s="302"/>
+      <c r="H59" s="302"/>
+      <c r="I59" s="302"/>
+      <c r="J59" s="303"/>
+      <c r="K59" s="263" t="s">
         <v>39</v>
       </c>
-      <c r="L59" s="246"/>
-      <c r="M59" s="246"/>
-      <c r="N59" s="247"/>
+      <c r="L59" s="264"/>
+      <c r="M59" s="264"/>
+      <c r="N59" s="265"/>
       <c r="O59" s="111"/>
       <c r="P59" s="112" t="s">
         <v>39</v>
@@ -7785,25 +7796,25 @@
       <c r="S59" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="T59" s="257" t="s">
+      <c r="T59" s="290" t="s">
         <v>39</v>
       </c>
-      <c r="U59" s="258"/>
-      <c r="V59" s="245" t="s">
+      <c r="U59" s="291"/>
+      <c r="V59" s="263" t="s">
         <v>39</v>
       </c>
-      <c r="W59" s="246"/>
-      <c r="X59" s="246"/>
-      <c r="Y59" s="246"/>
-      <c r="Z59" s="246"/>
-      <c r="AA59" s="246"/>
-      <c r="AB59" s="246"/>
-      <c r="AC59" s="246"/>
-      <c r="AD59" s="246"/>
-      <c r="AE59" s="246"/>
-      <c r="AF59" s="246"/>
-      <c r="AG59" s="246"/>
-      <c r="AH59" s="247"/>
+      <c r="W59" s="264"/>
+      <c r="X59" s="264"/>
+      <c r="Y59" s="264"/>
+      <c r="Z59" s="264"/>
+      <c r="AA59" s="264"/>
+      <c r="AB59" s="264"/>
+      <c r="AC59" s="264"/>
+      <c r="AD59" s="264"/>
+      <c r="AE59" s="264"/>
+      <c r="AF59" s="264"/>
+      <c r="AG59" s="264"/>
+      <c r="AH59" s="265"/>
       <c r="AK59" s="42"/>
       <c r="AL59" s="42"/>
       <c r="AM59" s="42"/>
@@ -7912,7 +7923,7 @@
     </row>
     <row r="62" spans="3:53" x14ac:dyDescent="0.2">
       <c r="C62" s="54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AS62" s="42"/>
       <c r="AT62" s="42"/>
@@ -7929,91 +7940,91 @@
       <c r="D64" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="E64" s="250" t="s">
+      <c r="E64" s="299" t="s">
+        <v>74</v>
+      </c>
+      <c r="F64" s="285"/>
+      <c r="G64" s="285"/>
+      <c r="H64" s="285"/>
+      <c r="I64" s="285"/>
+      <c r="J64" s="300"/>
+      <c r="K64" s="299" t="s">
         <v>75</v>
       </c>
-      <c r="F64" s="251"/>
-      <c r="G64" s="251"/>
-      <c r="H64" s="251"/>
-      <c r="I64" s="251"/>
-      <c r="J64" s="252"/>
-      <c r="K64" s="250" t="s">
+      <c r="L64" s="285"/>
+      <c r="M64" s="285"/>
+      <c r="N64" s="285"/>
+      <c r="O64" s="285"/>
+      <c r="P64" s="285"/>
+      <c r="Q64" s="286"/>
+      <c r="R64" s="234" t="s">
         <v>76</v>
       </c>
-      <c r="L64" s="251"/>
-      <c r="M64" s="251"/>
-      <c r="N64" s="251"/>
-      <c r="O64" s="251"/>
-      <c r="P64" s="251"/>
-      <c r="Q64" s="253"/>
-      <c r="R64" s="234" t="s">
+      <c r="S64" s="285"/>
+      <c r="T64" s="285"/>
+      <c r="U64" s="285"/>
+      <c r="V64" s="285"/>
+      <c r="W64" s="285"/>
+      <c r="X64" s="285"/>
+      <c r="Y64" s="286"/>
+      <c r="Z64" s="256" t="s">
         <v>77</v>
       </c>
-      <c r="S64" s="251"/>
-      <c r="T64" s="251"/>
-      <c r="U64" s="251"/>
-      <c r="V64" s="251"/>
-      <c r="W64" s="251"/>
-      <c r="X64" s="251"/>
-      <c r="Y64" s="253"/>
-      <c r="Z64" s="270" t="s">
+      <c r="AA64" s="257"/>
+      <c r="AB64" s="257"/>
+      <c r="AC64" s="257"/>
+      <c r="AD64" s="258"/>
+      <c r="AE64" s="282" t="s">
         <v>78</v>
       </c>
-      <c r="AA64" s="271"/>
-      <c r="AB64" s="271"/>
-      <c r="AC64" s="271"/>
-      <c r="AD64" s="272"/>
-      <c r="AE64" s="267" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF64" s="268"/>
-      <c r="AG64" s="268"/>
-      <c r="AH64" s="269"/>
+      <c r="AF64" s="283"/>
+      <c r="AG64" s="283"/>
+      <c r="AH64" s="284"/>
     </row>
     <row r="65" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D65" s="118">
         <v>1</v>
       </c>
-      <c r="E65" s="242" t="s">
+      <c r="E65" s="294" t="s">
+        <v>79</v>
+      </c>
+      <c r="F65" s="295"/>
+      <c r="G65" s="295"/>
+      <c r="H65" s="295"/>
+      <c r="I65" s="295"/>
+      <c r="J65" s="296"/>
+      <c r="K65" s="263" t="s">
+        <v>39</v>
+      </c>
+      <c r="L65" s="264"/>
+      <c r="M65" s="264"/>
+      <c r="N65" s="264"/>
+      <c r="O65" s="264"/>
+      <c r="P65" s="264"/>
+      <c r="Q65" s="265"/>
+      <c r="R65" s="263" t="s">
         <v>80</v>
       </c>
-      <c r="F65" s="243"/>
-      <c r="G65" s="243"/>
-      <c r="H65" s="243"/>
-      <c r="I65" s="243"/>
-      <c r="J65" s="244"/>
-      <c r="K65" s="245" t="s">
+      <c r="S65" s="264"/>
+      <c r="T65" s="264"/>
+      <c r="U65" s="264"/>
+      <c r="V65" s="264"/>
+      <c r="W65" s="264"/>
+      <c r="X65" s="264"/>
+      <c r="Y65" s="265"/>
+      <c r="Z65" s="263" t="s">
         <v>39</v>
       </c>
-      <c r="L65" s="246"/>
-      <c r="M65" s="246"/>
-      <c r="N65" s="246"/>
-      <c r="O65" s="246"/>
-      <c r="P65" s="246"/>
-      <c r="Q65" s="247"/>
-      <c r="R65" s="245" t="s">
+      <c r="AA65" s="264"/>
+      <c r="AB65" s="264"/>
+      <c r="AC65" s="264"/>
+      <c r="AD65" s="265"/>
+      <c r="AE65" s="287" t="s">
         <v>81</v>
       </c>
-      <c r="S65" s="246"/>
-      <c r="T65" s="246"/>
-      <c r="U65" s="246"/>
-      <c r="V65" s="246"/>
-      <c r="W65" s="246"/>
-      <c r="X65" s="246"/>
-      <c r="Y65" s="247"/>
-      <c r="Z65" s="245" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA65" s="246"/>
-      <c r="AB65" s="246"/>
-      <c r="AC65" s="246"/>
-      <c r="AD65" s="247"/>
-      <c r="AE65" s="273" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF65" s="274"/>
-      <c r="AG65" s="274"/>
-      <c r="AH65" s="275"/>
+      <c r="AF65" s="288"/>
+      <c r="AG65" s="288"/>
+      <c r="AH65" s="289"/>
     </row>
     <row r="66" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D66" s="119"/>
@@ -8105,7 +8116,7 @@
     </row>
     <row r="68" spans="1:58" x14ac:dyDescent="0.2">
       <c r="C68" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D68" s="121"/>
       <c r="E68" s="121"/>
@@ -8132,7 +8143,7 @@
     <row r="69" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="42"/>
       <c r="D69" s="121" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E69" s="121"/>
       <c r="AP69" s="42"/>
@@ -8175,7 +8186,7 @@
       <c r="C71" s="38"/>
       <c r="D71" s="121"/>
       <c r="E71" s="121" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AP71" s="38"/>
     </row>
@@ -8190,7 +8201,7 @@
       <c r="D73" s="121"/>
       <c r="E73" s="121"/>
       <c r="F73" s="54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AP73" s="42"/>
     </row>
@@ -8239,7 +8250,7 @@
     </row>
     <row r="76" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E76" s="54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G76" s="44"/>
       <c r="AJ76" s="124"/>
@@ -8295,7 +8306,7 @@
     <row r="78" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E78" s="66"/>
       <c r="F78" s="54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AJ78" s="124"/>
       <c r="AK78" s="124"/>
@@ -8377,6 +8388,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="E65:J65"/>
+    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="E64:J64"/>
+    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="E59:J59"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="V59:AH59"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:J58"/>
+    <mergeCell ref="K57:N58"/>
+    <mergeCell ref="AE64:AH64"/>
+    <mergeCell ref="Z64:AD64"/>
+    <mergeCell ref="R65:Y65"/>
+    <mergeCell ref="Z65:AD65"/>
+    <mergeCell ref="R64:Y64"/>
+    <mergeCell ref="AE65:AH65"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="V57:AH58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AD49:AG51"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AD52:AG52"/>
+    <mergeCell ref="E43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="Q43:U43"/>
+    <mergeCell ref="V43:AC43"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="D49:D51"/>
     <mergeCell ref="M50:T51"/>
     <mergeCell ref="Q44:U44"/>
@@ -8393,50 +8448,6 @@
     <mergeCell ref="M52:T52"/>
     <mergeCell ref="U50:Y51"/>
     <mergeCell ref="U52:Y52"/>
-    <mergeCell ref="AD49:AG51"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AD52:AG52"/>
-    <mergeCell ref="E43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="V43:AC43"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="V57:AH58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AE64:AH64"/>
-    <mergeCell ref="Z64:AD64"/>
-    <mergeCell ref="R65:Y65"/>
-    <mergeCell ref="Z65:AD65"/>
-    <mergeCell ref="R64:Y64"/>
-    <mergeCell ref="AE65:AH65"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="V59:AH59"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:J58"/>
-    <mergeCell ref="K57:N58"/>
-    <mergeCell ref="E65:J65"/>
-    <mergeCell ref="K65:Q65"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="E64:J64"/>
-    <mergeCell ref="K64:Q64"/>
-    <mergeCell ref="E59:J59"/>
-    <mergeCell ref="K59:N59"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="5">
@@ -8473,7 +8484,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000005000000}">
           <x14:formula1>
-            <xm:f>データ!$D$2:$D$4</xm:f>
+            <xm:f>Data!$D$2:$D$4</xm:f>
           </x14:formula1>
           <xm:sqref>AH66 AE65:AH65</xm:sqref>
         </x14:dataValidation>
@@ -8503,16 +8514,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="126" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="127" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="127" t="s">
+      <c r="C1" s="128" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="128" t="s">
-        <v>89</v>
-      </c>
       <c r="D1" s="128" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8520,93 +8531,93 @@
         <v>39</v>
       </c>
       <c r="B2" s="129" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="130" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="111" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="111" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="129" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="129" t="s">
+      <c r="C3" s="111" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="111" t="s">
+      <c r="D3" s="111" t="s">
         <v>93</v>
-      </c>
-      <c r="D3" s="111" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="111" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="111" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="C4" s="111" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="D4" s="111" t="s">
         <v>97</v>
-      </c>
-      <c r="D4" s="111" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="111" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="C5" s="111" t="s">
         <v>100</v>
-      </c>
-      <c r="C5" s="111" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="111" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="111" t="s">
         <v>102</v>
-      </c>
-      <c r="C6" s="111" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="111" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="111" t="s">
         <v>104</v>
-      </c>
-      <c r="C7" s="111" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="111" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="111" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="111" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="111" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="111" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design_document(screen)_WA10104_General_error.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design_document(screen)_WA10104_General_error.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D40485A-3DDE-4B35-9FEA-654C2F4F7A4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD0565B-FA24-4C09-9E62-05A25ECFD50B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2820" windowWidth="24000" windowHeight="10710" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21270" windowHeight="10575" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" state="hidden" r:id="rId1"/>
@@ -1297,7 +1297,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="304">
+  <cellXfs count="306">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1614,6 +1614,150 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1656,148 +1800,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1863,33 +1890,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1944,68 +1944,14 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2016,114 +1962,174 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="パーセント 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3605,57 +3611,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="180" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="179" t="s">
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="180"/>
-      <c r="K1" s="180"/>
-      <c r="L1" s="180"/>
-      <c r="M1" s="180"/>
-      <c r="N1" s="181"/>
-      <c r="O1" s="135" t="s">
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="183" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="136"/>
-      <c r="Q1" s="136"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="185" t="s">
+      <c r="P1" s="184"/>
+      <c r="Q1" s="184"/>
+      <c r="R1" s="185"/>
+      <c r="S1" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="186"/>
-      <c r="U1" s="186"/>
-      <c r="V1" s="186"/>
-      <c r="W1" s="186"/>
-      <c r="X1" s="186"/>
-      <c r="Y1" s="186"/>
-      <c r="Z1" s="187"/>
-      <c r="AA1" s="132" t="s">
+      <c r="T1" s="163"/>
+      <c r="U1" s="163"/>
+      <c r="V1" s="163"/>
+      <c r="W1" s="163"/>
+      <c r="X1" s="163"/>
+      <c r="Y1" s="163"/>
+      <c r="Z1" s="164"/>
+      <c r="AA1" s="180" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="134"/>
-      <c r="AC1" s="167" t="str">
+      <c r="AB1" s="182"/>
+      <c r="AC1" s="132" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="168"/>
-      <c r="AE1" s="168"/>
-      <c r="AF1" s="169"/>
-      <c r="AG1" s="173">
+      <c r="AD1" s="133"/>
+      <c r="AE1" s="133"/>
+      <c r="AF1" s="134"/>
+      <c r="AG1" s="138">
         <f>IF(D8="","",D8)</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="174"/>
-      <c r="AI1" s="175"/>
+      <c r="AH1" s="139"/>
+      <c r="AI1" s="140"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -3663,53 +3669,53 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="180" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="179" t="s">
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
-      <c r="J2" s="180"/>
-      <c r="K2" s="180"/>
-      <c r="L2" s="180"/>
-      <c r="M2" s="180"/>
-      <c r="N2" s="181"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="188"/>
-      <c r="T2" s="189"/>
-      <c r="U2" s="189"/>
-      <c r="V2" s="189"/>
-      <c r="W2" s="189"/>
-      <c r="X2" s="189"/>
-      <c r="Y2" s="189"/>
-      <c r="Z2" s="190"/>
-      <c r="AA2" s="132" t="s">
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="186"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="166"/>
+      <c r="U2" s="166"/>
+      <c r="V2" s="166"/>
+      <c r="W2" s="166"/>
+      <c r="X2" s="166"/>
+      <c r="Y2" s="166"/>
+      <c r="Z2" s="167"/>
+      <c r="AA2" s="180" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="134"/>
-      <c r="AC2" s="176" t="str">
+      <c r="AB2" s="182"/>
+      <c r="AC2" s="141" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="177"/>
-      <c r="AE2" s="177"/>
-      <c r="AF2" s="178"/>
-      <c r="AG2" s="173" t="str">
+      <c r="AD2" s="142"/>
+      <c r="AE2" s="142"/>
+      <c r="AF2" s="143"/>
+      <c r="AG2" s="138" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="174"/>
-      <c r="AI2" s="175"/>
+      <c r="AH2" s="139"/>
+      <c r="AI2" s="140"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -3717,45 +3723,45 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="179" t="s">
+      <c r="B3" s="181"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="180"/>
-      <c r="J3" s="180"/>
-      <c r="K3" s="180"/>
-      <c r="L3" s="180"/>
-      <c r="M3" s="180"/>
-      <c r="N3" s="181"/>
-      <c r="O3" s="141"/>
-      <c r="P3" s="142"/>
-      <c r="Q3" s="142"/>
-      <c r="R3" s="143"/>
-      <c r="S3" s="191"/>
-      <c r="T3" s="192"/>
-      <c r="U3" s="192"/>
-      <c r="V3" s="192"/>
-      <c r="W3" s="192"/>
-      <c r="X3" s="192"/>
-      <c r="Y3" s="192"/>
-      <c r="Z3" s="193"/>
-      <c r="AA3" s="144"/>
-      <c r="AB3" s="145"/>
-      <c r="AC3" s="167"/>
-      <c r="AD3" s="168"/>
-      <c r="AE3" s="168"/>
-      <c r="AF3" s="169"/>
-      <c r="AG3" s="173"/>
-      <c r="AH3" s="174"/>
-      <c r="AI3" s="175"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="152"/>
+      <c r="O3" s="189"/>
+      <c r="P3" s="190"/>
+      <c r="Q3" s="190"/>
+      <c r="R3" s="191"/>
+      <c r="S3" s="168"/>
+      <c r="T3" s="169"/>
+      <c r="U3" s="169"/>
+      <c r="V3" s="169"/>
+      <c r="W3" s="169"/>
+      <c r="X3" s="169"/>
+      <c r="Y3" s="169"/>
+      <c r="Z3" s="170"/>
+      <c r="AA3" s="192"/>
+      <c r="AB3" s="193"/>
+      <c r="AC3" s="132"/>
+      <c r="AD3" s="133"/>
+      <c r="AE3" s="133"/>
+      <c r="AF3" s="134"/>
+      <c r="AG3" s="138"/>
+      <c r="AH3" s="139"/>
+      <c r="AI3" s="140"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -3894,1028 +3900,1028 @@
       <c r="A7" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="158" t="s">
+      <c r="B7" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="159"/>
-      <c r="D7" s="158" t="s">
+      <c r="C7" s="149"/>
+      <c r="D7" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="160"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="158" t="s">
+      <c r="E7" s="148"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="160"/>
-      <c r="I7" s="159"/>
-      <c r="J7" s="158" t="s">
+      <c r="H7" s="148"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="160"/>
-      <c r="L7" s="160"/>
-      <c r="M7" s="160"/>
-      <c r="N7" s="160"/>
-      <c r="O7" s="160"/>
-      <c r="P7" s="159"/>
-      <c r="Q7" s="158" t="s">
+      <c r="K7" s="148"/>
+      <c r="L7" s="148"/>
+      <c r="M7" s="148"/>
+      <c r="N7" s="148"/>
+      <c r="O7" s="148"/>
+      <c r="P7" s="149"/>
+      <c r="Q7" s="147" t="s">
         <v>35</v>
       </c>
-      <c r="R7" s="160"/>
-      <c r="S7" s="160"/>
-      <c r="T7" s="160"/>
-      <c r="U7" s="160"/>
-      <c r="V7" s="160"/>
-      <c r="W7" s="160"/>
-      <c r="X7" s="160"/>
-      <c r="Y7" s="160"/>
-      <c r="Z7" s="160"/>
-      <c r="AA7" s="160"/>
-      <c r="AB7" s="160"/>
-      <c r="AC7" s="160"/>
-      <c r="AD7" s="160"/>
-      <c r="AE7" s="159"/>
-      <c r="AF7" s="158" t="s">
+      <c r="R7" s="148"/>
+      <c r="S7" s="148"/>
+      <c r="T7" s="148"/>
+      <c r="U7" s="148"/>
+      <c r="V7" s="148"/>
+      <c r="W7" s="148"/>
+      <c r="X7" s="148"/>
+      <c r="Y7" s="148"/>
+      <c r="Z7" s="148"/>
+      <c r="AA7" s="148"/>
+      <c r="AB7" s="148"/>
+      <c r="AC7" s="148"/>
+      <c r="AD7" s="148"/>
+      <c r="AE7" s="149"/>
+      <c r="AF7" s="147" t="s">
         <v>36</v>
       </c>
-      <c r="AG7" s="160"/>
-      <c r="AH7" s="160"/>
-      <c r="AI7" s="159"/>
+      <c r="AG7" s="148"/>
+      <c r="AH7" s="148"/>
+      <c r="AI7" s="149"/>
     </row>
     <row r="8" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="29">
         <v>1</v>
       </c>
-      <c r="B8" s="161" t="s">
+      <c r="B8" s="174" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="162"/>
-      <c r="D8" s="163">
+      <c r="C8" s="175"/>
+      <c r="D8" s="176">
         <v>43599</v>
       </c>
-      <c r="E8" s="164"/>
-      <c r="F8" s="165"/>
-      <c r="G8" s="161" t="s">
+      <c r="E8" s="177"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="174" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="166"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="182" t="s">
+      <c r="H8" s="179"/>
+      <c r="I8" s="175"/>
+      <c r="J8" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="183"/>
-      <c r="L8" s="183"/>
-      <c r="M8" s="183"/>
-      <c r="N8" s="183"/>
-      <c r="O8" s="183"/>
-      <c r="P8" s="184"/>
-      <c r="Q8" s="170" t="s">
+      <c r="K8" s="160"/>
+      <c r="L8" s="160"/>
+      <c r="M8" s="160"/>
+      <c r="N8" s="160"/>
+      <c r="O8" s="160"/>
+      <c r="P8" s="161"/>
+      <c r="Q8" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="R8" s="171"/>
-      <c r="S8" s="171"/>
-      <c r="T8" s="171"/>
-      <c r="U8" s="171"/>
-      <c r="V8" s="171"/>
-      <c r="W8" s="171"/>
-      <c r="X8" s="171"/>
-      <c r="Y8" s="171"/>
-      <c r="Z8" s="171"/>
-      <c r="AA8" s="171"/>
-      <c r="AB8" s="171"/>
-      <c r="AC8" s="171"/>
-      <c r="AD8" s="171"/>
-      <c r="AE8" s="172"/>
-      <c r="AF8" s="182" t="s">
+      <c r="R8" s="136"/>
+      <c r="S8" s="136"/>
+      <c r="T8" s="136"/>
+      <c r="U8" s="136"/>
+      <c r="V8" s="136"/>
+      <c r="W8" s="136"/>
+      <c r="X8" s="136"/>
+      <c r="Y8" s="136"/>
+      <c r="Z8" s="136"/>
+      <c r="AA8" s="136"/>
+      <c r="AB8" s="136"/>
+      <c r="AC8" s="136"/>
+      <c r="AD8" s="136"/>
+      <c r="AE8" s="137"/>
+      <c r="AF8" s="159" t="s">
         <v>41</v>
       </c>
-      <c r="AG8" s="183"/>
-      <c r="AH8" s="183"/>
-      <c r="AI8" s="184"/>
+      <c r="AG8" s="160"/>
+      <c r="AH8" s="160"/>
+      <c r="AI8" s="161"/>
     </row>
     <row r="9" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
-      <c r="B9" s="152"/>
-      <c r="C9" s="153"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="152"/>
-      <c r="H9" s="157"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="149"/>
-      <c r="K9" s="150"/>
-      <c r="L9" s="150"/>
-      <c r="M9" s="150"/>
-      <c r="N9" s="150"/>
-      <c r="O9" s="150"/>
-      <c r="P9" s="151"/>
-      <c r="Q9" s="146"/>
-      <c r="R9" s="147"/>
-      <c r="S9" s="147"/>
-      <c r="T9" s="147"/>
-      <c r="U9" s="147"/>
-      <c r="V9" s="147"/>
-      <c r="W9" s="147"/>
-      <c r="X9" s="147"/>
-      <c r="Y9" s="147"/>
-      <c r="Z9" s="147"/>
-      <c r="AA9" s="147"/>
-      <c r="AB9" s="147"/>
-      <c r="AC9" s="147"/>
-      <c r="AD9" s="147"/>
-      <c r="AE9" s="148"/>
-      <c r="AF9" s="149"/>
-      <c r="AG9" s="150"/>
-      <c r="AH9" s="150"/>
-      <c r="AI9" s="151"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="146"/>
+      <c r="D9" s="171"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="173"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="156"/>
+      <c r="K9" s="157"/>
+      <c r="L9" s="157"/>
+      <c r="M9" s="157"/>
+      <c r="N9" s="157"/>
+      <c r="O9" s="157"/>
+      <c r="P9" s="158"/>
+      <c r="Q9" s="153"/>
+      <c r="R9" s="154"/>
+      <c r="S9" s="154"/>
+      <c r="T9" s="154"/>
+      <c r="U9" s="154"/>
+      <c r="V9" s="154"/>
+      <c r="W9" s="154"/>
+      <c r="X9" s="154"/>
+      <c r="Y9" s="154"/>
+      <c r="Z9" s="154"/>
+      <c r="AA9" s="154"/>
+      <c r="AB9" s="154"/>
+      <c r="AC9" s="154"/>
+      <c r="AD9" s="154"/>
+      <c r="AE9" s="155"/>
+      <c r="AF9" s="156"/>
+      <c r="AG9" s="157"/>
+      <c r="AH9" s="157"/>
+      <c r="AI9" s="158"/>
     </row>
     <row r="10" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30"/>
-      <c r="B10" s="152"/>
-      <c r="C10" s="153"/>
-      <c r="D10" s="154"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="152"/>
-      <c r="H10" s="157"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="149"/>
-      <c r="K10" s="150"/>
-      <c r="L10" s="150"/>
-      <c r="M10" s="150"/>
-      <c r="N10" s="150"/>
-      <c r="O10" s="150"/>
-      <c r="P10" s="151"/>
-      <c r="Q10" s="146"/>
-      <c r="R10" s="147"/>
-      <c r="S10" s="147"/>
-      <c r="T10" s="147"/>
-      <c r="U10" s="147"/>
-      <c r="V10" s="147"/>
-      <c r="W10" s="147"/>
-      <c r="X10" s="147"/>
-      <c r="Y10" s="147"/>
-      <c r="Z10" s="147"/>
-      <c r="AA10" s="147"/>
-      <c r="AB10" s="147"/>
-      <c r="AC10" s="147"/>
-      <c r="AD10" s="147"/>
-      <c r="AE10" s="148"/>
-      <c r="AF10" s="149"/>
-      <c r="AG10" s="150"/>
-      <c r="AH10" s="150"/>
-      <c r="AI10" s="151"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="146"/>
+      <c r="D10" s="171"/>
+      <c r="E10" s="172"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="146"/>
+      <c r="J10" s="156"/>
+      <c r="K10" s="157"/>
+      <c r="L10" s="157"/>
+      <c r="M10" s="157"/>
+      <c r="N10" s="157"/>
+      <c r="O10" s="157"/>
+      <c r="P10" s="158"/>
+      <c r="Q10" s="153"/>
+      <c r="R10" s="154"/>
+      <c r="S10" s="154"/>
+      <c r="T10" s="154"/>
+      <c r="U10" s="154"/>
+      <c r="V10" s="154"/>
+      <c r="W10" s="154"/>
+      <c r="X10" s="154"/>
+      <c r="Y10" s="154"/>
+      <c r="Z10" s="154"/>
+      <c r="AA10" s="154"/>
+      <c r="AB10" s="154"/>
+      <c r="AC10" s="154"/>
+      <c r="AD10" s="154"/>
+      <c r="AE10" s="155"/>
+      <c r="AF10" s="156"/>
+      <c r="AG10" s="157"/>
+      <c r="AH10" s="157"/>
+      <c r="AI10" s="158"/>
     </row>
     <row r="11" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="30"/>
-      <c r="B11" s="152"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="154"/>
-      <c r="E11" s="155"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="152"/>
-      <c r="H11" s="157"/>
-      <c r="I11" s="153"/>
-      <c r="J11" s="149"/>
-      <c r="K11" s="150"/>
-      <c r="L11" s="150"/>
-      <c r="M11" s="150"/>
-      <c r="N11" s="150"/>
-      <c r="O11" s="150"/>
-      <c r="P11" s="151"/>
-      <c r="Q11" s="146"/>
-      <c r="R11" s="147"/>
-      <c r="S11" s="147"/>
-      <c r="T11" s="147"/>
-      <c r="U11" s="147"/>
-      <c r="V11" s="147"/>
-      <c r="W11" s="147"/>
-      <c r="X11" s="147"/>
-      <c r="Y11" s="147"/>
-      <c r="Z11" s="147"/>
-      <c r="AA11" s="147"/>
-      <c r="AB11" s="147"/>
-      <c r="AC11" s="147"/>
-      <c r="AD11" s="147"/>
-      <c r="AE11" s="148"/>
-      <c r="AF11" s="149"/>
-      <c r="AG11" s="150"/>
-      <c r="AH11" s="150"/>
-      <c r="AI11" s="151"/>
+      <c r="B11" s="144"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="171"/>
+      <c r="E11" s="172"/>
+      <c r="F11" s="173"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="146"/>
+      <c r="J11" s="156"/>
+      <c r="K11" s="157"/>
+      <c r="L11" s="157"/>
+      <c r="M11" s="157"/>
+      <c r="N11" s="157"/>
+      <c r="O11" s="157"/>
+      <c r="P11" s="158"/>
+      <c r="Q11" s="153"/>
+      <c r="R11" s="154"/>
+      <c r="S11" s="154"/>
+      <c r="T11" s="154"/>
+      <c r="U11" s="154"/>
+      <c r="V11" s="154"/>
+      <c r="W11" s="154"/>
+      <c r="X11" s="154"/>
+      <c r="Y11" s="154"/>
+      <c r="Z11" s="154"/>
+      <c r="AA11" s="154"/>
+      <c r="AB11" s="154"/>
+      <c r="AC11" s="154"/>
+      <c r="AD11" s="154"/>
+      <c r="AE11" s="155"/>
+      <c r="AF11" s="156"/>
+      <c r="AG11" s="157"/>
+      <c r="AH11" s="157"/>
+      <c r="AI11" s="158"/>
     </row>
     <row r="12" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="30"/>
-      <c r="B12" s="152"/>
-      <c r="C12" s="153"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="152"/>
-      <c r="H12" s="157"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="149"/>
-      <c r="K12" s="150"/>
-      <c r="L12" s="150"/>
-      <c r="M12" s="150"/>
-      <c r="N12" s="150"/>
-      <c r="O12" s="150"/>
-      <c r="P12" s="151"/>
-      <c r="Q12" s="146"/>
-      <c r="R12" s="147"/>
-      <c r="S12" s="147"/>
-      <c r="T12" s="147"/>
-      <c r="U12" s="147"/>
-      <c r="V12" s="147"/>
-      <c r="W12" s="147"/>
-      <c r="X12" s="147"/>
-      <c r="Y12" s="147"/>
-      <c r="Z12" s="147"/>
-      <c r="AA12" s="147"/>
-      <c r="AB12" s="147"/>
-      <c r="AC12" s="147"/>
-      <c r="AD12" s="147"/>
-      <c r="AE12" s="148"/>
-      <c r="AF12" s="149"/>
-      <c r="AG12" s="150"/>
-      <c r="AH12" s="150"/>
-      <c r="AI12" s="151"/>
+      <c r="B12" s="144"/>
+      <c r="C12" s="146"/>
+      <c r="D12" s="171"/>
+      <c r="E12" s="172"/>
+      <c r="F12" s="173"/>
+      <c r="G12" s="144"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="146"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="157"/>
+      <c r="L12" s="157"/>
+      <c r="M12" s="157"/>
+      <c r="N12" s="157"/>
+      <c r="O12" s="157"/>
+      <c r="P12" s="158"/>
+      <c r="Q12" s="153"/>
+      <c r="R12" s="154"/>
+      <c r="S12" s="154"/>
+      <c r="T12" s="154"/>
+      <c r="U12" s="154"/>
+      <c r="V12" s="154"/>
+      <c r="W12" s="154"/>
+      <c r="X12" s="154"/>
+      <c r="Y12" s="154"/>
+      <c r="Z12" s="154"/>
+      <c r="AA12" s="154"/>
+      <c r="AB12" s="154"/>
+      <c r="AC12" s="154"/>
+      <c r="AD12" s="154"/>
+      <c r="AE12" s="155"/>
+      <c r="AF12" s="156"/>
+      <c r="AG12" s="157"/>
+      <c r="AH12" s="157"/>
+      <c r="AI12" s="158"/>
     </row>
     <row r="13" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="30"/>
-      <c r="B13" s="152"/>
-      <c r="C13" s="153"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="155"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="157"/>
-      <c r="I13" s="153"/>
-      <c r="J13" s="149"/>
-      <c r="K13" s="150"/>
-      <c r="L13" s="150"/>
-      <c r="M13" s="150"/>
-      <c r="N13" s="150"/>
-      <c r="O13" s="150"/>
-      <c r="P13" s="151"/>
-      <c r="Q13" s="146"/>
-      <c r="R13" s="147"/>
-      <c r="S13" s="147"/>
-      <c r="T13" s="147"/>
-      <c r="U13" s="147"/>
-      <c r="V13" s="147"/>
-      <c r="W13" s="147"/>
-      <c r="X13" s="147"/>
-      <c r="Y13" s="147"/>
-      <c r="Z13" s="147"/>
-      <c r="AA13" s="147"/>
-      <c r="AB13" s="147"/>
-      <c r="AC13" s="147"/>
-      <c r="AD13" s="147"/>
-      <c r="AE13" s="148"/>
-      <c r="AF13" s="149"/>
-      <c r="AG13" s="150"/>
-      <c r="AH13" s="150"/>
-      <c r="AI13" s="151"/>
+      <c r="B13" s="144"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="171"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="156"/>
+      <c r="K13" s="157"/>
+      <c r="L13" s="157"/>
+      <c r="M13" s="157"/>
+      <c r="N13" s="157"/>
+      <c r="O13" s="157"/>
+      <c r="P13" s="158"/>
+      <c r="Q13" s="153"/>
+      <c r="R13" s="154"/>
+      <c r="S13" s="154"/>
+      <c r="T13" s="154"/>
+      <c r="U13" s="154"/>
+      <c r="V13" s="154"/>
+      <c r="W13" s="154"/>
+      <c r="X13" s="154"/>
+      <c r="Y13" s="154"/>
+      <c r="Z13" s="154"/>
+      <c r="AA13" s="154"/>
+      <c r="AB13" s="154"/>
+      <c r="AC13" s="154"/>
+      <c r="AD13" s="154"/>
+      <c r="AE13" s="155"/>
+      <c r="AF13" s="156"/>
+      <c r="AG13" s="157"/>
+      <c r="AH13" s="157"/>
+      <c r="AI13" s="158"/>
     </row>
     <row r="14" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="30"/>
-      <c r="B14" s="152"/>
-      <c r="C14" s="153"/>
-      <c r="D14" s="154"/>
-      <c r="E14" s="155"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="157"/>
-      <c r="I14" s="153"/>
-      <c r="J14" s="149"/>
-      <c r="K14" s="150"/>
-      <c r="L14" s="150"/>
-      <c r="M14" s="150"/>
-      <c r="N14" s="150"/>
-      <c r="O14" s="150"/>
-      <c r="P14" s="151"/>
-      <c r="Q14" s="146"/>
-      <c r="R14" s="147"/>
-      <c r="S14" s="147"/>
-      <c r="T14" s="147"/>
-      <c r="U14" s="147"/>
-      <c r="V14" s="147"/>
-      <c r="W14" s="147"/>
-      <c r="X14" s="147"/>
-      <c r="Y14" s="147"/>
-      <c r="Z14" s="147"/>
-      <c r="AA14" s="147"/>
-      <c r="AB14" s="147"/>
-      <c r="AC14" s="147"/>
-      <c r="AD14" s="147"/>
-      <c r="AE14" s="148"/>
-      <c r="AF14" s="149"/>
-      <c r="AG14" s="150"/>
-      <c r="AH14" s="150"/>
-      <c r="AI14" s="151"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="171"/>
+      <c r="E14" s="172"/>
+      <c r="F14" s="173"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="157"/>
+      <c r="L14" s="157"/>
+      <c r="M14" s="157"/>
+      <c r="N14" s="157"/>
+      <c r="O14" s="157"/>
+      <c r="P14" s="158"/>
+      <c r="Q14" s="153"/>
+      <c r="R14" s="154"/>
+      <c r="S14" s="154"/>
+      <c r="T14" s="154"/>
+      <c r="U14" s="154"/>
+      <c r="V14" s="154"/>
+      <c r="W14" s="154"/>
+      <c r="X14" s="154"/>
+      <c r="Y14" s="154"/>
+      <c r="Z14" s="154"/>
+      <c r="AA14" s="154"/>
+      <c r="AB14" s="154"/>
+      <c r="AC14" s="154"/>
+      <c r="AD14" s="154"/>
+      <c r="AE14" s="155"/>
+      <c r="AF14" s="156"/>
+      <c r="AG14" s="157"/>
+      <c r="AH14" s="157"/>
+      <c r="AI14" s="158"/>
     </row>
     <row r="15" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="30"/>
-      <c r="B15" s="152"/>
-      <c r="C15" s="153"/>
-      <c r="D15" s="154"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="156"/>
-      <c r="G15" s="152"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="153"/>
-      <c r="J15" s="149"/>
-      <c r="K15" s="150"/>
-      <c r="L15" s="150"/>
-      <c r="M15" s="150"/>
-      <c r="N15" s="150"/>
-      <c r="O15" s="150"/>
-      <c r="P15" s="151"/>
-      <c r="Q15" s="146"/>
-      <c r="R15" s="147"/>
-      <c r="S15" s="147"/>
-      <c r="T15" s="147"/>
-      <c r="U15" s="147"/>
-      <c r="V15" s="147"/>
-      <c r="W15" s="147"/>
-      <c r="X15" s="147"/>
-      <c r="Y15" s="147"/>
-      <c r="Z15" s="147"/>
-      <c r="AA15" s="147"/>
-      <c r="AB15" s="147"/>
-      <c r="AC15" s="147"/>
-      <c r="AD15" s="147"/>
-      <c r="AE15" s="148"/>
-      <c r="AF15" s="149"/>
-      <c r="AG15" s="150"/>
-      <c r="AH15" s="150"/>
-      <c r="AI15" s="151"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="171"/>
+      <c r="E15" s="172"/>
+      <c r="F15" s="173"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="156"/>
+      <c r="K15" s="157"/>
+      <c r="L15" s="157"/>
+      <c r="M15" s="157"/>
+      <c r="N15" s="157"/>
+      <c r="O15" s="157"/>
+      <c r="P15" s="158"/>
+      <c r="Q15" s="153"/>
+      <c r="R15" s="154"/>
+      <c r="S15" s="154"/>
+      <c r="T15" s="154"/>
+      <c r="U15" s="154"/>
+      <c r="V15" s="154"/>
+      <c r="W15" s="154"/>
+      <c r="X15" s="154"/>
+      <c r="Y15" s="154"/>
+      <c r="Z15" s="154"/>
+      <c r="AA15" s="154"/>
+      <c r="AB15" s="154"/>
+      <c r="AC15" s="154"/>
+      <c r="AD15" s="154"/>
+      <c r="AE15" s="155"/>
+      <c r="AF15" s="156"/>
+      <c r="AG15" s="157"/>
+      <c r="AH15" s="157"/>
+      <c r="AI15" s="158"/>
     </row>
     <row r="16" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="30"/>
-      <c r="B16" s="152"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="156"/>
-      <c r="G16" s="152"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="149"/>
-      <c r="K16" s="150"/>
-      <c r="L16" s="150"/>
-      <c r="M16" s="150"/>
-      <c r="N16" s="150"/>
-      <c r="O16" s="150"/>
-      <c r="P16" s="151"/>
-      <c r="Q16" s="146"/>
-      <c r="R16" s="147"/>
-      <c r="S16" s="147"/>
-      <c r="T16" s="147"/>
-      <c r="U16" s="147"/>
-      <c r="V16" s="147"/>
-      <c r="W16" s="147"/>
-      <c r="X16" s="147"/>
-      <c r="Y16" s="147"/>
-      <c r="Z16" s="147"/>
-      <c r="AA16" s="147"/>
-      <c r="AB16" s="147"/>
-      <c r="AC16" s="147"/>
-      <c r="AD16" s="147"/>
-      <c r="AE16" s="148"/>
-      <c r="AF16" s="149"/>
-      <c r="AG16" s="150"/>
-      <c r="AH16" s="150"/>
-      <c r="AI16" s="151"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="171"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="156"/>
+      <c r="K16" s="157"/>
+      <c r="L16" s="157"/>
+      <c r="M16" s="157"/>
+      <c r="N16" s="157"/>
+      <c r="O16" s="157"/>
+      <c r="P16" s="158"/>
+      <c r="Q16" s="153"/>
+      <c r="R16" s="154"/>
+      <c r="S16" s="154"/>
+      <c r="T16" s="154"/>
+      <c r="U16" s="154"/>
+      <c r="V16" s="154"/>
+      <c r="W16" s="154"/>
+      <c r="X16" s="154"/>
+      <c r="Y16" s="154"/>
+      <c r="Z16" s="154"/>
+      <c r="AA16" s="154"/>
+      <c r="AB16" s="154"/>
+      <c r="AC16" s="154"/>
+      <c r="AD16" s="154"/>
+      <c r="AE16" s="155"/>
+      <c r="AF16" s="156"/>
+      <c r="AG16" s="157"/>
+      <c r="AH16" s="157"/>
+      <c r="AI16" s="158"/>
     </row>
     <row r="17" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="30"/>
-      <c r="B17" s="152"/>
-      <c r="C17" s="153"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="155"/>
-      <c r="F17" s="156"/>
-      <c r="G17" s="152"/>
-      <c r="H17" s="157"/>
-      <c r="I17" s="153"/>
-      <c r="J17" s="149"/>
-      <c r="K17" s="150"/>
-      <c r="L17" s="150"/>
-      <c r="M17" s="150"/>
-      <c r="N17" s="150"/>
-      <c r="O17" s="150"/>
-      <c r="P17" s="151"/>
-      <c r="Q17" s="146"/>
-      <c r="R17" s="147"/>
-      <c r="S17" s="147"/>
-      <c r="T17" s="147"/>
-      <c r="U17" s="147"/>
-      <c r="V17" s="147"/>
-      <c r="W17" s="147"/>
-      <c r="X17" s="147"/>
-      <c r="Y17" s="147"/>
-      <c r="Z17" s="147"/>
-      <c r="AA17" s="147"/>
-      <c r="AB17" s="147"/>
-      <c r="AC17" s="147"/>
-      <c r="AD17" s="147"/>
-      <c r="AE17" s="148"/>
-      <c r="AF17" s="149"/>
-      <c r="AG17" s="150"/>
-      <c r="AH17" s="150"/>
-      <c r="AI17" s="151"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="171"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="156"/>
+      <c r="K17" s="157"/>
+      <c r="L17" s="157"/>
+      <c r="M17" s="157"/>
+      <c r="N17" s="157"/>
+      <c r="O17" s="157"/>
+      <c r="P17" s="158"/>
+      <c r="Q17" s="153"/>
+      <c r="R17" s="154"/>
+      <c r="S17" s="154"/>
+      <c r="T17" s="154"/>
+      <c r="U17" s="154"/>
+      <c r="V17" s="154"/>
+      <c r="W17" s="154"/>
+      <c r="X17" s="154"/>
+      <c r="Y17" s="154"/>
+      <c r="Z17" s="154"/>
+      <c r="AA17" s="154"/>
+      <c r="AB17" s="154"/>
+      <c r="AC17" s="154"/>
+      <c r="AD17" s="154"/>
+      <c r="AE17" s="155"/>
+      <c r="AF17" s="156"/>
+      <c r="AG17" s="157"/>
+      <c r="AH17" s="157"/>
+      <c r="AI17" s="158"/>
     </row>
     <row r="18" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="30"/>
-      <c r="B18" s="152"/>
-      <c r="C18" s="153"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="155"/>
-      <c r="F18" s="156"/>
-      <c r="G18" s="152"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="149"/>
-      <c r="K18" s="150"/>
-      <c r="L18" s="150"/>
-      <c r="M18" s="150"/>
-      <c r="N18" s="150"/>
-      <c r="O18" s="150"/>
-      <c r="P18" s="151"/>
-      <c r="Q18" s="146"/>
-      <c r="R18" s="147"/>
-      <c r="S18" s="147"/>
-      <c r="T18" s="147"/>
-      <c r="U18" s="147"/>
-      <c r="V18" s="147"/>
-      <c r="W18" s="147"/>
-      <c r="X18" s="147"/>
-      <c r="Y18" s="147"/>
-      <c r="Z18" s="147"/>
-      <c r="AA18" s="147"/>
-      <c r="AB18" s="147"/>
-      <c r="AC18" s="147"/>
-      <c r="AD18" s="147"/>
-      <c r="AE18" s="148"/>
-      <c r="AF18" s="149"/>
-      <c r="AG18" s="150"/>
-      <c r="AH18" s="150"/>
-      <c r="AI18" s="151"/>
+      <c r="B18" s="144"/>
+      <c r="C18" s="146"/>
+      <c r="D18" s="171"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="173"/>
+      <c r="G18" s="144"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="156"/>
+      <c r="K18" s="157"/>
+      <c r="L18" s="157"/>
+      <c r="M18" s="157"/>
+      <c r="N18" s="157"/>
+      <c r="O18" s="157"/>
+      <c r="P18" s="158"/>
+      <c r="Q18" s="153"/>
+      <c r="R18" s="154"/>
+      <c r="S18" s="154"/>
+      <c r="T18" s="154"/>
+      <c r="U18" s="154"/>
+      <c r="V18" s="154"/>
+      <c r="W18" s="154"/>
+      <c r="X18" s="154"/>
+      <c r="Y18" s="154"/>
+      <c r="Z18" s="154"/>
+      <c r="AA18" s="154"/>
+      <c r="AB18" s="154"/>
+      <c r="AC18" s="154"/>
+      <c r="AD18" s="154"/>
+      <c r="AE18" s="155"/>
+      <c r="AF18" s="156"/>
+      <c r="AG18" s="157"/>
+      <c r="AH18" s="157"/>
+      <c r="AI18" s="158"/>
     </row>
     <row r="19" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="30"/>
-      <c r="B19" s="152"/>
-      <c r="C19" s="153"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="149"/>
-      <c r="K19" s="150"/>
-      <c r="L19" s="150"/>
-      <c r="M19" s="150"/>
-      <c r="N19" s="150"/>
-      <c r="O19" s="150"/>
-      <c r="P19" s="151"/>
-      <c r="Q19" s="146"/>
-      <c r="R19" s="147"/>
-      <c r="S19" s="147"/>
-      <c r="T19" s="147"/>
-      <c r="U19" s="147"/>
-      <c r="V19" s="147"/>
-      <c r="W19" s="147"/>
-      <c r="X19" s="147"/>
-      <c r="Y19" s="147"/>
-      <c r="Z19" s="147"/>
-      <c r="AA19" s="147"/>
-      <c r="AB19" s="147"/>
-      <c r="AC19" s="147"/>
-      <c r="AD19" s="147"/>
-      <c r="AE19" s="148"/>
-      <c r="AF19" s="149"/>
-      <c r="AG19" s="150"/>
-      <c r="AH19" s="150"/>
-      <c r="AI19" s="151"/>
+      <c r="B19" s="144"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="171"/>
+      <c r="E19" s="172"/>
+      <c r="F19" s="173"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="156"/>
+      <c r="K19" s="157"/>
+      <c r="L19" s="157"/>
+      <c r="M19" s="157"/>
+      <c r="N19" s="157"/>
+      <c r="O19" s="157"/>
+      <c r="P19" s="158"/>
+      <c r="Q19" s="153"/>
+      <c r="R19" s="154"/>
+      <c r="S19" s="154"/>
+      <c r="T19" s="154"/>
+      <c r="U19" s="154"/>
+      <c r="V19" s="154"/>
+      <c r="W19" s="154"/>
+      <c r="X19" s="154"/>
+      <c r="Y19" s="154"/>
+      <c r="Z19" s="154"/>
+      <c r="AA19" s="154"/>
+      <c r="AB19" s="154"/>
+      <c r="AC19" s="154"/>
+      <c r="AD19" s="154"/>
+      <c r="AE19" s="155"/>
+      <c r="AF19" s="156"/>
+      <c r="AG19" s="157"/>
+      <c r="AH19" s="157"/>
+      <c r="AI19" s="158"/>
     </row>
     <row r="20" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="30"/>
-      <c r="B20" s="152"/>
-      <c r="C20" s="153"/>
-      <c r="D20" s="154"/>
-      <c r="E20" s="155"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="152"/>
-      <c r="H20" s="157"/>
-      <c r="I20" s="153"/>
-      <c r="J20" s="149"/>
-      <c r="K20" s="150"/>
-      <c r="L20" s="150"/>
-      <c r="M20" s="150"/>
-      <c r="N20" s="150"/>
-      <c r="O20" s="150"/>
-      <c r="P20" s="151"/>
-      <c r="Q20" s="146"/>
-      <c r="R20" s="147"/>
-      <c r="S20" s="147"/>
-      <c r="T20" s="147"/>
-      <c r="U20" s="147"/>
-      <c r="V20" s="147"/>
-      <c r="W20" s="147"/>
-      <c r="X20" s="147"/>
-      <c r="Y20" s="147"/>
-      <c r="Z20" s="147"/>
-      <c r="AA20" s="147"/>
-      <c r="AB20" s="147"/>
-      <c r="AC20" s="147"/>
-      <c r="AD20" s="147"/>
-      <c r="AE20" s="148"/>
-      <c r="AF20" s="149"/>
-      <c r="AG20" s="150"/>
-      <c r="AH20" s="150"/>
-      <c r="AI20" s="151"/>
+      <c r="B20" s="144"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="171"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="156"/>
+      <c r="K20" s="157"/>
+      <c r="L20" s="157"/>
+      <c r="M20" s="157"/>
+      <c r="N20" s="157"/>
+      <c r="O20" s="157"/>
+      <c r="P20" s="158"/>
+      <c r="Q20" s="153"/>
+      <c r="R20" s="154"/>
+      <c r="S20" s="154"/>
+      <c r="T20" s="154"/>
+      <c r="U20" s="154"/>
+      <c r="V20" s="154"/>
+      <c r="W20" s="154"/>
+      <c r="X20" s="154"/>
+      <c r="Y20" s="154"/>
+      <c r="Z20" s="154"/>
+      <c r="AA20" s="154"/>
+      <c r="AB20" s="154"/>
+      <c r="AC20" s="154"/>
+      <c r="AD20" s="154"/>
+      <c r="AE20" s="155"/>
+      <c r="AF20" s="156"/>
+      <c r="AG20" s="157"/>
+      <c r="AH20" s="157"/>
+      <c r="AI20" s="158"/>
     </row>
     <row r="21" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="30"/>
-      <c r="B21" s="152"/>
-      <c r="C21" s="153"/>
-      <c r="D21" s="154"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="156"/>
-      <c r="G21" s="152"/>
-      <c r="H21" s="157"/>
-      <c r="I21" s="153"/>
-      <c r="J21" s="149"/>
-      <c r="K21" s="150"/>
-      <c r="L21" s="150"/>
-      <c r="M21" s="150"/>
-      <c r="N21" s="150"/>
-      <c r="O21" s="150"/>
-      <c r="P21" s="151"/>
-      <c r="Q21" s="146"/>
-      <c r="R21" s="147"/>
-      <c r="S21" s="147"/>
-      <c r="T21" s="147"/>
-      <c r="U21" s="147"/>
-      <c r="V21" s="147"/>
-      <c r="W21" s="147"/>
-      <c r="X21" s="147"/>
-      <c r="Y21" s="147"/>
-      <c r="Z21" s="147"/>
-      <c r="AA21" s="147"/>
-      <c r="AB21" s="147"/>
-      <c r="AC21" s="147"/>
-      <c r="AD21" s="147"/>
-      <c r="AE21" s="148"/>
-      <c r="AF21" s="149"/>
-      <c r="AG21" s="150"/>
-      <c r="AH21" s="150"/>
-      <c r="AI21" s="151"/>
+      <c r="B21" s="144"/>
+      <c r="C21" s="146"/>
+      <c r="D21" s="171"/>
+      <c r="E21" s="172"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="156"/>
+      <c r="K21" s="157"/>
+      <c r="L21" s="157"/>
+      <c r="M21" s="157"/>
+      <c r="N21" s="157"/>
+      <c r="O21" s="157"/>
+      <c r="P21" s="158"/>
+      <c r="Q21" s="153"/>
+      <c r="R21" s="154"/>
+      <c r="S21" s="154"/>
+      <c r="T21" s="154"/>
+      <c r="U21" s="154"/>
+      <c r="V21" s="154"/>
+      <c r="W21" s="154"/>
+      <c r="X21" s="154"/>
+      <c r="Y21" s="154"/>
+      <c r="Z21" s="154"/>
+      <c r="AA21" s="154"/>
+      <c r="AB21" s="154"/>
+      <c r="AC21" s="154"/>
+      <c r="AD21" s="154"/>
+      <c r="AE21" s="155"/>
+      <c r="AF21" s="156"/>
+      <c r="AG21" s="157"/>
+      <c r="AH21" s="157"/>
+      <c r="AI21" s="158"/>
     </row>
     <row r="22" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="30"/>
-      <c r="B22" s="152"/>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="157"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="149"/>
-      <c r="K22" s="150"/>
-      <c r="L22" s="150"/>
-      <c r="M22" s="150"/>
-      <c r="N22" s="150"/>
-      <c r="O22" s="150"/>
-      <c r="P22" s="151"/>
-      <c r="Q22" s="146"/>
-      <c r="R22" s="147"/>
-      <c r="S22" s="147"/>
-      <c r="T22" s="147"/>
-      <c r="U22" s="147"/>
-      <c r="V22" s="147"/>
-      <c r="W22" s="147"/>
-      <c r="X22" s="147"/>
-      <c r="Y22" s="147"/>
-      <c r="Z22" s="147"/>
-      <c r="AA22" s="147"/>
-      <c r="AB22" s="147"/>
-      <c r="AC22" s="147"/>
-      <c r="AD22" s="147"/>
-      <c r="AE22" s="148"/>
-      <c r="AF22" s="149"/>
-      <c r="AG22" s="150"/>
-      <c r="AH22" s="150"/>
-      <c r="AI22" s="151"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="146"/>
+      <c r="D22" s="171"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="146"/>
+      <c r="J22" s="156"/>
+      <c r="K22" s="157"/>
+      <c r="L22" s="157"/>
+      <c r="M22" s="157"/>
+      <c r="N22" s="157"/>
+      <c r="O22" s="157"/>
+      <c r="P22" s="158"/>
+      <c r="Q22" s="153"/>
+      <c r="R22" s="154"/>
+      <c r="S22" s="154"/>
+      <c r="T22" s="154"/>
+      <c r="U22" s="154"/>
+      <c r="V22" s="154"/>
+      <c r="W22" s="154"/>
+      <c r="X22" s="154"/>
+      <c r="Y22" s="154"/>
+      <c r="Z22" s="154"/>
+      <c r="AA22" s="154"/>
+      <c r="AB22" s="154"/>
+      <c r="AC22" s="154"/>
+      <c r="AD22" s="154"/>
+      <c r="AE22" s="155"/>
+      <c r="AF22" s="156"/>
+      <c r="AG22" s="157"/>
+      <c r="AH22" s="157"/>
+      <c r="AI22" s="158"/>
     </row>
     <row r="23" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="30"/>
-      <c r="B23" s="152"/>
-      <c r="C23" s="153"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="155"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="152"/>
-      <c r="H23" s="157"/>
-      <c r="I23" s="153"/>
-      <c r="J23" s="149"/>
-      <c r="K23" s="150"/>
-      <c r="L23" s="150"/>
-      <c r="M23" s="150"/>
-      <c r="N23" s="150"/>
-      <c r="O23" s="150"/>
-      <c r="P23" s="151"/>
-      <c r="Q23" s="146"/>
-      <c r="R23" s="147"/>
-      <c r="S23" s="147"/>
-      <c r="T23" s="147"/>
-      <c r="U23" s="147"/>
-      <c r="V23" s="147"/>
-      <c r="W23" s="147"/>
-      <c r="X23" s="147"/>
-      <c r="Y23" s="147"/>
-      <c r="Z23" s="147"/>
-      <c r="AA23" s="147"/>
-      <c r="AB23" s="147"/>
-      <c r="AC23" s="147"/>
-      <c r="AD23" s="147"/>
-      <c r="AE23" s="148"/>
-      <c r="AF23" s="149"/>
-      <c r="AG23" s="150"/>
-      <c r="AH23" s="150"/>
-      <c r="AI23" s="151"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="146"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="172"/>
+      <c r="F23" s="173"/>
+      <c r="G23" s="144"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="156"/>
+      <c r="K23" s="157"/>
+      <c r="L23" s="157"/>
+      <c r="M23" s="157"/>
+      <c r="N23" s="157"/>
+      <c r="O23" s="157"/>
+      <c r="P23" s="158"/>
+      <c r="Q23" s="153"/>
+      <c r="R23" s="154"/>
+      <c r="S23" s="154"/>
+      <c r="T23" s="154"/>
+      <c r="U23" s="154"/>
+      <c r="V23" s="154"/>
+      <c r="W23" s="154"/>
+      <c r="X23" s="154"/>
+      <c r="Y23" s="154"/>
+      <c r="Z23" s="154"/>
+      <c r="AA23" s="154"/>
+      <c r="AB23" s="154"/>
+      <c r="AC23" s="154"/>
+      <c r="AD23" s="154"/>
+      <c r="AE23" s="155"/>
+      <c r="AF23" s="156"/>
+      <c r="AG23" s="157"/>
+      <c r="AH23" s="157"/>
+      <c r="AI23" s="158"/>
     </row>
     <row r="24" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="30"/>
-      <c r="B24" s="152"/>
-      <c r="C24" s="153"/>
-      <c r="D24" s="154"/>
-      <c r="E24" s="155"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="152"/>
-      <c r="H24" s="157"/>
-      <c r="I24" s="153"/>
-      <c r="J24" s="149"/>
-      <c r="K24" s="150"/>
-      <c r="L24" s="150"/>
-      <c r="M24" s="150"/>
-      <c r="N24" s="150"/>
-      <c r="O24" s="150"/>
-      <c r="P24" s="151"/>
-      <c r="Q24" s="146"/>
-      <c r="R24" s="147"/>
-      <c r="S24" s="147"/>
-      <c r="T24" s="147"/>
-      <c r="U24" s="147"/>
-      <c r="V24" s="147"/>
-      <c r="W24" s="147"/>
-      <c r="X24" s="147"/>
-      <c r="Y24" s="147"/>
-      <c r="Z24" s="147"/>
-      <c r="AA24" s="147"/>
-      <c r="AB24" s="147"/>
-      <c r="AC24" s="147"/>
-      <c r="AD24" s="147"/>
-      <c r="AE24" s="148"/>
-      <c r="AF24" s="149"/>
-      <c r="AG24" s="150"/>
-      <c r="AH24" s="150"/>
-      <c r="AI24" s="151"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="146"/>
+      <c r="D24" s="171"/>
+      <c r="E24" s="172"/>
+      <c r="F24" s="173"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="156"/>
+      <c r="K24" s="157"/>
+      <c r="L24" s="157"/>
+      <c r="M24" s="157"/>
+      <c r="N24" s="157"/>
+      <c r="O24" s="157"/>
+      <c r="P24" s="158"/>
+      <c r="Q24" s="153"/>
+      <c r="R24" s="154"/>
+      <c r="S24" s="154"/>
+      <c r="T24" s="154"/>
+      <c r="U24" s="154"/>
+      <c r="V24" s="154"/>
+      <c r="W24" s="154"/>
+      <c r="X24" s="154"/>
+      <c r="Y24" s="154"/>
+      <c r="Z24" s="154"/>
+      <c r="AA24" s="154"/>
+      <c r="AB24" s="154"/>
+      <c r="AC24" s="154"/>
+      <c r="AD24" s="154"/>
+      <c r="AE24" s="155"/>
+      <c r="AF24" s="156"/>
+      <c r="AG24" s="157"/>
+      <c r="AH24" s="157"/>
+      <c r="AI24" s="158"/>
     </row>
     <row r="25" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="30"/>
-      <c r="B25" s="152"/>
-      <c r="C25" s="153"/>
-      <c r="D25" s="154"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="152"/>
-      <c r="H25" s="157"/>
-      <c r="I25" s="153"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
-      <c r="N25" s="150"/>
-      <c r="O25" s="150"/>
-      <c r="P25" s="151"/>
-      <c r="Q25" s="146"/>
-      <c r="R25" s="147"/>
-      <c r="S25" s="147"/>
-      <c r="T25" s="147"/>
-      <c r="U25" s="147"/>
-      <c r="V25" s="147"/>
-      <c r="W25" s="147"/>
-      <c r="X25" s="147"/>
-      <c r="Y25" s="147"/>
-      <c r="Z25" s="147"/>
-      <c r="AA25" s="147"/>
-      <c r="AB25" s="147"/>
-      <c r="AC25" s="147"/>
-      <c r="AD25" s="147"/>
-      <c r="AE25" s="148"/>
-      <c r="AF25" s="149"/>
-      <c r="AG25" s="150"/>
-      <c r="AH25" s="150"/>
-      <c r="AI25" s="151"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="146"/>
+      <c r="D25" s="171"/>
+      <c r="E25" s="172"/>
+      <c r="F25" s="173"/>
+      <c r="G25" s="144"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="156"/>
+      <c r="K25" s="157"/>
+      <c r="L25" s="157"/>
+      <c r="M25" s="157"/>
+      <c r="N25" s="157"/>
+      <c r="O25" s="157"/>
+      <c r="P25" s="158"/>
+      <c r="Q25" s="153"/>
+      <c r="R25" s="154"/>
+      <c r="S25" s="154"/>
+      <c r="T25" s="154"/>
+      <c r="U25" s="154"/>
+      <c r="V25" s="154"/>
+      <c r="W25" s="154"/>
+      <c r="X25" s="154"/>
+      <c r="Y25" s="154"/>
+      <c r="Z25" s="154"/>
+      <c r="AA25" s="154"/>
+      <c r="AB25" s="154"/>
+      <c r="AC25" s="154"/>
+      <c r="AD25" s="154"/>
+      <c r="AE25" s="155"/>
+      <c r="AF25" s="156"/>
+      <c r="AG25" s="157"/>
+      <c r="AH25" s="157"/>
+      <c r="AI25" s="158"/>
     </row>
     <row r="26" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="30"/>
-      <c r="B26" s="152"/>
-      <c r="C26" s="153"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="152"/>
-      <c r="H26" s="157"/>
-      <c r="I26" s="153"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
-      <c r="N26" s="150"/>
-      <c r="O26" s="150"/>
-      <c r="P26" s="151"/>
-      <c r="Q26" s="146"/>
-      <c r="R26" s="147"/>
-      <c r="S26" s="147"/>
-      <c r="T26" s="147"/>
-      <c r="U26" s="147"/>
-      <c r="V26" s="147"/>
-      <c r="W26" s="147"/>
-      <c r="X26" s="147"/>
-      <c r="Y26" s="147"/>
-      <c r="Z26" s="147"/>
-      <c r="AA26" s="147"/>
-      <c r="AB26" s="147"/>
-      <c r="AC26" s="147"/>
-      <c r="AD26" s="147"/>
-      <c r="AE26" s="148"/>
-      <c r="AF26" s="149"/>
-      <c r="AG26" s="150"/>
-      <c r="AH26" s="150"/>
-      <c r="AI26" s="151"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="171"/>
+      <c r="E26" s="172"/>
+      <c r="F26" s="173"/>
+      <c r="G26" s="144"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="156"/>
+      <c r="K26" s="157"/>
+      <c r="L26" s="157"/>
+      <c r="M26" s="157"/>
+      <c r="N26" s="157"/>
+      <c r="O26" s="157"/>
+      <c r="P26" s="158"/>
+      <c r="Q26" s="153"/>
+      <c r="R26" s="154"/>
+      <c r="S26" s="154"/>
+      <c r="T26" s="154"/>
+      <c r="U26" s="154"/>
+      <c r="V26" s="154"/>
+      <c r="W26" s="154"/>
+      <c r="X26" s="154"/>
+      <c r="Y26" s="154"/>
+      <c r="Z26" s="154"/>
+      <c r="AA26" s="154"/>
+      <c r="AB26" s="154"/>
+      <c r="AC26" s="154"/>
+      <c r="AD26" s="154"/>
+      <c r="AE26" s="155"/>
+      <c r="AF26" s="156"/>
+      <c r="AG26" s="157"/>
+      <c r="AH26" s="157"/>
+      <c r="AI26" s="158"/>
     </row>
     <row r="27" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
-      <c r="B27" s="152"/>
-      <c r="C27" s="153"/>
-      <c r="D27" s="154"/>
-      <c r="E27" s="155"/>
-      <c r="F27" s="156"/>
-      <c r="G27" s="152"/>
-      <c r="H27" s="157"/>
-      <c r="I27" s="153"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
-      <c r="N27" s="150"/>
-      <c r="O27" s="150"/>
-      <c r="P27" s="151"/>
-      <c r="Q27" s="146"/>
-      <c r="R27" s="147"/>
-      <c r="S27" s="147"/>
-      <c r="T27" s="147"/>
-      <c r="U27" s="147"/>
-      <c r="V27" s="147"/>
-      <c r="W27" s="147"/>
-      <c r="X27" s="147"/>
-      <c r="Y27" s="147"/>
-      <c r="Z27" s="147"/>
-      <c r="AA27" s="147"/>
-      <c r="AB27" s="147"/>
-      <c r="AC27" s="147"/>
-      <c r="AD27" s="147"/>
-      <c r="AE27" s="148"/>
-      <c r="AF27" s="149"/>
-      <c r="AG27" s="150"/>
-      <c r="AH27" s="150"/>
-      <c r="AI27" s="151"/>
+      <c r="B27" s="144"/>
+      <c r="C27" s="146"/>
+      <c r="D27" s="171"/>
+      <c r="E27" s="172"/>
+      <c r="F27" s="173"/>
+      <c r="G27" s="144"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="156"/>
+      <c r="K27" s="157"/>
+      <c r="L27" s="157"/>
+      <c r="M27" s="157"/>
+      <c r="N27" s="157"/>
+      <c r="O27" s="157"/>
+      <c r="P27" s="158"/>
+      <c r="Q27" s="153"/>
+      <c r="R27" s="154"/>
+      <c r="S27" s="154"/>
+      <c r="T27" s="154"/>
+      <c r="U27" s="154"/>
+      <c r="V27" s="154"/>
+      <c r="W27" s="154"/>
+      <c r="X27" s="154"/>
+      <c r="Y27" s="154"/>
+      <c r="Z27" s="154"/>
+      <c r="AA27" s="154"/>
+      <c r="AB27" s="154"/>
+      <c r="AC27" s="154"/>
+      <c r="AD27" s="154"/>
+      <c r="AE27" s="155"/>
+      <c r="AF27" s="156"/>
+      <c r="AG27" s="157"/>
+      <c r="AH27" s="157"/>
+      <c r="AI27" s="158"/>
     </row>
     <row r="28" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="30"/>
-      <c r="B28" s="152"/>
-      <c r="C28" s="153"/>
-      <c r="D28" s="154"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="152"/>
-      <c r="H28" s="157"/>
-      <c r="I28" s="153"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
-      <c r="N28" s="150"/>
-      <c r="O28" s="150"/>
-      <c r="P28" s="151"/>
-      <c r="Q28" s="146"/>
-      <c r="R28" s="147"/>
-      <c r="S28" s="147"/>
-      <c r="T28" s="147"/>
-      <c r="U28" s="147"/>
-      <c r="V28" s="147"/>
-      <c r="W28" s="147"/>
-      <c r="X28" s="147"/>
-      <c r="Y28" s="147"/>
-      <c r="Z28" s="147"/>
-      <c r="AA28" s="147"/>
-      <c r="AB28" s="147"/>
-      <c r="AC28" s="147"/>
-      <c r="AD28" s="147"/>
-      <c r="AE28" s="148"/>
-      <c r="AF28" s="149"/>
-      <c r="AG28" s="150"/>
-      <c r="AH28" s="150"/>
-      <c r="AI28" s="151"/>
+      <c r="B28" s="144"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="171"/>
+      <c r="E28" s="172"/>
+      <c r="F28" s="173"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="157"/>
+      <c r="L28" s="157"/>
+      <c r="M28" s="157"/>
+      <c r="N28" s="157"/>
+      <c r="O28" s="157"/>
+      <c r="P28" s="158"/>
+      <c r="Q28" s="153"/>
+      <c r="R28" s="154"/>
+      <c r="S28" s="154"/>
+      <c r="T28" s="154"/>
+      <c r="U28" s="154"/>
+      <c r="V28" s="154"/>
+      <c r="W28" s="154"/>
+      <c r="X28" s="154"/>
+      <c r="Y28" s="154"/>
+      <c r="Z28" s="154"/>
+      <c r="AA28" s="154"/>
+      <c r="AB28" s="154"/>
+      <c r="AC28" s="154"/>
+      <c r="AD28" s="154"/>
+      <c r="AE28" s="155"/>
+      <c r="AF28" s="156"/>
+      <c r="AG28" s="157"/>
+      <c r="AH28" s="157"/>
+      <c r="AI28" s="158"/>
     </row>
     <row r="29" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
-      <c r="B29" s="152"/>
-      <c r="C29" s="153"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="155"/>
-      <c r="F29" s="156"/>
-      <c r="G29" s="152"/>
-      <c r="H29" s="157"/>
-      <c r="I29" s="153"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
-      <c r="N29" s="150"/>
-      <c r="O29" s="150"/>
-      <c r="P29" s="151"/>
-      <c r="Q29" s="146"/>
-      <c r="R29" s="147"/>
-      <c r="S29" s="147"/>
-      <c r="T29" s="147"/>
-      <c r="U29" s="147"/>
-      <c r="V29" s="147"/>
-      <c r="W29" s="147"/>
-      <c r="X29" s="147"/>
-      <c r="Y29" s="147"/>
-      <c r="Z29" s="147"/>
-      <c r="AA29" s="147"/>
-      <c r="AB29" s="147"/>
-      <c r="AC29" s="147"/>
-      <c r="AD29" s="147"/>
-      <c r="AE29" s="148"/>
-      <c r="AF29" s="149"/>
-      <c r="AG29" s="150"/>
-      <c r="AH29" s="150"/>
-      <c r="AI29" s="151"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="171"/>
+      <c r="E29" s="172"/>
+      <c r="F29" s="173"/>
+      <c r="G29" s="144"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="156"/>
+      <c r="K29" s="157"/>
+      <c r="L29" s="157"/>
+      <c r="M29" s="157"/>
+      <c r="N29" s="157"/>
+      <c r="O29" s="157"/>
+      <c r="P29" s="158"/>
+      <c r="Q29" s="153"/>
+      <c r="R29" s="154"/>
+      <c r="S29" s="154"/>
+      <c r="T29" s="154"/>
+      <c r="U29" s="154"/>
+      <c r="V29" s="154"/>
+      <c r="W29" s="154"/>
+      <c r="X29" s="154"/>
+      <c r="Y29" s="154"/>
+      <c r="Z29" s="154"/>
+      <c r="AA29" s="154"/>
+      <c r="AB29" s="154"/>
+      <c r="AC29" s="154"/>
+      <c r="AD29" s="154"/>
+      <c r="AE29" s="155"/>
+      <c r="AF29" s="156"/>
+      <c r="AG29" s="157"/>
+      <c r="AH29" s="157"/>
+      <c r="AI29" s="158"/>
     </row>
     <row r="30" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
-      <c r="B30" s="152"/>
-      <c r="C30" s="153"/>
-      <c r="D30" s="154"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="152"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="153"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
-      <c r="N30" s="150"/>
-      <c r="O30" s="150"/>
-      <c r="P30" s="151"/>
-      <c r="Q30" s="146"/>
-      <c r="R30" s="147"/>
-      <c r="S30" s="147"/>
-      <c r="T30" s="147"/>
-      <c r="U30" s="147"/>
-      <c r="V30" s="147"/>
-      <c r="W30" s="147"/>
-      <c r="X30" s="147"/>
-      <c r="Y30" s="147"/>
-      <c r="Z30" s="147"/>
-      <c r="AA30" s="147"/>
-      <c r="AB30" s="147"/>
-      <c r="AC30" s="147"/>
-      <c r="AD30" s="147"/>
-      <c r="AE30" s="148"/>
-      <c r="AF30" s="149"/>
-      <c r="AG30" s="150"/>
-      <c r="AH30" s="150"/>
-      <c r="AI30" s="151"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="146"/>
+      <c r="D30" s="171"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="173"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="156"/>
+      <c r="K30" s="157"/>
+      <c r="L30" s="157"/>
+      <c r="M30" s="157"/>
+      <c r="N30" s="157"/>
+      <c r="O30" s="157"/>
+      <c r="P30" s="158"/>
+      <c r="Q30" s="153"/>
+      <c r="R30" s="154"/>
+      <c r="S30" s="154"/>
+      <c r="T30" s="154"/>
+      <c r="U30" s="154"/>
+      <c r="V30" s="154"/>
+      <c r="W30" s="154"/>
+      <c r="X30" s="154"/>
+      <c r="Y30" s="154"/>
+      <c r="Z30" s="154"/>
+      <c r="AA30" s="154"/>
+      <c r="AB30" s="154"/>
+      <c r="AC30" s="154"/>
+      <c r="AD30" s="154"/>
+      <c r="AE30" s="155"/>
+      <c r="AF30" s="156"/>
+      <c r="AG30" s="157"/>
+      <c r="AH30" s="157"/>
+      <c r="AI30" s="158"/>
     </row>
     <row r="31" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="30"/>
-      <c r="B31" s="152"/>
-      <c r="C31" s="153"/>
-      <c r="D31" s="154"/>
-      <c r="E31" s="155"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="152"/>
-      <c r="H31" s="157"/>
-      <c r="I31" s="153"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
-      <c r="N31" s="150"/>
-      <c r="O31" s="150"/>
-      <c r="P31" s="151"/>
-      <c r="Q31" s="146"/>
-      <c r="R31" s="147"/>
-      <c r="S31" s="147"/>
-      <c r="T31" s="147"/>
-      <c r="U31" s="147"/>
-      <c r="V31" s="147"/>
-      <c r="W31" s="147"/>
-      <c r="X31" s="147"/>
-      <c r="Y31" s="147"/>
-      <c r="Z31" s="147"/>
-      <c r="AA31" s="147"/>
-      <c r="AB31" s="147"/>
-      <c r="AC31" s="147"/>
-      <c r="AD31" s="147"/>
-      <c r="AE31" s="148"/>
-      <c r="AF31" s="149"/>
-      <c r="AG31" s="150"/>
-      <c r="AH31" s="150"/>
-      <c r="AI31" s="151"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="146"/>
+      <c r="D31" s="171"/>
+      <c r="E31" s="172"/>
+      <c r="F31" s="173"/>
+      <c r="G31" s="144"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="156"/>
+      <c r="K31" s="157"/>
+      <c r="L31" s="157"/>
+      <c r="M31" s="157"/>
+      <c r="N31" s="157"/>
+      <c r="O31" s="157"/>
+      <c r="P31" s="158"/>
+      <c r="Q31" s="153"/>
+      <c r="R31" s="154"/>
+      <c r="S31" s="154"/>
+      <c r="T31" s="154"/>
+      <c r="U31" s="154"/>
+      <c r="V31" s="154"/>
+      <c r="W31" s="154"/>
+      <c r="X31" s="154"/>
+      <c r="Y31" s="154"/>
+      <c r="Z31" s="154"/>
+      <c r="AA31" s="154"/>
+      <c r="AB31" s="154"/>
+      <c r="AC31" s="154"/>
+      <c r="AD31" s="154"/>
+      <c r="AE31" s="155"/>
+      <c r="AF31" s="156"/>
+      <c r="AG31" s="157"/>
+      <c r="AH31" s="157"/>
+      <c r="AI31" s="158"/>
     </row>
     <row r="32" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="30"/>
-      <c r="B32" s="152"/>
-      <c r="C32" s="153"/>
-      <c r="D32" s="154"/>
-      <c r="E32" s="155"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="152"/>
-      <c r="H32" s="157"/>
-      <c r="I32" s="153"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
-      <c r="N32" s="150"/>
-      <c r="O32" s="150"/>
-      <c r="P32" s="151"/>
-      <c r="Q32" s="146"/>
-      <c r="R32" s="147"/>
-      <c r="S32" s="147"/>
-      <c r="T32" s="147"/>
-      <c r="U32" s="147"/>
-      <c r="V32" s="147"/>
-      <c r="W32" s="147"/>
-      <c r="X32" s="147"/>
-      <c r="Y32" s="147"/>
-      <c r="Z32" s="147"/>
-      <c r="AA32" s="147"/>
-      <c r="AB32" s="147"/>
-      <c r="AC32" s="147"/>
-      <c r="AD32" s="147"/>
-      <c r="AE32" s="148"/>
-      <c r="AF32" s="149"/>
-      <c r="AG32" s="150"/>
-      <c r="AH32" s="150"/>
-      <c r="AI32" s="151"/>
+      <c r="B32" s="144"/>
+      <c r="C32" s="146"/>
+      <c r="D32" s="171"/>
+      <c r="E32" s="172"/>
+      <c r="F32" s="173"/>
+      <c r="G32" s="144"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="156"/>
+      <c r="K32" s="157"/>
+      <c r="L32" s="157"/>
+      <c r="M32" s="157"/>
+      <c r="N32" s="157"/>
+      <c r="O32" s="157"/>
+      <c r="P32" s="158"/>
+      <c r="Q32" s="153"/>
+      <c r="R32" s="154"/>
+      <c r="S32" s="154"/>
+      <c r="T32" s="154"/>
+      <c r="U32" s="154"/>
+      <c r="V32" s="154"/>
+      <c r="W32" s="154"/>
+      <c r="X32" s="154"/>
+      <c r="Y32" s="154"/>
+      <c r="Z32" s="154"/>
+      <c r="AA32" s="154"/>
+      <c r="AB32" s="154"/>
+      <c r="AC32" s="154"/>
+      <c r="AD32" s="154"/>
+      <c r="AE32" s="155"/>
+      <c r="AF32" s="156"/>
+      <c r="AG32" s="157"/>
+      <c r="AH32" s="157"/>
+      <c r="AI32" s="158"/>
     </row>
     <row r="33" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="30"/>
-      <c r="B33" s="152"/>
-      <c r="C33" s="153"/>
-      <c r="D33" s="154"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="152"/>
-      <c r="H33" s="157"/>
-      <c r="I33" s="153"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
-      <c r="N33" s="150"/>
-      <c r="O33" s="150"/>
-      <c r="P33" s="151"/>
-      <c r="Q33" s="146"/>
-      <c r="R33" s="147"/>
-      <c r="S33" s="147"/>
-      <c r="T33" s="147"/>
-      <c r="U33" s="147"/>
-      <c r="V33" s="147"/>
-      <c r="W33" s="147"/>
-      <c r="X33" s="147"/>
-      <c r="Y33" s="147"/>
-      <c r="Z33" s="147"/>
-      <c r="AA33" s="147"/>
-      <c r="AB33" s="147"/>
-      <c r="AC33" s="147"/>
-      <c r="AD33" s="147"/>
-      <c r="AE33" s="148"/>
-      <c r="AF33" s="149"/>
-      <c r="AG33" s="150"/>
-      <c r="AH33" s="150"/>
-      <c r="AI33" s="151"/>
+      <c r="B33" s="144"/>
+      <c r="C33" s="146"/>
+      <c r="D33" s="171"/>
+      <c r="E33" s="172"/>
+      <c r="F33" s="173"/>
+      <c r="G33" s="144"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="146"/>
+      <c r="J33" s="156"/>
+      <c r="K33" s="157"/>
+      <c r="L33" s="157"/>
+      <c r="M33" s="157"/>
+      <c r="N33" s="157"/>
+      <c r="O33" s="157"/>
+      <c r="P33" s="158"/>
+      <c r="Q33" s="153"/>
+      <c r="R33" s="154"/>
+      <c r="S33" s="154"/>
+      <c r="T33" s="154"/>
+      <c r="U33" s="154"/>
+      <c r="V33" s="154"/>
+      <c r="W33" s="154"/>
+      <c r="X33" s="154"/>
+      <c r="Y33" s="154"/>
+      <c r="Z33" s="154"/>
+      <c r="AA33" s="154"/>
+      <c r="AB33" s="154"/>
+      <c r="AC33" s="154"/>
+      <c r="AD33" s="154"/>
+      <c r="AE33" s="155"/>
+      <c r="AF33" s="156"/>
+      <c r="AG33" s="157"/>
+      <c r="AH33" s="157"/>
+      <c r="AI33" s="158"/>
     </row>
     <row r="34" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="26"/>
@@ -4956,161 +4962,6 @@
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -5135,6 +4986,161 @@
     <mergeCell ref="AF22:AI22"/>
     <mergeCell ref="J23:P23"/>
     <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <printOptions horizontalCentered="1"/>
@@ -5290,158 +5296,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="215" t="str">
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="200" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="216"/>
-      <c r="G1" s="216"/>
-      <c r="H1" s="216"/>
-      <c r="I1" s="216"/>
-      <c r="J1" s="216"/>
-      <c r="K1" s="216"/>
-      <c r="L1" s="216"/>
-      <c r="M1" s="216"/>
-      <c r="N1" s="217"/>
-      <c r="O1" s="197" t="s">
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="201"/>
+      <c r="J1" s="201"/>
+      <c r="K1" s="201"/>
+      <c r="L1" s="201"/>
+      <c r="M1" s="201"/>
+      <c r="N1" s="202"/>
+      <c r="O1" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="199"/>
-      <c r="S1" s="206" t="str">
+      <c r="P1" s="207"/>
+      <c r="Q1" s="207"/>
+      <c r="R1" s="208"/>
+      <c r="S1" s="215" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10104/汎用エラー</v>
       </c>
-      <c r="T1" s="207"/>
-      <c r="U1" s="207"/>
-      <c r="V1" s="207"/>
-      <c r="W1" s="207"/>
-      <c r="X1" s="207"/>
-      <c r="Y1" s="207"/>
-      <c r="Z1" s="208"/>
-      <c r="AA1" s="194" t="s">
+      <c r="T1" s="216"/>
+      <c r="U1" s="216"/>
+      <c r="V1" s="216"/>
+      <c r="W1" s="216"/>
+      <c r="X1" s="216"/>
+      <c r="Y1" s="216"/>
+      <c r="Z1" s="217"/>
+      <c r="AA1" s="203" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="196"/>
-      <c r="AC1" s="218" t="str">
+      <c r="AB1" s="205"/>
+      <c r="AC1" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="219"/>
-      <c r="AE1" s="219"/>
-      <c r="AF1" s="220"/>
-      <c r="AG1" s="221">
+      <c r="AD1" s="195"/>
+      <c r="AE1" s="195"/>
+      <c r="AF1" s="196"/>
+      <c r="AG1" s="197">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="222"/>
-      <c r="AI1" s="223"/>
+      <c r="AH1" s="198"/>
+      <c r="AI1" s="199"/>
     </row>
     <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="194" t="s">
+      <c r="A2" s="203" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="195"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="215" t="str">
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="200" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="216"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="216"/>
-      <c r="I2" s="216"/>
-      <c r="J2" s="216"/>
-      <c r="K2" s="216"/>
-      <c r="L2" s="216"/>
-      <c r="M2" s="216"/>
-      <c r="N2" s="217"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="209"/>
-      <c r="T2" s="210"/>
-      <c r="U2" s="210"/>
-      <c r="V2" s="210"/>
-      <c r="W2" s="210"/>
-      <c r="X2" s="210"/>
-      <c r="Y2" s="210"/>
-      <c r="Z2" s="211"/>
-      <c r="AA2" s="194" t="s">
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="202"/>
+      <c r="O2" s="209"/>
+      <c r="P2" s="210"/>
+      <c r="Q2" s="210"/>
+      <c r="R2" s="211"/>
+      <c r="S2" s="218"/>
+      <c r="T2" s="219"/>
+      <c r="U2" s="219"/>
+      <c r="V2" s="219"/>
+      <c r="W2" s="219"/>
+      <c r="X2" s="219"/>
+      <c r="Y2" s="219"/>
+      <c r="Z2" s="220"/>
+      <c r="AA2" s="203" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="196"/>
-      <c r="AC2" s="218" t="str">
+      <c r="AB2" s="205"/>
+      <c r="AC2" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="219"/>
-      <c r="AE2" s="219"/>
-      <c r="AF2" s="220"/>
-      <c r="AG2" s="221" t="str">
+      <c r="AD2" s="195"/>
+      <c r="AE2" s="195"/>
+      <c r="AF2" s="196"/>
+      <c r="AG2" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="222"/>
-      <c r="AI2" s="223"/>
+      <c r="AH2" s="198"/>
+      <c r="AI2" s="199"/>
     </row>
     <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="203" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="195"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="215" t="str">
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="200" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="216"/>
-      <c r="G3" s="216"/>
-      <c r="H3" s="216"/>
-      <c r="I3" s="216"/>
-      <c r="J3" s="216"/>
-      <c r="K3" s="216"/>
-      <c r="L3" s="216"/>
-      <c r="M3" s="216"/>
-      <c r="N3" s="217"/>
-      <c r="O3" s="203"/>
-      <c r="P3" s="204"/>
-      <c r="Q3" s="204"/>
-      <c r="R3" s="205"/>
-      <c r="S3" s="212"/>
-      <c r="T3" s="213"/>
-      <c r="U3" s="213"/>
-      <c r="V3" s="213"/>
-      <c r="W3" s="213"/>
-      <c r="X3" s="213"/>
-      <c r="Y3" s="213"/>
-      <c r="Z3" s="214"/>
-      <c r="AA3" s="194"/>
-      <c r="AB3" s="196"/>
-      <c r="AC3" s="218" t="str">
+      <c r="F3" s="201"/>
+      <c r="G3" s="201"/>
+      <c r="H3" s="201"/>
+      <c r="I3" s="201"/>
+      <c r="J3" s="201"/>
+      <c r="K3" s="201"/>
+      <c r="L3" s="201"/>
+      <c r="M3" s="201"/>
+      <c r="N3" s="202"/>
+      <c r="O3" s="212"/>
+      <c r="P3" s="213"/>
+      <c r="Q3" s="213"/>
+      <c r="R3" s="214"/>
+      <c r="S3" s="221"/>
+      <c r="T3" s="222"/>
+      <c r="U3" s="222"/>
+      <c r="V3" s="222"/>
+      <c r="W3" s="222"/>
+      <c r="X3" s="222"/>
+      <c r="Y3" s="222"/>
+      <c r="Z3" s="223"/>
+      <c r="AA3" s="203"/>
+      <c r="AB3" s="205"/>
+      <c r="AC3" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="219"/>
-      <c r="AE3" s="219"/>
-      <c r="AF3" s="220"/>
-      <c r="AG3" s="221" t="str">
+      <c r="AD3" s="195"/>
+      <c r="AE3" s="195"/>
+      <c r="AF3" s="196"/>
+      <c r="AG3" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="222"/>
-      <c r="AI3" s="223"/>
+      <c r="AH3" s="198"/>
+      <c r="AI3" s="199"/>
     </row>
     <row r="4" spans="1:35" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
@@ -6323,14 +6329,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -6340,6 +6338,14 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -6365,158 +6371,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="203" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="215" t="str">
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="200" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="216"/>
-      <c r="G1" s="216"/>
-      <c r="H1" s="216"/>
-      <c r="I1" s="216"/>
-      <c r="J1" s="216"/>
-      <c r="K1" s="216"/>
-      <c r="L1" s="216"/>
-      <c r="M1" s="216"/>
-      <c r="N1" s="217"/>
-      <c r="O1" s="197" t="s">
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="201"/>
+      <c r="J1" s="201"/>
+      <c r="K1" s="201"/>
+      <c r="L1" s="201"/>
+      <c r="M1" s="201"/>
+      <c r="N1" s="202"/>
+      <c r="O1" s="206" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="199"/>
-      <c r="S1" s="206" t="str">
+      <c r="P1" s="207"/>
+      <c r="Q1" s="207"/>
+      <c r="R1" s="208"/>
+      <c r="S1" s="215" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10104/汎用エラー</v>
       </c>
-      <c r="T1" s="207"/>
-      <c r="U1" s="207"/>
-      <c r="V1" s="207"/>
-      <c r="W1" s="207"/>
-      <c r="X1" s="207"/>
-      <c r="Y1" s="207"/>
-      <c r="Z1" s="208"/>
-      <c r="AA1" s="194" t="s">
+      <c r="T1" s="216"/>
+      <c r="U1" s="216"/>
+      <c r="V1" s="216"/>
+      <c r="W1" s="216"/>
+      <c r="X1" s="216"/>
+      <c r="Y1" s="216"/>
+      <c r="Z1" s="217"/>
+      <c r="AA1" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="196"/>
-      <c r="AC1" s="218" t="str">
+      <c r="AB1" s="205"/>
+      <c r="AC1" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="219"/>
-      <c r="AE1" s="219"/>
-      <c r="AF1" s="220"/>
-      <c r="AG1" s="221">
+      <c r="AD1" s="195"/>
+      <c r="AE1" s="195"/>
+      <c r="AF1" s="196"/>
+      <c r="AG1" s="197">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="222"/>
-      <c r="AI1" s="223"/>
+      <c r="AH1" s="198"/>
+      <c r="AI1" s="199"/>
     </row>
     <row r="2" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="194" t="s">
+      <c r="A2" s="203" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="195"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="215" t="str">
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="200" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="216"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="216"/>
-      <c r="I2" s="216"/>
-      <c r="J2" s="216"/>
-      <c r="K2" s="216"/>
-      <c r="L2" s="216"/>
-      <c r="M2" s="216"/>
-      <c r="N2" s="217"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="209"/>
-      <c r="T2" s="210"/>
-      <c r="U2" s="210"/>
-      <c r="V2" s="210"/>
-      <c r="W2" s="210"/>
-      <c r="X2" s="210"/>
-      <c r="Y2" s="210"/>
-      <c r="Z2" s="211"/>
-      <c r="AA2" s="194" t="s">
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="202"/>
+      <c r="O2" s="209"/>
+      <c r="P2" s="210"/>
+      <c r="Q2" s="210"/>
+      <c r="R2" s="211"/>
+      <c r="S2" s="218"/>
+      <c r="T2" s="219"/>
+      <c r="U2" s="219"/>
+      <c r="V2" s="219"/>
+      <c r="W2" s="219"/>
+      <c r="X2" s="219"/>
+      <c r="Y2" s="219"/>
+      <c r="Z2" s="220"/>
+      <c r="AA2" s="203" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="196"/>
-      <c r="AC2" s="218" t="str">
+      <c r="AB2" s="205"/>
+      <c r="AC2" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="219"/>
-      <c r="AE2" s="219"/>
-      <c r="AF2" s="220"/>
-      <c r="AG2" s="221" t="str">
+      <c r="AD2" s="195"/>
+      <c r="AE2" s="195"/>
+      <c r="AF2" s="196"/>
+      <c r="AG2" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="222"/>
-      <c r="AI2" s="223"/>
+      <c r="AH2" s="198"/>
+      <c r="AI2" s="199"/>
     </row>
     <row r="3" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="203" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="195"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="215" t="str">
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="200" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="216"/>
-      <c r="G3" s="216"/>
-      <c r="H3" s="216"/>
-      <c r="I3" s="216"/>
-      <c r="J3" s="216"/>
-      <c r="K3" s="216"/>
-      <c r="L3" s="216"/>
-      <c r="M3" s="216"/>
-      <c r="N3" s="217"/>
-      <c r="O3" s="203"/>
-      <c r="P3" s="204"/>
-      <c r="Q3" s="204"/>
-      <c r="R3" s="205"/>
-      <c r="S3" s="212"/>
-      <c r="T3" s="213"/>
-      <c r="U3" s="213"/>
-      <c r="V3" s="213"/>
-      <c r="W3" s="213"/>
-      <c r="X3" s="213"/>
-      <c r="Y3" s="213"/>
-      <c r="Z3" s="214"/>
-      <c r="AA3" s="194"/>
-      <c r="AB3" s="196"/>
-      <c r="AC3" s="218" t="str">
+      <c r="F3" s="201"/>
+      <c r="G3" s="201"/>
+      <c r="H3" s="201"/>
+      <c r="I3" s="201"/>
+      <c r="J3" s="201"/>
+      <c r="K3" s="201"/>
+      <c r="L3" s="201"/>
+      <c r="M3" s="201"/>
+      <c r="N3" s="202"/>
+      <c r="O3" s="212"/>
+      <c r="P3" s="213"/>
+      <c r="Q3" s="213"/>
+      <c r="R3" s="214"/>
+      <c r="S3" s="221"/>
+      <c r="T3" s="222"/>
+      <c r="U3" s="222"/>
+      <c r="V3" s="222"/>
+      <c r="W3" s="222"/>
+      <c r="X3" s="222"/>
+      <c r="Y3" s="222"/>
+      <c r="Z3" s="223"/>
+      <c r="AA3" s="203"/>
+      <c r="AB3" s="205"/>
+      <c r="AC3" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="219"/>
-      <c r="AE3" s="219"/>
-      <c r="AF3" s="220"/>
-      <c r="AG3" s="221" t="str">
+      <c r="AD3" s="195"/>
+      <c r="AE3" s="195"/>
+      <c r="AF3" s="196"/>
+      <c r="AG3" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="222"/>
-      <c r="AI3" s="223"/>
+      <c r="AH3" s="198"/>
+      <c r="AI3" s="199"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -6824,18 +6830,6 @@
     <row r="52" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C10:F13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:AG8"/>
-    <mergeCell ref="G9:AG9"/>
-    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -6847,6 +6841,18 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C10:F13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:AG8"/>
+    <mergeCell ref="G9:AG9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -6877,160 +6883,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="271" t="s">
+      <c r="A1" s="279" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="272"/>
-      <c r="C1" s="272"/>
-      <c r="D1" s="273"/>
-      <c r="E1" s="215" t="str">
+      <c r="B1" s="280"/>
+      <c r="C1" s="280"/>
+      <c r="D1" s="281"/>
+      <c r="E1" s="200" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="216"/>
-      <c r="G1" s="216"/>
-      <c r="H1" s="216"/>
-      <c r="I1" s="216"/>
-      <c r="J1" s="216"/>
-      <c r="K1" s="216"/>
-      <c r="L1" s="216"/>
-      <c r="M1" s="216"/>
-      <c r="N1" s="217"/>
-      <c r="O1" s="197" t="s">
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="201"/>
+      <c r="J1" s="201"/>
+      <c r="K1" s="201"/>
+      <c r="L1" s="201"/>
+      <c r="M1" s="201"/>
+      <c r="N1" s="202"/>
+      <c r="O1" s="206" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="199"/>
-      <c r="S1" s="206" t="str">
+      <c r="P1" s="207"/>
+      <c r="Q1" s="207"/>
+      <c r="R1" s="208"/>
+      <c r="S1" s="215" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10104/汎用エラー</v>
       </c>
-      <c r="T1" s="207"/>
-      <c r="U1" s="207"/>
-      <c r="V1" s="207"/>
-      <c r="W1" s="207"/>
-      <c r="X1" s="207"/>
-      <c r="Y1" s="207"/>
-      <c r="Z1" s="208"/>
-      <c r="AA1" s="194" t="s">
+      <c r="T1" s="216"/>
+      <c r="U1" s="216"/>
+      <c r="V1" s="216"/>
+      <c r="W1" s="216"/>
+      <c r="X1" s="216"/>
+      <c r="Y1" s="216"/>
+      <c r="Z1" s="217"/>
+      <c r="AA1" s="203" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="196"/>
-      <c r="AC1" s="218" t="str">
+      <c r="AB1" s="205"/>
+      <c r="AC1" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="219"/>
-      <c r="AE1" s="219"/>
-      <c r="AF1" s="220"/>
-      <c r="AG1" s="268">
+      <c r="AD1" s="195"/>
+      <c r="AE1" s="195"/>
+      <c r="AF1" s="196"/>
+      <c r="AG1" s="276">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="269"/>
-      <c r="AI1" s="270"/>
+      <c r="AH1" s="277"/>
+      <c r="AI1" s="278"/>
       <c r="AJ1" s="94"/>
     </row>
     <row r="2" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="271" t="s">
+      <c r="A2" s="279" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="272"/>
-      <c r="C2" s="272"/>
-      <c r="D2" s="273"/>
-      <c r="E2" s="215" t="str">
+      <c r="B2" s="280"/>
+      <c r="C2" s="280"/>
+      <c r="D2" s="281"/>
+      <c r="E2" s="200" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="216"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="216"/>
-      <c r="I2" s="216"/>
-      <c r="J2" s="216"/>
-      <c r="K2" s="216"/>
-      <c r="L2" s="216"/>
-      <c r="M2" s="216"/>
-      <c r="N2" s="217"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="209"/>
-      <c r="T2" s="210"/>
-      <c r="U2" s="210"/>
-      <c r="V2" s="210"/>
-      <c r="W2" s="210"/>
-      <c r="X2" s="210"/>
-      <c r="Y2" s="210"/>
-      <c r="Z2" s="211"/>
-      <c r="AA2" s="194" t="s">
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="202"/>
+      <c r="O2" s="209"/>
+      <c r="P2" s="210"/>
+      <c r="Q2" s="210"/>
+      <c r="R2" s="211"/>
+      <c r="S2" s="218"/>
+      <c r="T2" s="219"/>
+      <c r="U2" s="219"/>
+      <c r="V2" s="219"/>
+      <c r="W2" s="219"/>
+      <c r="X2" s="219"/>
+      <c r="Y2" s="219"/>
+      <c r="Z2" s="220"/>
+      <c r="AA2" s="203" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="196"/>
-      <c r="AC2" s="218" t="str">
+      <c r="AB2" s="205"/>
+      <c r="AC2" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="219"/>
-      <c r="AE2" s="219"/>
-      <c r="AF2" s="220"/>
-      <c r="AG2" s="268" t="str">
+      <c r="AD2" s="195"/>
+      <c r="AE2" s="195"/>
+      <c r="AF2" s="196"/>
+      <c r="AG2" s="276" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="269"/>
-      <c r="AI2" s="270"/>
+      <c r="AH2" s="277"/>
+      <c r="AI2" s="278"/>
       <c r="AJ2" s="94"/>
     </row>
     <row r="3" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="271" t="s">
+      <c r="A3" s="279" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="272"/>
-      <c r="C3" s="272"/>
-      <c r="D3" s="273"/>
-      <c r="E3" s="215" t="str">
+      <c r="B3" s="280"/>
+      <c r="C3" s="280"/>
+      <c r="D3" s="281"/>
+      <c r="E3" s="200" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="216"/>
-      <c r="G3" s="216"/>
-      <c r="H3" s="216"/>
-      <c r="I3" s="216"/>
-      <c r="J3" s="216"/>
-      <c r="K3" s="216"/>
-      <c r="L3" s="216"/>
-      <c r="M3" s="216"/>
-      <c r="N3" s="217"/>
-      <c r="O3" s="203"/>
-      <c r="P3" s="204"/>
-      <c r="Q3" s="204"/>
-      <c r="R3" s="205"/>
-      <c r="S3" s="212"/>
-      <c r="T3" s="213"/>
-      <c r="U3" s="213"/>
-      <c r="V3" s="213"/>
-      <c r="W3" s="213"/>
-      <c r="X3" s="213"/>
-      <c r="Y3" s="213"/>
-      <c r="Z3" s="214"/>
-      <c r="AA3" s="194"/>
-      <c r="AB3" s="196"/>
-      <c r="AC3" s="218" t="str">
+      <c r="F3" s="201"/>
+      <c r="G3" s="201"/>
+      <c r="H3" s="201"/>
+      <c r="I3" s="201"/>
+      <c r="J3" s="201"/>
+      <c r="K3" s="201"/>
+      <c r="L3" s="201"/>
+      <c r="M3" s="201"/>
+      <c r="N3" s="202"/>
+      <c r="O3" s="212"/>
+      <c r="P3" s="213"/>
+      <c r="Q3" s="213"/>
+      <c r="R3" s="214"/>
+      <c r="S3" s="221"/>
+      <c r="T3" s="222"/>
+      <c r="U3" s="222"/>
+      <c r="V3" s="222"/>
+      <c r="W3" s="222"/>
+      <c r="X3" s="222"/>
+      <c r="Y3" s="222"/>
+      <c r="Z3" s="223"/>
+      <c r="AA3" s="203"/>
+      <c r="AB3" s="205"/>
+      <c r="AC3" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="219"/>
-      <c r="AE3" s="219"/>
-      <c r="AF3" s="220"/>
-      <c r="AG3" s="268" t="str">
+      <c r="AD3" s="195"/>
+      <c r="AE3" s="195"/>
+      <c r="AF3" s="196"/>
+      <c r="AG3" s="276" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="269"/>
-      <c r="AI3" s="270"/>
+      <c r="AH3" s="277"/>
+      <c r="AI3" s="278"/>
       <c r="AJ3" s="94"/>
     </row>
     <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7182,39 +7188,39 @@
       <c r="D43" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="267" t="s">
+      <c r="E43" s="285" t="s">
         <v>54</v>
       </c>
-      <c r="F43" s="267"/>
-      <c r="G43" s="267"/>
-      <c r="H43" s="267"/>
-      <c r="I43" s="267"/>
-      <c r="J43" s="267"/>
-      <c r="K43" s="267"/>
-      <c r="L43" s="267"/>
-      <c r="M43" s="267"/>
-      <c r="N43" s="267" t="s">
+      <c r="F43" s="285"/>
+      <c r="G43" s="285"/>
+      <c r="H43" s="285"/>
+      <c r="I43" s="285"/>
+      <c r="J43" s="285"/>
+      <c r="K43" s="285"/>
+      <c r="L43" s="285"/>
+      <c r="M43" s="285"/>
+      <c r="N43" s="285" t="s">
         <v>55</v>
       </c>
-      <c r="O43" s="267"/>
-      <c r="P43" s="267"/>
-      <c r="Q43" s="267" t="s">
+      <c r="O43" s="285"/>
+      <c r="P43" s="285"/>
+      <c r="Q43" s="285" t="s">
         <v>56</v>
       </c>
-      <c r="R43" s="267"/>
-      <c r="S43" s="267"/>
-      <c r="T43" s="267"/>
-      <c r="U43" s="267"/>
-      <c r="V43" s="267" t="s">
+      <c r="R43" s="285"/>
+      <c r="S43" s="285"/>
+      <c r="T43" s="285"/>
+      <c r="U43" s="285"/>
+      <c r="V43" s="285" t="s">
         <v>57</v>
       </c>
-      <c r="W43" s="267"/>
-      <c r="X43" s="267"/>
-      <c r="Y43" s="267"/>
-      <c r="Z43" s="267"/>
-      <c r="AA43" s="267"/>
-      <c r="AB43" s="267"/>
-      <c r="AC43" s="267"/>
+      <c r="W43" s="285"/>
+      <c r="X43" s="285"/>
+      <c r="Y43" s="285"/>
+      <c r="Z43" s="285"/>
+      <c r="AA43" s="285"/>
+      <c r="AB43" s="285"/>
+      <c r="AC43" s="285"/>
       <c r="AD43" s="96"/>
       <c r="AE43" s="96"/>
       <c r="AF43" s="96"/>
@@ -7225,39 +7231,39 @@
       <c r="D44" s="98">
         <v>1</v>
       </c>
-      <c r="E44" s="259" t="s">
+      <c r="E44" s="300" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="259"/>
-      <c r="G44" s="259"/>
-      <c r="H44" s="259"/>
-      <c r="I44" s="259"/>
-      <c r="J44" s="259"/>
-      <c r="K44" s="259"/>
-      <c r="L44" s="259"/>
-      <c r="M44" s="259"/>
-      <c r="N44" s="259" t="s">
+      <c r="F44" s="300"/>
+      <c r="G44" s="300"/>
+      <c r="H44" s="300"/>
+      <c r="I44" s="300"/>
+      <c r="J44" s="300"/>
+      <c r="K44" s="300"/>
+      <c r="L44" s="300"/>
+      <c r="M44" s="300"/>
+      <c r="N44" s="300" t="s">
         <v>39</v>
       </c>
-      <c r="O44" s="259"/>
-      <c r="P44" s="259"/>
-      <c r="Q44" s="251" t="s">
+      <c r="O44" s="300"/>
+      <c r="P44" s="300"/>
+      <c r="Q44" s="295" t="s">
         <v>39</v>
       </c>
-      <c r="R44" s="251"/>
-      <c r="S44" s="251"/>
-      <c r="T44" s="251"/>
-      <c r="U44" s="251"/>
-      <c r="V44" s="251" t="s">
+      <c r="R44" s="295"/>
+      <c r="S44" s="295"/>
+      <c r="T44" s="295"/>
+      <c r="U44" s="295"/>
+      <c r="V44" s="295" t="s">
         <v>39</v>
       </c>
-      <c r="W44" s="251"/>
-      <c r="X44" s="251"/>
-      <c r="Y44" s="251"/>
-      <c r="Z44" s="251"/>
-      <c r="AA44" s="251"/>
-      <c r="AB44" s="251"/>
-      <c r="AC44" s="251"/>
+      <c r="W44" s="295"/>
+      <c r="X44" s="295"/>
+      <c r="Y44" s="295"/>
+      <c r="Z44" s="295"/>
+      <c r="AA44" s="295"/>
+      <c r="AB44" s="295"/>
+      <c r="AC44" s="295"/>
       <c r="AM44" s="40"/>
     </row>
     <row r="45" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7334,36 +7340,36 @@
       <c r="AZ48" s="49"/>
     </row>
     <row r="49" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D49" s="242" t="s">
+      <c r="D49" s="286" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="256" t="s">
+      <c r="E49" s="270" t="s">
         <v>58</v>
       </c>
-      <c r="F49" s="257"/>
-      <c r="G49" s="257"/>
-      <c r="H49" s="257"/>
-      <c r="I49" s="257"/>
-      <c r="J49" s="257"/>
-      <c r="K49" s="257"/>
-      <c r="L49" s="257"/>
-      <c r="M49" s="257"/>
-      <c r="N49" s="257"/>
-      <c r="O49" s="257"/>
-      <c r="P49" s="257"/>
-      <c r="Q49" s="257"/>
-      <c r="R49" s="257"/>
-      <c r="S49" s="257"/>
-      <c r="T49" s="257"/>
-      <c r="U49" s="257"/>
-      <c r="V49" s="257"/>
-      <c r="W49" s="257"/>
-      <c r="X49" s="257"/>
-      <c r="Y49" s="257"/>
-      <c r="Z49" s="257"/>
-      <c r="AA49" s="257"/>
-      <c r="AB49" s="257"/>
-      <c r="AC49" s="258"/>
+      <c r="F49" s="271"/>
+      <c r="G49" s="271"/>
+      <c r="H49" s="271"/>
+      <c r="I49" s="271"/>
+      <c r="J49" s="271"/>
+      <c r="K49" s="271"/>
+      <c r="L49" s="271"/>
+      <c r="M49" s="271"/>
+      <c r="N49" s="271"/>
+      <c r="O49" s="271"/>
+      <c r="P49" s="271"/>
+      <c r="Q49" s="271"/>
+      <c r="R49" s="271"/>
+      <c r="S49" s="271"/>
+      <c r="T49" s="271"/>
+      <c r="U49" s="271"/>
+      <c r="V49" s="271"/>
+      <c r="W49" s="271"/>
+      <c r="X49" s="271"/>
+      <c r="Y49" s="271"/>
+      <c r="Z49" s="271"/>
+      <c r="AA49" s="271"/>
+      <c r="AB49" s="271"/>
+      <c r="AC49" s="272"/>
       <c r="AD49" s="225" t="s">
         <v>59</v>
       </c>
@@ -7382,29 +7388,29 @@
       <c r="AQ49" s="81"/>
     </row>
     <row r="50" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D50" s="243"/>
+      <c r="D50" s="287"/>
       <c r="E50" s="225" t="s">
         <v>60</v>
       </c>
       <c r="F50" s="226"/>
       <c r="G50" s="226"/>
       <c r="H50" s="227"/>
-      <c r="I50" s="245" t="s">
+      <c r="I50" s="289" t="s">
         <v>61</v>
       </c>
-      <c r="J50" s="246"/>
-      <c r="K50" s="246"/>
-      <c r="L50" s="247"/>
-      <c r="M50" s="245" t="s">
+      <c r="J50" s="290"/>
+      <c r="K50" s="290"/>
+      <c r="L50" s="291"/>
+      <c r="M50" s="289" t="s">
         <v>62</v>
       </c>
-      <c r="N50" s="246"/>
-      <c r="O50" s="246"/>
-      <c r="P50" s="246"/>
-      <c r="Q50" s="246"/>
-      <c r="R50" s="246"/>
-      <c r="S50" s="246"/>
-      <c r="T50" s="247"/>
+      <c r="N50" s="290"/>
+      <c r="O50" s="290"/>
+      <c r="P50" s="290"/>
+      <c r="Q50" s="290"/>
+      <c r="R50" s="290"/>
+      <c r="S50" s="290"/>
+      <c r="T50" s="291"/>
       <c r="U50" s="225" t="s">
         <v>63</v>
       </c>
@@ -7417,7 +7423,7 @@
       </c>
       <c r="AA50" s="226"/>
       <c r="AB50" s="227"/>
-      <c r="AC50" s="242" t="s">
+      <c r="AC50" s="304" t="s">
         <v>116</v>
       </c>
       <c r="AD50" s="228"/>
@@ -7439,23 +7445,23 @@
       <c r="AT50" s="49"/>
     </row>
     <row r="51" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D51" s="244"/>
+      <c r="D51" s="288"/>
       <c r="E51" s="231"/>
       <c r="F51" s="232"/>
       <c r="G51" s="232"/>
       <c r="H51" s="233"/>
-      <c r="I51" s="248"/>
-      <c r="J51" s="249"/>
-      <c r="K51" s="249"/>
-      <c r="L51" s="250"/>
-      <c r="M51" s="248"/>
-      <c r="N51" s="249"/>
-      <c r="O51" s="249"/>
-      <c r="P51" s="249"/>
-      <c r="Q51" s="249"/>
-      <c r="R51" s="249"/>
-      <c r="S51" s="249"/>
-      <c r="T51" s="250"/>
+      <c r="I51" s="292"/>
+      <c r="J51" s="293"/>
+      <c r="K51" s="293"/>
+      <c r="L51" s="294"/>
+      <c r="M51" s="292"/>
+      <c r="N51" s="293"/>
+      <c r="O51" s="293"/>
+      <c r="P51" s="293"/>
+      <c r="Q51" s="293"/>
+      <c r="R51" s="293"/>
+      <c r="S51" s="293"/>
+      <c r="T51" s="294"/>
       <c r="U51" s="231"/>
       <c r="V51" s="232"/>
       <c r="W51" s="232"/>
@@ -7464,7 +7470,7 @@
       <c r="Z51" s="231"/>
       <c r="AA51" s="232"/>
       <c r="AB51" s="233"/>
-      <c r="AC51" s="244"/>
+      <c r="AC51" s="305"/>
       <c r="AD51" s="231"/>
       <c r="AE51" s="232"/>
       <c r="AF51" s="232"/>
@@ -7492,44 +7498,44 @@
       </c>
       <c r="F52" s="238"/>
       <c r="G52" s="238"/>
-      <c r="H52" s="252"/>
-      <c r="I52" s="253" t="s">
+      <c r="H52" s="296"/>
+      <c r="I52" s="297" t="s">
         <v>39</v>
       </c>
-      <c r="J52" s="254"/>
-      <c r="K52" s="254"/>
-      <c r="L52" s="255"/>
-      <c r="M52" s="260" t="s">
+      <c r="J52" s="298"/>
+      <c r="K52" s="298"/>
+      <c r="L52" s="299"/>
+      <c r="M52" s="301" t="s">
         <v>39</v>
       </c>
-      <c r="N52" s="261"/>
-      <c r="O52" s="261"/>
-      <c r="P52" s="261"/>
-      <c r="Q52" s="261"/>
-      <c r="R52" s="261"/>
-      <c r="S52" s="261"/>
-      <c r="T52" s="262"/>
-      <c r="U52" s="263" t="s">
+      <c r="N52" s="302"/>
+      <c r="O52" s="302"/>
+      <c r="P52" s="302"/>
+      <c r="Q52" s="302"/>
+      <c r="R52" s="302"/>
+      <c r="S52" s="302"/>
+      <c r="T52" s="303"/>
+      <c r="U52" s="245" t="s">
         <v>39</v>
       </c>
-      <c r="V52" s="264"/>
-      <c r="W52" s="264"/>
-      <c r="X52" s="264"/>
-      <c r="Y52" s="265"/>
-      <c r="Z52" s="266" t="s">
+      <c r="V52" s="246"/>
+      <c r="W52" s="246"/>
+      <c r="X52" s="246"/>
+      <c r="Y52" s="247"/>
+      <c r="Z52" s="284" t="s">
         <v>39</v>
       </c>
-      <c r="AA52" s="266"/>
-      <c r="AB52" s="266"/>
+      <c r="AA52" s="284"/>
+      <c r="AB52" s="284"/>
       <c r="AC52" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="AD52" s="263" t="s">
+      <c r="AD52" s="245" t="s">
         <v>39</v>
       </c>
-      <c r="AE52" s="264"/>
-      <c r="AF52" s="264"/>
-      <c r="AG52" s="265"/>
+      <c r="AE52" s="246"/>
+      <c r="AF52" s="246"/>
+      <c r="AG52" s="247"/>
       <c r="AH52" s="49"/>
       <c r="AI52" s="49"/>
       <c r="AJ52" s="49"/>
@@ -7652,24 +7658,24 @@
       <c r="AW56" s="42"/>
     </row>
     <row r="57" spans="3:53" x14ac:dyDescent="0.2">
-      <c r="D57" s="292" t="s">
+      <c r="D57" s="259" t="s">
         <v>30</v>
       </c>
-      <c r="E57" s="274" t="s">
+      <c r="E57" s="261" t="s">
         <v>65</v>
       </c>
-      <c r="F57" s="275"/>
-      <c r="G57" s="275"/>
-      <c r="H57" s="275"/>
-      <c r="I57" s="275"/>
-      <c r="J57" s="276"/>
-      <c r="K57" s="274" t="s">
+      <c r="F57" s="262"/>
+      <c r="G57" s="262"/>
+      <c r="H57" s="262"/>
+      <c r="I57" s="262"/>
+      <c r="J57" s="263"/>
+      <c r="K57" s="261" t="s">
         <v>66</v>
       </c>
-      <c r="L57" s="275"/>
-      <c r="M57" s="275"/>
-      <c r="N57" s="276"/>
-      <c r="O57" s="297" t="s">
+      <c r="L57" s="262"/>
+      <c r="M57" s="262"/>
+      <c r="N57" s="263"/>
+      <c r="O57" s="248" t="s">
         <v>67</v>
       </c>
       <c r="P57" s="107" t="s">
@@ -7680,21 +7686,21 @@
       <c r="S57" s="108"/>
       <c r="T57" s="108"/>
       <c r="U57" s="108"/>
-      <c r="V57" s="274" t="s">
+      <c r="V57" s="261" t="s">
         <v>57</v>
       </c>
-      <c r="W57" s="275"/>
-      <c r="X57" s="275"/>
-      <c r="Y57" s="275"/>
-      <c r="Z57" s="275"/>
-      <c r="AA57" s="275"/>
-      <c r="AB57" s="275"/>
-      <c r="AC57" s="275"/>
-      <c r="AD57" s="275"/>
-      <c r="AE57" s="275"/>
-      <c r="AF57" s="275"/>
-      <c r="AG57" s="275"/>
-      <c r="AH57" s="276"/>
+      <c r="W57" s="262"/>
+      <c r="X57" s="262"/>
+      <c r="Y57" s="262"/>
+      <c r="Z57" s="262"/>
+      <c r="AA57" s="262"/>
+      <c r="AB57" s="262"/>
+      <c r="AC57" s="262"/>
+      <c r="AD57" s="262"/>
+      <c r="AE57" s="262"/>
+      <c r="AF57" s="262"/>
+      <c r="AG57" s="262"/>
+      <c r="AH57" s="263"/>
       <c r="AK57" s="42"/>
       <c r="AL57" s="42"/>
       <c r="AM57" s="42"/>
@@ -7710,18 +7716,18 @@
       <c r="AW57" s="42"/>
     </row>
     <row r="58" spans="3:53" x14ac:dyDescent="0.2">
-      <c r="D58" s="293"/>
-      <c r="E58" s="277"/>
-      <c r="F58" s="278"/>
-      <c r="G58" s="278"/>
-      <c r="H58" s="278"/>
-      <c r="I58" s="278"/>
-      <c r="J58" s="279"/>
-      <c r="K58" s="277"/>
-      <c r="L58" s="278"/>
-      <c r="M58" s="278"/>
-      <c r="N58" s="279"/>
-      <c r="O58" s="298"/>
+      <c r="D58" s="260"/>
+      <c r="E58" s="264"/>
+      <c r="F58" s="265"/>
+      <c r="G58" s="265"/>
+      <c r="H58" s="265"/>
+      <c r="I58" s="265"/>
+      <c r="J58" s="266"/>
+      <c r="K58" s="264"/>
+      <c r="L58" s="265"/>
+      <c r="M58" s="265"/>
+      <c r="N58" s="266"/>
+      <c r="O58" s="249"/>
       <c r="P58" s="109" t="s">
         <v>69</v>
       </c>
@@ -7734,23 +7740,23 @@
       <c r="S58" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="T58" s="280" t="s">
+      <c r="T58" s="282" t="s">
         <v>73</v>
       </c>
-      <c r="U58" s="281"/>
-      <c r="V58" s="277"/>
-      <c r="W58" s="278"/>
-      <c r="X58" s="278"/>
-      <c r="Y58" s="278"/>
-      <c r="Z58" s="278"/>
-      <c r="AA58" s="278"/>
-      <c r="AB58" s="278"/>
-      <c r="AC58" s="278"/>
-      <c r="AD58" s="278"/>
-      <c r="AE58" s="278"/>
-      <c r="AF58" s="278"/>
-      <c r="AG58" s="278"/>
-      <c r="AH58" s="279"/>
+      <c r="U58" s="283"/>
+      <c r="V58" s="264"/>
+      <c r="W58" s="265"/>
+      <c r="X58" s="265"/>
+      <c r="Y58" s="265"/>
+      <c r="Z58" s="265"/>
+      <c r="AA58" s="265"/>
+      <c r="AB58" s="265"/>
+      <c r="AC58" s="265"/>
+      <c r="AD58" s="265"/>
+      <c r="AE58" s="265"/>
+      <c r="AF58" s="265"/>
+      <c r="AG58" s="265"/>
+      <c r="AH58" s="266"/>
       <c r="AK58" s="42"/>
       <c r="AL58" s="42"/>
       <c r="AM58" s="42"/>
@@ -7769,20 +7775,20 @@
       <c r="D59" s="110">
         <v>1</v>
       </c>
-      <c r="E59" s="301" t="s">
+      <c r="E59" s="254" t="s">
         <v>39</v>
       </c>
-      <c r="F59" s="302"/>
-      <c r="G59" s="302"/>
-      <c r="H59" s="302"/>
-      <c r="I59" s="302"/>
-      <c r="J59" s="303"/>
-      <c r="K59" s="263" t="s">
+      <c r="F59" s="255"/>
+      <c r="G59" s="255"/>
+      <c r="H59" s="255"/>
+      <c r="I59" s="255"/>
+      <c r="J59" s="256"/>
+      <c r="K59" s="245" t="s">
         <v>39</v>
       </c>
-      <c r="L59" s="264"/>
-      <c r="M59" s="264"/>
-      <c r="N59" s="265"/>
+      <c r="L59" s="246"/>
+      <c r="M59" s="246"/>
+      <c r="N59" s="247"/>
       <c r="O59" s="111"/>
       <c r="P59" s="112" t="s">
         <v>39</v>
@@ -7796,25 +7802,25 @@
       <c r="S59" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="T59" s="290" t="s">
+      <c r="T59" s="257" t="s">
         <v>39</v>
       </c>
-      <c r="U59" s="291"/>
-      <c r="V59" s="263" t="s">
+      <c r="U59" s="258"/>
+      <c r="V59" s="245" t="s">
         <v>39</v>
       </c>
-      <c r="W59" s="264"/>
-      <c r="X59" s="264"/>
-      <c r="Y59" s="264"/>
-      <c r="Z59" s="264"/>
-      <c r="AA59" s="264"/>
-      <c r="AB59" s="264"/>
-      <c r="AC59" s="264"/>
-      <c r="AD59" s="264"/>
-      <c r="AE59" s="264"/>
-      <c r="AF59" s="264"/>
-      <c r="AG59" s="264"/>
-      <c r="AH59" s="265"/>
+      <c r="W59" s="246"/>
+      <c r="X59" s="246"/>
+      <c r="Y59" s="246"/>
+      <c r="Z59" s="246"/>
+      <c r="AA59" s="246"/>
+      <c r="AB59" s="246"/>
+      <c r="AC59" s="246"/>
+      <c r="AD59" s="246"/>
+      <c r="AE59" s="246"/>
+      <c r="AF59" s="246"/>
+      <c r="AG59" s="246"/>
+      <c r="AH59" s="247"/>
       <c r="AK59" s="42"/>
       <c r="AL59" s="42"/>
       <c r="AM59" s="42"/>
@@ -7940,91 +7946,91 @@
       <c r="D64" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="E64" s="299" t="s">
+      <c r="E64" s="250" t="s">
         <v>74</v>
       </c>
-      <c r="F64" s="285"/>
-      <c r="G64" s="285"/>
-      <c r="H64" s="285"/>
-      <c r="I64" s="285"/>
-      <c r="J64" s="300"/>
-      <c r="K64" s="299" t="s">
+      <c r="F64" s="251"/>
+      <c r="G64" s="251"/>
+      <c r="H64" s="251"/>
+      <c r="I64" s="251"/>
+      <c r="J64" s="252"/>
+      <c r="K64" s="250" t="s">
         <v>75</v>
       </c>
-      <c r="L64" s="285"/>
-      <c r="M64" s="285"/>
-      <c r="N64" s="285"/>
-      <c r="O64" s="285"/>
-      <c r="P64" s="285"/>
-      <c r="Q64" s="286"/>
+      <c r="L64" s="251"/>
+      <c r="M64" s="251"/>
+      <c r="N64" s="251"/>
+      <c r="O64" s="251"/>
+      <c r="P64" s="251"/>
+      <c r="Q64" s="253"/>
       <c r="R64" s="234" t="s">
         <v>76</v>
       </c>
-      <c r="S64" s="285"/>
-      <c r="T64" s="285"/>
-      <c r="U64" s="285"/>
-      <c r="V64" s="285"/>
-      <c r="W64" s="285"/>
-      <c r="X64" s="285"/>
-      <c r="Y64" s="286"/>
-      <c r="Z64" s="256" t="s">
+      <c r="S64" s="251"/>
+      <c r="T64" s="251"/>
+      <c r="U64" s="251"/>
+      <c r="V64" s="251"/>
+      <c r="W64" s="251"/>
+      <c r="X64" s="251"/>
+      <c r="Y64" s="253"/>
+      <c r="Z64" s="270" t="s">
         <v>77</v>
       </c>
-      <c r="AA64" s="257"/>
-      <c r="AB64" s="257"/>
-      <c r="AC64" s="257"/>
-      <c r="AD64" s="258"/>
-      <c r="AE64" s="282" t="s">
+      <c r="AA64" s="271"/>
+      <c r="AB64" s="271"/>
+      <c r="AC64" s="271"/>
+      <c r="AD64" s="272"/>
+      <c r="AE64" s="267" t="s">
         <v>78</v>
       </c>
-      <c r="AF64" s="283"/>
-      <c r="AG64" s="283"/>
-      <c r="AH64" s="284"/>
+      <c r="AF64" s="268"/>
+      <c r="AG64" s="268"/>
+      <c r="AH64" s="269"/>
     </row>
     <row r="65" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D65" s="118">
         <v>1</v>
       </c>
-      <c r="E65" s="294" t="s">
+      <c r="E65" s="242" t="s">
         <v>79</v>
       </c>
-      <c r="F65" s="295"/>
-      <c r="G65" s="295"/>
-      <c r="H65" s="295"/>
-      <c r="I65" s="295"/>
-      <c r="J65" s="296"/>
-      <c r="K65" s="263" t="s">
+      <c r="F65" s="243"/>
+      <c r="G65" s="243"/>
+      <c r="H65" s="243"/>
+      <c r="I65" s="243"/>
+      <c r="J65" s="244"/>
+      <c r="K65" s="245" t="s">
         <v>39</v>
       </c>
-      <c r="L65" s="264"/>
-      <c r="M65" s="264"/>
-      <c r="N65" s="264"/>
-      <c r="O65" s="264"/>
-      <c r="P65" s="264"/>
-      <c r="Q65" s="265"/>
-      <c r="R65" s="263" t="s">
+      <c r="L65" s="246"/>
+      <c r="M65" s="246"/>
+      <c r="N65" s="246"/>
+      <c r="O65" s="246"/>
+      <c r="P65" s="246"/>
+      <c r="Q65" s="247"/>
+      <c r="R65" s="245" t="s">
         <v>80</v>
       </c>
-      <c r="S65" s="264"/>
-      <c r="T65" s="264"/>
-      <c r="U65" s="264"/>
-      <c r="V65" s="264"/>
-      <c r="W65" s="264"/>
-      <c r="X65" s="264"/>
-      <c r="Y65" s="265"/>
-      <c r="Z65" s="263" t="s">
+      <c r="S65" s="246"/>
+      <c r="T65" s="246"/>
+      <c r="U65" s="246"/>
+      <c r="V65" s="246"/>
+      <c r="W65" s="246"/>
+      <c r="X65" s="246"/>
+      <c r="Y65" s="247"/>
+      <c r="Z65" s="245" t="s">
         <v>39</v>
       </c>
-      <c r="AA65" s="264"/>
-      <c r="AB65" s="264"/>
-      <c r="AC65" s="264"/>
-      <c r="AD65" s="265"/>
-      <c r="AE65" s="287" t="s">
+      <c r="AA65" s="246"/>
+      <c r="AB65" s="246"/>
+      <c r="AC65" s="246"/>
+      <c r="AD65" s="247"/>
+      <c r="AE65" s="273" t="s">
         <v>81</v>
       </c>
-      <c r="AF65" s="288"/>
-      <c r="AG65" s="288"/>
-      <c r="AH65" s="289"/>
+      <c r="AF65" s="274"/>
+      <c r="AG65" s="274"/>
+      <c r="AH65" s="275"/>
     </row>
     <row r="66" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D66" s="119"/>
@@ -8388,24 +8394,32 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="E65:J65"/>
-    <mergeCell ref="K65:Q65"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="E64:J64"/>
-    <mergeCell ref="K64:Q64"/>
-    <mergeCell ref="E59:J59"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="V59:AH59"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:J58"/>
-    <mergeCell ref="K57:N58"/>
-    <mergeCell ref="AE64:AH64"/>
-    <mergeCell ref="Z64:AD64"/>
-    <mergeCell ref="R65:Y65"/>
-    <mergeCell ref="Z65:AD65"/>
-    <mergeCell ref="R64:Y64"/>
-    <mergeCell ref="AE65:AH65"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="M50:T51"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="V44:AC44"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I50:L51"/>
+    <mergeCell ref="E50:H51"/>
+    <mergeCell ref="E49:AC49"/>
+    <mergeCell ref="Z50:AB51"/>
+    <mergeCell ref="AC50:AC51"/>
+    <mergeCell ref="E44:M44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="M52:T52"/>
+    <mergeCell ref="U50:Y51"/>
+    <mergeCell ref="U52:Y52"/>
+    <mergeCell ref="AD49:AG51"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AD52:AG52"/>
+    <mergeCell ref="E43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="Q43:U43"/>
+    <mergeCell ref="V43:AC43"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
@@ -8422,32 +8436,24 @@
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AD49:AG51"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AD52:AG52"/>
-    <mergeCell ref="E43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="V43:AC43"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="M50:T51"/>
-    <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="V44:AC44"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="I50:L51"/>
-    <mergeCell ref="E50:H51"/>
-    <mergeCell ref="E49:AC49"/>
-    <mergeCell ref="Z50:AB51"/>
-    <mergeCell ref="AC50:AC51"/>
-    <mergeCell ref="E44:M44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="M52:T52"/>
-    <mergeCell ref="U50:Y51"/>
-    <mergeCell ref="U52:Y52"/>
+    <mergeCell ref="AE64:AH64"/>
+    <mergeCell ref="Z64:AD64"/>
+    <mergeCell ref="R65:Y65"/>
+    <mergeCell ref="Z65:AD65"/>
+    <mergeCell ref="R64:Y64"/>
+    <mergeCell ref="AE65:AH65"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="V59:AH59"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:J58"/>
+    <mergeCell ref="K57:N58"/>
+    <mergeCell ref="E65:J65"/>
+    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="E64:J64"/>
+    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="E59:J59"/>
+    <mergeCell ref="K59:N59"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="5">

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design_document(screen)_WA10104_General_error.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design_document(screen)_WA10104_General_error.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD0565B-FA24-4C09-9E62-05A25ECFD50B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773FDC80-7BC7-4B6D-BE6C-FF5FB9CA0C47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21270" windowHeight="10575" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" state="hidden" r:id="rId1"/>
@@ -29,17 +29,7 @@
     <definedName name="画面項目種類">Data!$A$2:$A$12</definedName>
     <definedName name="種別一覧">Data!$C$2:$C$7</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1614,6 +1604,111 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1650,24 +1745,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1677,24 +1754,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1731,74 +1790,77 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1818,78 +1880,6 @@
     <xf numFmtId="177" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1944,6 +1934,168 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1953,15 +2105,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1971,165 +2114,12 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="パーセント 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2485,25 +2475,25 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>12368</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>116934</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>69673</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>68960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28662E79-BDC8-42FB-A951-F7F8C40D1EA3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2519,8 +2509,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="828676" y="1038225"/>
-          <a:ext cx="7746667" cy="1793334"/>
+          <a:off x="552454" y="609609"/>
+          <a:ext cx="7803969" cy="2659751"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2529,6 +2519,71 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="745140" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C0CFAE-331A-49E7-B859-B87E6917FA4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2790825" y="1838325"/>
+          <a:ext cx="745140" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Messages</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3611,57 +3666,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="150" t="s">
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="152"/>
-      <c r="O1" s="183" t="s">
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="180"/>
+      <c r="L1" s="180"/>
+      <c r="M1" s="180"/>
+      <c r="N1" s="181"/>
+      <c r="O1" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="184"/>
-      <c r="Q1" s="184"/>
-      <c r="R1" s="185"/>
-      <c r="S1" s="162" t="s">
+      <c r="P1" s="136"/>
+      <c r="Q1" s="136"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="164"/>
-      <c r="AA1" s="180" t="s">
+      <c r="T1" s="186"/>
+      <c r="U1" s="186"/>
+      <c r="V1" s="186"/>
+      <c r="W1" s="186"/>
+      <c r="X1" s="186"/>
+      <c r="Y1" s="186"/>
+      <c r="Z1" s="187"/>
+      <c r="AA1" s="132" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="182"/>
-      <c r="AC1" s="132" t="str">
+      <c r="AB1" s="134"/>
+      <c r="AC1" s="167" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="133"/>
-      <c r="AE1" s="133"/>
-      <c r="AF1" s="134"/>
-      <c r="AG1" s="138">
+      <c r="AD1" s="168"/>
+      <c r="AE1" s="168"/>
+      <c r="AF1" s="169"/>
+      <c r="AG1" s="173">
         <f>IF(D8="","",D8)</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="139"/>
-      <c r="AI1" s="140"/>
+      <c r="AH1" s="174"/>
+      <c r="AI1" s="175"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -3669,53 +3724,53 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="150" t="s">
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="186"/>
-      <c r="P2" s="187"/>
-      <c r="Q2" s="187"/>
-      <c r="R2" s="188"/>
-      <c r="S2" s="165"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="166"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="167"/>
-      <c r="AA2" s="180" t="s">
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
+      <c r="M2" s="180"/>
+      <c r="N2" s="181"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="139"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="188"/>
+      <c r="T2" s="189"/>
+      <c r="U2" s="189"/>
+      <c r="V2" s="189"/>
+      <c r="W2" s="189"/>
+      <c r="X2" s="189"/>
+      <c r="Y2" s="189"/>
+      <c r="Z2" s="190"/>
+      <c r="AA2" s="132" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="182"/>
-      <c r="AC2" s="141" t="str">
+      <c r="AB2" s="134"/>
+      <c r="AC2" s="176" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="142"/>
-      <c r="AE2" s="142"/>
-      <c r="AF2" s="143"/>
-      <c r="AG2" s="138" t="str">
+      <c r="AD2" s="177"/>
+      <c r="AE2" s="177"/>
+      <c r="AF2" s="178"/>
+      <c r="AG2" s="173" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="139"/>
-      <c r="AI2" s="140"/>
+      <c r="AH2" s="174"/>
+      <c r="AI2" s="175"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -3723,45 +3778,45 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="150" t="s">
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="152"/>
-      <c r="O3" s="189"/>
-      <c r="P3" s="190"/>
-      <c r="Q3" s="190"/>
-      <c r="R3" s="191"/>
-      <c r="S3" s="168"/>
-      <c r="T3" s="169"/>
-      <c r="U3" s="169"/>
-      <c r="V3" s="169"/>
-      <c r="W3" s="169"/>
-      <c r="X3" s="169"/>
-      <c r="Y3" s="169"/>
-      <c r="Z3" s="170"/>
-      <c r="AA3" s="192"/>
-      <c r="AB3" s="193"/>
-      <c r="AC3" s="132"/>
-      <c r="AD3" s="133"/>
-      <c r="AE3" s="133"/>
-      <c r="AF3" s="134"/>
-      <c r="AG3" s="138"/>
-      <c r="AH3" s="139"/>
-      <c r="AI3" s="140"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="180"/>
+      <c r="L3" s="180"/>
+      <c r="M3" s="180"/>
+      <c r="N3" s="181"/>
+      <c r="O3" s="141"/>
+      <c r="P3" s="142"/>
+      <c r="Q3" s="142"/>
+      <c r="R3" s="143"/>
+      <c r="S3" s="191"/>
+      <c r="T3" s="192"/>
+      <c r="U3" s="192"/>
+      <c r="V3" s="192"/>
+      <c r="W3" s="192"/>
+      <c r="X3" s="192"/>
+      <c r="Y3" s="192"/>
+      <c r="Z3" s="193"/>
+      <c r="AA3" s="144"/>
+      <c r="AB3" s="145"/>
+      <c r="AC3" s="167"/>
+      <c r="AD3" s="168"/>
+      <c r="AE3" s="168"/>
+      <c r="AF3" s="169"/>
+      <c r="AG3" s="173"/>
+      <c r="AH3" s="174"/>
+      <c r="AI3" s="175"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -3900,1028 +3955,1028 @@
       <c r="A7" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="147" t="s">
+      <c r="B7" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="147" t="s">
+      <c r="C7" s="159"/>
+      <c r="D7" s="158" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="148"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="147" t="s">
+      <c r="E7" s="160"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="158" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="148"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="147" t="s">
+      <c r="H7" s="160"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="158" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="148"/>
-      <c r="L7" s="148"/>
-      <c r="M7" s="148"/>
-      <c r="N7" s="148"/>
-      <c r="O7" s="148"/>
-      <c r="P7" s="149"/>
-      <c r="Q7" s="147" t="s">
+      <c r="K7" s="160"/>
+      <c r="L7" s="160"/>
+      <c r="M7" s="160"/>
+      <c r="N7" s="160"/>
+      <c r="O7" s="160"/>
+      <c r="P7" s="159"/>
+      <c r="Q7" s="158" t="s">
         <v>35</v>
       </c>
-      <c r="R7" s="148"/>
-      <c r="S7" s="148"/>
-      <c r="T7" s="148"/>
-      <c r="U7" s="148"/>
-      <c r="V7" s="148"/>
-      <c r="W7" s="148"/>
-      <c r="X7" s="148"/>
-      <c r="Y7" s="148"/>
-      <c r="Z7" s="148"/>
-      <c r="AA7" s="148"/>
-      <c r="AB7" s="148"/>
-      <c r="AC7" s="148"/>
-      <c r="AD7" s="148"/>
-      <c r="AE7" s="149"/>
-      <c r="AF7" s="147" t="s">
+      <c r="R7" s="160"/>
+      <c r="S7" s="160"/>
+      <c r="T7" s="160"/>
+      <c r="U7" s="160"/>
+      <c r="V7" s="160"/>
+      <c r="W7" s="160"/>
+      <c r="X7" s="160"/>
+      <c r="Y7" s="160"/>
+      <c r="Z7" s="160"/>
+      <c r="AA7" s="160"/>
+      <c r="AB7" s="160"/>
+      <c r="AC7" s="160"/>
+      <c r="AD7" s="160"/>
+      <c r="AE7" s="159"/>
+      <c r="AF7" s="158" t="s">
         <v>36</v>
       </c>
-      <c r="AG7" s="148"/>
-      <c r="AH7" s="148"/>
-      <c r="AI7" s="149"/>
+      <c r="AG7" s="160"/>
+      <c r="AH7" s="160"/>
+      <c r="AI7" s="159"/>
     </row>
     <row r="8" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="29">
         <v>1</v>
       </c>
-      <c r="B8" s="174" t="s">
+      <c r="B8" s="161" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="175"/>
-      <c r="D8" s="176">
+      <c r="C8" s="162"/>
+      <c r="D8" s="163">
         <v>43599</v>
       </c>
-      <c r="E8" s="177"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="174" t="s">
+      <c r="E8" s="164"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="179"/>
-      <c r="I8" s="175"/>
-      <c r="J8" s="159" t="s">
+      <c r="H8" s="166"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="182" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="160"/>
-      <c r="L8" s="160"/>
-      <c r="M8" s="160"/>
-      <c r="N8" s="160"/>
-      <c r="O8" s="160"/>
-      <c r="P8" s="161"/>
-      <c r="Q8" s="135" t="s">
+      <c r="K8" s="183"/>
+      <c r="L8" s="183"/>
+      <c r="M8" s="183"/>
+      <c r="N8" s="183"/>
+      <c r="O8" s="183"/>
+      <c r="P8" s="184"/>
+      <c r="Q8" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="R8" s="136"/>
-      <c r="S8" s="136"/>
-      <c r="T8" s="136"/>
-      <c r="U8" s="136"/>
-      <c r="V8" s="136"/>
-      <c r="W8" s="136"/>
-      <c r="X8" s="136"/>
-      <c r="Y8" s="136"/>
-      <c r="Z8" s="136"/>
-      <c r="AA8" s="136"/>
-      <c r="AB8" s="136"/>
-      <c r="AC8" s="136"/>
-      <c r="AD8" s="136"/>
-      <c r="AE8" s="137"/>
-      <c r="AF8" s="159" t="s">
+      <c r="R8" s="171"/>
+      <c r="S8" s="171"/>
+      <c r="T8" s="171"/>
+      <c r="U8" s="171"/>
+      <c r="V8" s="171"/>
+      <c r="W8" s="171"/>
+      <c r="X8" s="171"/>
+      <c r="Y8" s="171"/>
+      <c r="Z8" s="171"/>
+      <c r="AA8" s="171"/>
+      <c r="AB8" s="171"/>
+      <c r="AC8" s="171"/>
+      <c r="AD8" s="171"/>
+      <c r="AE8" s="172"/>
+      <c r="AF8" s="182" t="s">
         <v>41</v>
       </c>
-      <c r="AG8" s="160"/>
-      <c r="AH8" s="160"/>
-      <c r="AI8" s="161"/>
+      <c r="AG8" s="183"/>
+      <c r="AH8" s="183"/>
+      <c r="AI8" s="184"/>
     </row>
     <row r="9" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
-      <c r="B9" s="144"/>
-      <c r="C9" s="146"/>
-      <c r="D9" s="171"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="173"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="156"/>
-      <c r="K9" s="157"/>
-      <c r="L9" s="157"/>
-      <c r="M9" s="157"/>
-      <c r="N9" s="157"/>
-      <c r="O9" s="157"/>
-      <c r="P9" s="158"/>
-      <c r="Q9" s="153"/>
-      <c r="R9" s="154"/>
-      <c r="S9" s="154"/>
-      <c r="T9" s="154"/>
-      <c r="U9" s="154"/>
-      <c r="V9" s="154"/>
-      <c r="W9" s="154"/>
-      <c r="X9" s="154"/>
-      <c r="Y9" s="154"/>
-      <c r="Z9" s="154"/>
-      <c r="AA9" s="154"/>
-      <c r="AB9" s="154"/>
-      <c r="AC9" s="154"/>
-      <c r="AD9" s="154"/>
-      <c r="AE9" s="155"/>
-      <c r="AF9" s="156"/>
-      <c r="AG9" s="157"/>
-      <c r="AH9" s="157"/>
-      <c r="AI9" s="158"/>
+      <c r="B9" s="152"/>
+      <c r="C9" s="153"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="149"/>
+      <c r="K9" s="150"/>
+      <c r="L9" s="150"/>
+      <c r="M9" s="150"/>
+      <c r="N9" s="150"/>
+      <c r="O9" s="150"/>
+      <c r="P9" s="151"/>
+      <c r="Q9" s="146"/>
+      <c r="R9" s="147"/>
+      <c r="S9" s="147"/>
+      <c r="T9" s="147"/>
+      <c r="U9" s="147"/>
+      <c r="V9" s="147"/>
+      <c r="W9" s="147"/>
+      <c r="X9" s="147"/>
+      <c r="Y9" s="147"/>
+      <c r="Z9" s="147"/>
+      <c r="AA9" s="147"/>
+      <c r="AB9" s="147"/>
+      <c r="AC9" s="147"/>
+      <c r="AD9" s="147"/>
+      <c r="AE9" s="148"/>
+      <c r="AF9" s="149"/>
+      <c r="AG9" s="150"/>
+      <c r="AH9" s="150"/>
+      <c r="AI9" s="151"/>
     </row>
     <row r="10" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="146"/>
-      <c r="D10" s="171"/>
-      <c r="E10" s="172"/>
-      <c r="F10" s="173"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="156"/>
-      <c r="K10" s="157"/>
-      <c r="L10" s="157"/>
-      <c r="M10" s="157"/>
-      <c r="N10" s="157"/>
-      <c r="O10" s="157"/>
-      <c r="P10" s="158"/>
-      <c r="Q10" s="153"/>
-      <c r="R10" s="154"/>
-      <c r="S10" s="154"/>
-      <c r="T10" s="154"/>
-      <c r="U10" s="154"/>
-      <c r="V10" s="154"/>
-      <c r="W10" s="154"/>
-      <c r="X10" s="154"/>
-      <c r="Y10" s="154"/>
-      <c r="Z10" s="154"/>
-      <c r="AA10" s="154"/>
-      <c r="AB10" s="154"/>
-      <c r="AC10" s="154"/>
-      <c r="AD10" s="154"/>
-      <c r="AE10" s="155"/>
-      <c r="AF10" s="156"/>
-      <c r="AG10" s="157"/>
-      <c r="AH10" s="157"/>
-      <c r="AI10" s="158"/>
+      <c r="B10" s="152"/>
+      <c r="C10" s="153"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="157"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="149"/>
+      <c r="K10" s="150"/>
+      <c r="L10" s="150"/>
+      <c r="M10" s="150"/>
+      <c r="N10" s="150"/>
+      <c r="O10" s="150"/>
+      <c r="P10" s="151"/>
+      <c r="Q10" s="146"/>
+      <c r="R10" s="147"/>
+      <c r="S10" s="147"/>
+      <c r="T10" s="147"/>
+      <c r="U10" s="147"/>
+      <c r="V10" s="147"/>
+      <c r="W10" s="147"/>
+      <c r="X10" s="147"/>
+      <c r="Y10" s="147"/>
+      <c r="Z10" s="147"/>
+      <c r="AA10" s="147"/>
+      <c r="AB10" s="147"/>
+      <c r="AC10" s="147"/>
+      <c r="AD10" s="147"/>
+      <c r="AE10" s="148"/>
+      <c r="AF10" s="149"/>
+      <c r="AG10" s="150"/>
+      <c r="AH10" s="150"/>
+      <c r="AI10" s="151"/>
     </row>
     <row r="11" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="30"/>
-      <c r="B11" s="144"/>
-      <c r="C11" s="146"/>
-      <c r="D11" s="171"/>
-      <c r="E11" s="172"/>
-      <c r="F11" s="173"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="146"/>
-      <c r="J11" s="156"/>
-      <c r="K11" s="157"/>
-      <c r="L11" s="157"/>
-      <c r="M11" s="157"/>
-      <c r="N11" s="157"/>
-      <c r="O11" s="157"/>
-      <c r="P11" s="158"/>
-      <c r="Q11" s="153"/>
-      <c r="R11" s="154"/>
-      <c r="S11" s="154"/>
-      <c r="T11" s="154"/>
-      <c r="U11" s="154"/>
-      <c r="V11" s="154"/>
-      <c r="W11" s="154"/>
-      <c r="X11" s="154"/>
-      <c r="Y11" s="154"/>
-      <c r="Z11" s="154"/>
-      <c r="AA11" s="154"/>
-      <c r="AB11" s="154"/>
-      <c r="AC11" s="154"/>
-      <c r="AD11" s="154"/>
-      <c r="AE11" s="155"/>
-      <c r="AF11" s="156"/>
-      <c r="AG11" s="157"/>
-      <c r="AH11" s="157"/>
-      <c r="AI11" s="158"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="157"/>
+      <c r="I11" s="153"/>
+      <c r="J11" s="149"/>
+      <c r="K11" s="150"/>
+      <c r="L11" s="150"/>
+      <c r="M11" s="150"/>
+      <c r="N11" s="150"/>
+      <c r="O11" s="150"/>
+      <c r="P11" s="151"/>
+      <c r="Q11" s="146"/>
+      <c r="R11" s="147"/>
+      <c r="S11" s="147"/>
+      <c r="T11" s="147"/>
+      <c r="U11" s="147"/>
+      <c r="V11" s="147"/>
+      <c r="W11" s="147"/>
+      <c r="X11" s="147"/>
+      <c r="Y11" s="147"/>
+      <c r="Z11" s="147"/>
+      <c r="AA11" s="147"/>
+      <c r="AB11" s="147"/>
+      <c r="AC11" s="147"/>
+      <c r="AD11" s="147"/>
+      <c r="AE11" s="148"/>
+      <c r="AF11" s="149"/>
+      <c r="AG11" s="150"/>
+      <c r="AH11" s="150"/>
+      <c r="AI11" s="151"/>
     </row>
     <row r="12" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="30"/>
-      <c r="B12" s="144"/>
-      <c r="C12" s="146"/>
-      <c r="D12" s="171"/>
-      <c r="E12" s="172"/>
-      <c r="F12" s="173"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="145"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="156"/>
-      <c r="K12" s="157"/>
-      <c r="L12" s="157"/>
-      <c r="M12" s="157"/>
-      <c r="N12" s="157"/>
-      <c r="O12" s="157"/>
-      <c r="P12" s="158"/>
-      <c r="Q12" s="153"/>
-      <c r="R12" s="154"/>
-      <c r="S12" s="154"/>
-      <c r="T12" s="154"/>
-      <c r="U12" s="154"/>
-      <c r="V12" s="154"/>
-      <c r="W12" s="154"/>
-      <c r="X12" s="154"/>
-      <c r="Y12" s="154"/>
-      <c r="Z12" s="154"/>
-      <c r="AA12" s="154"/>
-      <c r="AB12" s="154"/>
-      <c r="AC12" s="154"/>
-      <c r="AD12" s="154"/>
-      <c r="AE12" s="155"/>
-      <c r="AF12" s="156"/>
-      <c r="AG12" s="157"/>
-      <c r="AH12" s="157"/>
-      <c r="AI12" s="158"/>
+      <c r="B12" s="152"/>
+      <c r="C12" s="153"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="157"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="149"/>
+      <c r="K12" s="150"/>
+      <c r="L12" s="150"/>
+      <c r="M12" s="150"/>
+      <c r="N12" s="150"/>
+      <c r="O12" s="150"/>
+      <c r="P12" s="151"/>
+      <c r="Q12" s="146"/>
+      <c r="R12" s="147"/>
+      <c r="S12" s="147"/>
+      <c r="T12" s="147"/>
+      <c r="U12" s="147"/>
+      <c r="V12" s="147"/>
+      <c r="W12" s="147"/>
+      <c r="X12" s="147"/>
+      <c r="Y12" s="147"/>
+      <c r="Z12" s="147"/>
+      <c r="AA12" s="147"/>
+      <c r="AB12" s="147"/>
+      <c r="AC12" s="147"/>
+      <c r="AD12" s="147"/>
+      <c r="AE12" s="148"/>
+      <c r="AF12" s="149"/>
+      <c r="AG12" s="150"/>
+      <c r="AH12" s="150"/>
+      <c r="AI12" s="151"/>
     </row>
     <row r="13" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="30"/>
-      <c r="B13" s="144"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="171"/>
-      <c r="E13" s="172"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="146"/>
-      <c r="J13" s="156"/>
-      <c r="K13" s="157"/>
-      <c r="L13" s="157"/>
-      <c r="M13" s="157"/>
-      <c r="N13" s="157"/>
-      <c r="O13" s="157"/>
-      <c r="P13" s="158"/>
-      <c r="Q13" s="153"/>
-      <c r="R13" s="154"/>
-      <c r="S13" s="154"/>
-      <c r="T13" s="154"/>
-      <c r="U13" s="154"/>
-      <c r="V13" s="154"/>
-      <c r="W13" s="154"/>
-      <c r="X13" s="154"/>
-      <c r="Y13" s="154"/>
-      <c r="Z13" s="154"/>
-      <c r="AA13" s="154"/>
-      <c r="AB13" s="154"/>
-      <c r="AC13" s="154"/>
-      <c r="AD13" s="154"/>
-      <c r="AE13" s="155"/>
-      <c r="AF13" s="156"/>
-      <c r="AG13" s="157"/>
-      <c r="AH13" s="157"/>
-      <c r="AI13" s="158"/>
+      <c r="B13" s="152"/>
+      <c r="C13" s="153"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="157"/>
+      <c r="I13" s="153"/>
+      <c r="J13" s="149"/>
+      <c r="K13" s="150"/>
+      <c r="L13" s="150"/>
+      <c r="M13" s="150"/>
+      <c r="N13" s="150"/>
+      <c r="O13" s="150"/>
+      <c r="P13" s="151"/>
+      <c r="Q13" s="146"/>
+      <c r="R13" s="147"/>
+      <c r="S13" s="147"/>
+      <c r="T13" s="147"/>
+      <c r="U13" s="147"/>
+      <c r="V13" s="147"/>
+      <c r="W13" s="147"/>
+      <c r="X13" s="147"/>
+      <c r="Y13" s="147"/>
+      <c r="Z13" s="147"/>
+      <c r="AA13" s="147"/>
+      <c r="AB13" s="147"/>
+      <c r="AC13" s="147"/>
+      <c r="AD13" s="147"/>
+      <c r="AE13" s="148"/>
+      <c r="AF13" s="149"/>
+      <c r="AG13" s="150"/>
+      <c r="AH13" s="150"/>
+      <c r="AI13" s="151"/>
     </row>
     <row r="14" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="30"/>
-      <c r="B14" s="144"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="171"/>
-      <c r="E14" s="172"/>
-      <c r="F14" s="173"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="156"/>
-      <c r="K14" s="157"/>
-      <c r="L14" s="157"/>
-      <c r="M14" s="157"/>
-      <c r="N14" s="157"/>
-      <c r="O14" s="157"/>
-      <c r="P14" s="158"/>
-      <c r="Q14" s="153"/>
-      <c r="R14" s="154"/>
-      <c r="S14" s="154"/>
-      <c r="T14" s="154"/>
-      <c r="U14" s="154"/>
-      <c r="V14" s="154"/>
-      <c r="W14" s="154"/>
-      <c r="X14" s="154"/>
-      <c r="Y14" s="154"/>
-      <c r="Z14" s="154"/>
-      <c r="AA14" s="154"/>
-      <c r="AB14" s="154"/>
-      <c r="AC14" s="154"/>
-      <c r="AD14" s="154"/>
-      <c r="AE14" s="155"/>
-      <c r="AF14" s="156"/>
-      <c r="AG14" s="157"/>
-      <c r="AH14" s="157"/>
-      <c r="AI14" s="158"/>
+      <c r="B14" s="152"/>
+      <c r="C14" s="153"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="155"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="157"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="149"/>
+      <c r="K14" s="150"/>
+      <c r="L14" s="150"/>
+      <c r="M14" s="150"/>
+      <c r="N14" s="150"/>
+      <c r="O14" s="150"/>
+      <c r="P14" s="151"/>
+      <c r="Q14" s="146"/>
+      <c r="R14" s="147"/>
+      <c r="S14" s="147"/>
+      <c r="T14" s="147"/>
+      <c r="U14" s="147"/>
+      <c r="V14" s="147"/>
+      <c r="W14" s="147"/>
+      <c r="X14" s="147"/>
+      <c r="Y14" s="147"/>
+      <c r="Z14" s="147"/>
+      <c r="AA14" s="147"/>
+      <c r="AB14" s="147"/>
+      <c r="AC14" s="147"/>
+      <c r="AD14" s="147"/>
+      <c r="AE14" s="148"/>
+      <c r="AF14" s="149"/>
+      <c r="AG14" s="150"/>
+      <c r="AH14" s="150"/>
+      <c r="AI14" s="151"/>
     </row>
     <row r="15" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="30"/>
-      <c r="B15" s="144"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="171"/>
-      <c r="E15" s="172"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="146"/>
-      <c r="J15" s="156"/>
-      <c r="K15" s="157"/>
-      <c r="L15" s="157"/>
-      <c r="M15" s="157"/>
-      <c r="N15" s="157"/>
-      <c r="O15" s="157"/>
-      <c r="P15" s="158"/>
-      <c r="Q15" s="153"/>
-      <c r="R15" s="154"/>
-      <c r="S15" s="154"/>
-      <c r="T15" s="154"/>
-      <c r="U15" s="154"/>
-      <c r="V15" s="154"/>
-      <c r="W15" s="154"/>
-      <c r="X15" s="154"/>
-      <c r="Y15" s="154"/>
-      <c r="Z15" s="154"/>
-      <c r="AA15" s="154"/>
-      <c r="AB15" s="154"/>
-      <c r="AC15" s="154"/>
-      <c r="AD15" s="154"/>
-      <c r="AE15" s="155"/>
-      <c r="AF15" s="156"/>
-      <c r="AG15" s="157"/>
-      <c r="AH15" s="157"/>
-      <c r="AI15" s="158"/>
+      <c r="B15" s="152"/>
+      <c r="C15" s="153"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="157"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="149"/>
+      <c r="K15" s="150"/>
+      <c r="L15" s="150"/>
+      <c r="M15" s="150"/>
+      <c r="N15" s="150"/>
+      <c r="O15" s="150"/>
+      <c r="P15" s="151"/>
+      <c r="Q15" s="146"/>
+      <c r="R15" s="147"/>
+      <c r="S15" s="147"/>
+      <c r="T15" s="147"/>
+      <c r="U15" s="147"/>
+      <c r="V15" s="147"/>
+      <c r="W15" s="147"/>
+      <c r="X15" s="147"/>
+      <c r="Y15" s="147"/>
+      <c r="Z15" s="147"/>
+      <c r="AA15" s="147"/>
+      <c r="AB15" s="147"/>
+      <c r="AC15" s="147"/>
+      <c r="AD15" s="147"/>
+      <c r="AE15" s="148"/>
+      <c r="AF15" s="149"/>
+      <c r="AG15" s="150"/>
+      <c r="AH15" s="150"/>
+      <c r="AI15" s="151"/>
     </row>
     <row r="16" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="30"/>
-      <c r="B16" s="144"/>
-      <c r="C16" s="146"/>
-      <c r="D16" s="171"/>
-      <c r="E16" s="172"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="145"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="156"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="157"/>
-      <c r="M16" s="157"/>
-      <c r="N16" s="157"/>
-      <c r="O16" s="157"/>
-      <c r="P16" s="158"/>
-      <c r="Q16" s="153"/>
-      <c r="R16" s="154"/>
-      <c r="S16" s="154"/>
-      <c r="T16" s="154"/>
-      <c r="U16" s="154"/>
-      <c r="V16" s="154"/>
-      <c r="W16" s="154"/>
-      <c r="X16" s="154"/>
-      <c r="Y16" s="154"/>
-      <c r="Z16" s="154"/>
-      <c r="AA16" s="154"/>
-      <c r="AB16" s="154"/>
-      <c r="AC16" s="154"/>
-      <c r="AD16" s="154"/>
-      <c r="AE16" s="155"/>
-      <c r="AF16" s="156"/>
-      <c r="AG16" s="157"/>
-      <c r="AH16" s="157"/>
-      <c r="AI16" s="158"/>
+      <c r="B16" s="152"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="156"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="149"/>
+      <c r="K16" s="150"/>
+      <c r="L16" s="150"/>
+      <c r="M16" s="150"/>
+      <c r="N16" s="150"/>
+      <c r="O16" s="150"/>
+      <c r="P16" s="151"/>
+      <c r="Q16" s="146"/>
+      <c r="R16" s="147"/>
+      <c r="S16" s="147"/>
+      <c r="T16" s="147"/>
+      <c r="U16" s="147"/>
+      <c r="V16" s="147"/>
+      <c r="W16" s="147"/>
+      <c r="X16" s="147"/>
+      <c r="Y16" s="147"/>
+      <c r="Z16" s="147"/>
+      <c r="AA16" s="147"/>
+      <c r="AB16" s="147"/>
+      <c r="AC16" s="147"/>
+      <c r="AD16" s="147"/>
+      <c r="AE16" s="148"/>
+      <c r="AF16" s="149"/>
+      <c r="AG16" s="150"/>
+      <c r="AH16" s="150"/>
+      <c r="AI16" s="151"/>
     </row>
     <row r="17" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="30"/>
-      <c r="B17" s="144"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="171"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="156"/>
-      <c r="K17" s="157"/>
-      <c r="L17" s="157"/>
-      <c r="M17" s="157"/>
-      <c r="N17" s="157"/>
-      <c r="O17" s="157"/>
-      <c r="P17" s="158"/>
-      <c r="Q17" s="153"/>
-      <c r="R17" s="154"/>
-      <c r="S17" s="154"/>
-      <c r="T17" s="154"/>
-      <c r="U17" s="154"/>
-      <c r="V17" s="154"/>
-      <c r="W17" s="154"/>
-      <c r="X17" s="154"/>
-      <c r="Y17" s="154"/>
-      <c r="Z17" s="154"/>
-      <c r="AA17" s="154"/>
-      <c r="AB17" s="154"/>
-      <c r="AC17" s="154"/>
-      <c r="AD17" s="154"/>
-      <c r="AE17" s="155"/>
-      <c r="AF17" s="156"/>
-      <c r="AG17" s="157"/>
-      <c r="AH17" s="157"/>
-      <c r="AI17" s="158"/>
+      <c r="B17" s="152"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="155"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="157"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="149"/>
+      <c r="K17" s="150"/>
+      <c r="L17" s="150"/>
+      <c r="M17" s="150"/>
+      <c r="N17" s="150"/>
+      <c r="O17" s="150"/>
+      <c r="P17" s="151"/>
+      <c r="Q17" s="146"/>
+      <c r="R17" s="147"/>
+      <c r="S17" s="147"/>
+      <c r="T17" s="147"/>
+      <c r="U17" s="147"/>
+      <c r="V17" s="147"/>
+      <c r="W17" s="147"/>
+      <c r="X17" s="147"/>
+      <c r="Y17" s="147"/>
+      <c r="Z17" s="147"/>
+      <c r="AA17" s="147"/>
+      <c r="AB17" s="147"/>
+      <c r="AC17" s="147"/>
+      <c r="AD17" s="147"/>
+      <c r="AE17" s="148"/>
+      <c r="AF17" s="149"/>
+      <c r="AG17" s="150"/>
+      <c r="AH17" s="150"/>
+      <c r="AI17" s="151"/>
     </row>
     <row r="18" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="30"/>
-      <c r="B18" s="144"/>
-      <c r="C18" s="146"/>
-      <c r="D18" s="171"/>
-      <c r="E18" s="172"/>
-      <c r="F18" s="173"/>
-      <c r="G18" s="144"/>
-      <c r="H18" s="145"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="156"/>
-      <c r="K18" s="157"/>
-      <c r="L18" s="157"/>
-      <c r="M18" s="157"/>
-      <c r="N18" s="157"/>
-      <c r="O18" s="157"/>
-      <c r="P18" s="158"/>
-      <c r="Q18" s="153"/>
-      <c r="R18" s="154"/>
-      <c r="S18" s="154"/>
-      <c r="T18" s="154"/>
-      <c r="U18" s="154"/>
-      <c r="V18" s="154"/>
-      <c r="W18" s="154"/>
-      <c r="X18" s="154"/>
-      <c r="Y18" s="154"/>
-      <c r="Z18" s="154"/>
-      <c r="AA18" s="154"/>
-      <c r="AB18" s="154"/>
-      <c r="AC18" s="154"/>
-      <c r="AD18" s="154"/>
-      <c r="AE18" s="155"/>
-      <c r="AF18" s="156"/>
-      <c r="AG18" s="157"/>
-      <c r="AH18" s="157"/>
-      <c r="AI18" s="158"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="153"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="156"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="157"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="149"/>
+      <c r="K18" s="150"/>
+      <c r="L18" s="150"/>
+      <c r="M18" s="150"/>
+      <c r="N18" s="150"/>
+      <c r="O18" s="150"/>
+      <c r="P18" s="151"/>
+      <c r="Q18" s="146"/>
+      <c r="R18" s="147"/>
+      <c r="S18" s="147"/>
+      <c r="T18" s="147"/>
+      <c r="U18" s="147"/>
+      <c r="V18" s="147"/>
+      <c r="W18" s="147"/>
+      <c r="X18" s="147"/>
+      <c r="Y18" s="147"/>
+      <c r="Z18" s="147"/>
+      <c r="AA18" s="147"/>
+      <c r="AB18" s="147"/>
+      <c r="AC18" s="147"/>
+      <c r="AD18" s="147"/>
+      <c r="AE18" s="148"/>
+      <c r="AF18" s="149"/>
+      <c r="AG18" s="150"/>
+      <c r="AH18" s="150"/>
+      <c r="AI18" s="151"/>
     </row>
     <row r="19" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="30"/>
-      <c r="B19" s="144"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="171"/>
-      <c r="E19" s="172"/>
-      <c r="F19" s="173"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="156"/>
-      <c r="K19" s="157"/>
-      <c r="L19" s="157"/>
-      <c r="M19" s="157"/>
-      <c r="N19" s="157"/>
-      <c r="O19" s="157"/>
-      <c r="P19" s="158"/>
-      <c r="Q19" s="153"/>
-      <c r="R19" s="154"/>
-      <c r="S19" s="154"/>
-      <c r="T19" s="154"/>
-      <c r="U19" s="154"/>
-      <c r="V19" s="154"/>
-      <c r="W19" s="154"/>
-      <c r="X19" s="154"/>
-      <c r="Y19" s="154"/>
-      <c r="Z19" s="154"/>
-      <c r="AA19" s="154"/>
-      <c r="AB19" s="154"/>
-      <c r="AC19" s="154"/>
-      <c r="AD19" s="154"/>
-      <c r="AE19" s="155"/>
-      <c r="AF19" s="156"/>
-      <c r="AG19" s="157"/>
-      <c r="AH19" s="157"/>
-      <c r="AI19" s="158"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="157"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="149"/>
+      <c r="K19" s="150"/>
+      <c r="L19" s="150"/>
+      <c r="M19" s="150"/>
+      <c r="N19" s="150"/>
+      <c r="O19" s="150"/>
+      <c r="P19" s="151"/>
+      <c r="Q19" s="146"/>
+      <c r="R19" s="147"/>
+      <c r="S19" s="147"/>
+      <c r="T19" s="147"/>
+      <c r="U19" s="147"/>
+      <c r="V19" s="147"/>
+      <c r="W19" s="147"/>
+      <c r="X19" s="147"/>
+      <c r="Y19" s="147"/>
+      <c r="Z19" s="147"/>
+      <c r="AA19" s="147"/>
+      <c r="AB19" s="147"/>
+      <c r="AC19" s="147"/>
+      <c r="AD19" s="147"/>
+      <c r="AE19" s="148"/>
+      <c r="AF19" s="149"/>
+      <c r="AG19" s="150"/>
+      <c r="AH19" s="150"/>
+      <c r="AI19" s="151"/>
     </row>
     <row r="20" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="30"/>
-      <c r="B20" s="144"/>
-      <c r="C20" s="146"/>
-      <c r="D20" s="171"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="173"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="156"/>
-      <c r="K20" s="157"/>
-      <c r="L20" s="157"/>
-      <c r="M20" s="157"/>
-      <c r="N20" s="157"/>
-      <c r="O20" s="157"/>
-      <c r="P20" s="158"/>
-      <c r="Q20" s="153"/>
-      <c r="R20" s="154"/>
-      <c r="S20" s="154"/>
-      <c r="T20" s="154"/>
-      <c r="U20" s="154"/>
-      <c r="V20" s="154"/>
-      <c r="W20" s="154"/>
-      <c r="X20" s="154"/>
-      <c r="Y20" s="154"/>
-      <c r="Z20" s="154"/>
-      <c r="AA20" s="154"/>
-      <c r="AB20" s="154"/>
-      <c r="AC20" s="154"/>
-      <c r="AD20" s="154"/>
-      <c r="AE20" s="155"/>
-      <c r="AF20" s="156"/>
-      <c r="AG20" s="157"/>
-      <c r="AH20" s="157"/>
-      <c r="AI20" s="158"/>
+      <c r="B20" s="152"/>
+      <c r="C20" s="153"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="157"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="149"/>
+      <c r="K20" s="150"/>
+      <c r="L20" s="150"/>
+      <c r="M20" s="150"/>
+      <c r="N20" s="150"/>
+      <c r="O20" s="150"/>
+      <c r="P20" s="151"/>
+      <c r="Q20" s="146"/>
+      <c r="R20" s="147"/>
+      <c r="S20" s="147"/>
+      <c r="T20" s="147"/>
+      <c r="U20" s="147"/>
+      <c r="V20" s="147"/>
+      <c r="W20" s="147"/>
+      <c r="X20" s="147"/>
+      <c r="Y20" s="147"/>
+      <c r="Z20" s="147"/>
+      <c r="AA20" s="147"/>
+      <c r="AB20" s="147"/>
+      <c r="AC20" s="147"/>
+      <c r="AD20" s="147"/>
+      <c r="AE20" s="148"/>
+      <c r="AF20" s="149"/>
+      <c r="AG20" s="150"/>
+      <c r="AH20" s="150"/>
+      <c r="AI20" s="151"/>
     </row>
     <row r="21" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="30"/>
-      <c r="B21" s="144"/>
-      <c r="C21" s="146"/>
-      <c r="D21" s="171"/>
-      <c r="E21" s="172"/>
-      <c r="F21" s="173"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="156"/>
-      <c r="K21" s="157"/>
-      <c r="L21" s="157"/>
-      <c r="M21" s="157"/>
-      <c r="N21" s="157"/>
-      <c r="O21" s="157"/>
-      <c r="P21" s="158"/>
-      <c r="Q21" s="153"/>
-      <c r="R21" s="154"/>
-      <c r="S21" s="154"/>
-      <c r="T21" s="154"/>
-      <c r="U21" s="154"/>
-      <c r="V21" s="154"/>
-      <c r="W21" s="154"/>
-      <c r="X21" s="154"/>
-      <c r="Y21" s="154"/>
-      <c r="Z21" s="154"/>
-      <c r="AA21" s="154"/>
-      <c r="AB21" s="154"/>
-      <c r="AC21" s="154"/>
-      <c r="AD21" s="154"/>
-      <c r="AE21" s="155"/>
-      <c r="AF21" s="156"/>
-      <c r="AG21" s="157"/>
-      <c r="AH21" s="157"/>
-      <c r="AI21" s="158"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="153"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="157"/>
+      <c r="I21" s="153"/>
+      <c r="J21" s="149"/>
+      <c r="K21" s="150"/>
+      <c r="L21" s="150"/>
+      <c r="M21" s="150"/>
+      <c r="N21" s="150"/>
+      <c r="O21" s="150"/>
+      <c r="P21" s="151"/>
+      <c r="Q21" s="146"/>
+      <c r="R21" s="147"/>
+      <c r="S21" s="147"/>
+      <c r="T21" s="147"/>
+      <c r="U21" s="147"/>
+      <c r="V21" s="147"/>
+      <c r="W21" s="147"/>
+      <c r="X21" s="147"/>
+      <c r="Y21" s="147"/>
+      <c r="Z21" s="147"/>
+      <c r="AA21" s="147"/>
+      <c r="AB21" s="147"/>
+      <c r="AC21" s="147"/>
+      <c r="AD21" s="147"/>
+      <c r="AE21" s="148"/>
+      <c r="AF21" s="149"/>
+      <c r="AG21" s="150"/>
+      <c r="AH21" s="150"/>
+      <c r="AI21" s="151"/>
     </row>
     <row r="22" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="30"/>
-      <c r="B22" s="144"/>
-      <c r="C22" s="146"/>
-      <c r="D22" s="171"/>
-      <c r="E22" s="172"/>
-      <c r="F22" s="173"/>
-      <c r="G22" s="144"/>
-      <c r="H22" s="145"/>
-      <c r="I22" s="146"/>
-      <c r="J22" s="156"/>
-      <c r="K22" s="157"/>
-      <c r="L22" s="157"/>
-      <c r="M22" s="157"/>
-      <c r="N22" s="157"/>
-      <c r="O22" s="157"/>
-      <c r="P22" s="158"/>
-      <c r="Q22" s="153"/>
-      <c r="R22" s="154"/>
-      <c r="S22" s="154"/>
-      <c r="T22" s="154"/>
-      <c r="U22" s="154"/>
-      <c r="V22" s="154"/>
-      <c r="W22" s="154"/>
-      <c r="X22" s="154"/>
-      <c r="Y22" s="154"/>
-      <c r="Z22" s="154"/>
-      <c r="AA22" s="154"/>
-      <c r="AB22" s="154"/>
-      <c r="AC22" s="154"/>
-      <c r="AD22" s="154"/>
-      <c r="AE22" s="155"/>
-      <c r="AF22" s="156"/>
-      <c r="AG22" s="157"/>
-      <c r="AH22" s="157"/>
-      <c r="AI22" s="158"/>
+      <c r="B22" s="152"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="157"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="149"/>
+      <c r="K22" s="150"/>
+      <c r="L22" s="150"/>
+      <c r="M22" s="150"/>
+      <c r="N22" s="150"/>
+      <c r="O22" s="150"/>
+      <c r="P22" s="151"/>
+      <c r="Q22" s="146"/>
+      <c r="R22" s="147"/>
+      <c r="S22" s="147"/>
+      <c r="T22" s="147"/>
+      <c r="U22" s="147"/>
+      <c r="V22" s="147"/>
+      <c r="W22" s="147"/>
+      <c r="X22" s="147"/>
+      <c r="Y22" s="147"/>
+      <c r="Z22" s="147"/>
+      <c r="AA22" s="147"/>
+      <c r="AB22" s="147"/>
+      <c r="AC22" s="147"/>
+      <c r="AD22" s="147"/>
+      <c r="AE22" s="148"/>
+      <c r="AF22" s="149"/>
+      <c r="AG22" s="150"/>
+      <c r="AH22" s="150"/>
+      <c r="AI22" s="151"/>
     </row>
     <row r="23" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="30"/>
-      <c r="B23" s="144"/>
-      <c r="C23" s="146"/>
-      <c r="D23" s="171"/>
-      <c r="E23" s="172"/>
-      <c r="F23" s="173"/>
-      <c r="G23" s="144"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="146"/>
-      <c r="J23" s="156"/>
-      <c r="K23" s="157"/>
-      <c r="L23" s="157"/>
-      <c r="M23" s="157"/>
-      <c r="N23" s="157"/>
-      <c r="O23" s="157"/>
-      <c r="P23" s="158"/>
-      <c r="Q23" s="153"/>
-      <c r="R23" s="154"/>
-      <c r="S23" s="154"/>
-      <c r="T23" s="154"/>
-      <c r="U23" s="154"/>
-      <c r="V23" s="154"/>
-      <c r="W23" s="154"/>
-      <c r="X23" s="154"/>
-      <c r="Y23" s="154"/>
-      <c r="Z23" s="154"/>
-      <c r="AA23" s="154"/>
-      <c r="AB23" s="154"/>
-      <c r="AC23" s="154"/>
-      <c r="AD23" s="154"/>
-      <c r="AE23" s="155"/>
-      <c r="AF23" s="156"/>
-      <c r="AG23" s="157"/>
-      <c r="AH23" s="157"/>
-      <c r="AI23" s="158"/>
+      <c r="B23" s="152"/>
+      <c r="C23" s="153"/>
+      <c r="D23" s="154"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="157"/>
+      <c r="I23" s="153"/>
+      <c r="J23" s="149"/>
+      <c r="K23" s="150"/>
+      <c r="L23" s="150"/>
+      <c r="M23" s="150"/>
+      <c r="N23" s="150"/>
+      <c r="O23" s="150"/>
+      <c r="P23" s="151"/>
+      <c r="Q23" s="146"/>
+      <c r="R23" s="147"/>
+      <c r="S23" s="147"/>
+      <c r="T23" s="147"/>
+      <c r="U23" s="147"/>
+      <c r="V23" s="147"/>
+      <c r="W23" s="147"/>
+      <c r="X23" s="147"/>
+      <c r="Y23" s="147"/>
+      <c r="Z23" s="147"/>
+      <c r="AA23" s="147"/>
+      <c r="AB23" s="147"/>
+      <c r="AC23" s="147"/>
+      <c r="AD23" s="147"/>
+      <c r="AE23" s="148"/>
+      <c r="AF23" s="149"/>
+      <c r="AG23" s="150"/>
+      <c r="AH23" s="150"/>
+      <c r="AI23" s="151"/>
     </row>
     <row r="24" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="30"/>
-      <c r="B24" s="144"/>
-      <c r="C24" s="146"/>
-      <c r="D24" s="171"/>
-      <c r="E24" s="172"/>
-      <c r="F24" s="173"/>
-      <c r="G24" s="144"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="146"/>
-      <c r="J24" s="156"/>
-      <c r="K24" s="157"/>
-      <c r="L24" s="157"/>
-      <c r="M24" s="157"/>
-      <c r="N24" s="157"/>
-      <c r="O24" s="157"/>
-      <c r="P24" s="158"/>
-      <c r="Q24" s="153"/>
-      <c r="R24" s="154"/>
-      <c r="S24" s="154"/>
-      <c r="T24" s="154"/>
-      <c r="U24" s="154"/>
-      <c r="V24" s="154"/>
-      <c r="W24" s="154"/>
-      <c r="X24" s="154"/>
-      <c r="Y24" s="154"/>
-      <c r="Z24" s="154"/>
-      <c r="AA24" s="154"/>
-      <c r="AB24" s="154"/>
-      <c r="AC24" s="154"/>
-      <c r="AD24" s="154"/>
-      <c r="AE24" s="155"/>
-      <c r="AF24" s="156"/>
-      <c r="AG24" s="157"/>
-      <c r="AH24" s="157"/>
-      <c r="AI24" s="158"/>
+      <c r="B24" s="152"/>
+      <c r="C24" s="153"/>
+      <c r="D24" s="154"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="157"/>
+      <c r="I24" s="153"/>
+      <c r="J24" s="149"/>
+      <c r="K24" s="150"/>
+      <c r="L24" s="150"/>
+      <c r="M24" s="150"/>
+      <c r="N24" s="150"/>
+      <c r="O24" s="150"/>
+      <c r="P24" s="151"/>
+      <c r="Q24" s="146"/>
+      <c r="R24" s="147"/>
+      <c r="S24" s="147"/>
+      <c r="T24" s="147"/>
+      <c r="U24" s="147"/>
+      <c r="V24" s="147"/>
+      <c r="W24" s="147"/>
+      <c r="X24" s="147"/>
+      <c r="Y24" s="147"/>
+      <c r="Z24" s="147"/>
+      <c r="AA24" s="147"/>
+      <c r="AB24" s="147"/>
+      <c r="AC24" s="147"/>
+      <c r="AD24" s="147"/>
+      <c r="AE24" s="148"/>
+      <c r="AF24" s="149"/>
+      <c r="AG24" s="150"/>
+      <c r="AH24" s="150"/>
+      <c r="AI24" s="151"/>
     </row>
     <row r="25" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="30"/>
-      <c r="B25" s="144"/>
-      <c r="C25" s="146"/>
-      <c r="D25" s="171"/>
-      <c r="E25" s="172"/>
-      <c r="F25" s="173"/>
-      <c r="G25" s="144"/>
-      <c r="H25" s="145"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="156"/>
-      <c r="K25" s="157"/>
-      <c r="L25" s="157"/>
-      <c r="M25" s="157"/>
-      <c r="N25" s="157"/>
-      <c r="O25" s="157"/>
-      <c r="P25" s="158"/>
-      <c r="Q25" s="153"/>
-      <c r="R25" s="154"/>
-      <c r="S25" s="154"/>
-      <c r="T25" s="154"/>
-      <c r="U25" s="154"/>
-      <c r="V25" s="154"/>
-      <c r="W25" s="154"/>
-      <c r="X25" s="154"/>
-      <c r="Y25" s="154"/>
-      <c r="Z25" s="154"/>
-      <c r="AA25" s="154"/>
-      <c r="AB25" s="154"/>
-      <c r="AC25" s="154"/>
-      <c r="AD25" s="154"/>
-      <c r="AE25" s="155"/>
-      <c r="AF25" s="156"/>
-      <c r="AG25" s="157"/>
-      <c r="AH25" s="157"/>
-      <c r="AI25" s="158"/>
+      <c r="B25" s="152"/>
+      <c r="C25" s="153"/>
+      <c r="D25" s="154"/>
+      <c r="E25" s="155"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="157"/>
+      <c r="I25" s="153"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="150"/>
+      <c r="L25" s="150"/>
+      <c r="M25" s="150"/>
+      <c r="N25" s="150"/>
+      <c r="O25" s="150"/>
+      <c r="P25" s="151"/>
+      <c r="Q25" s="146"/>
+      <c r="R25" s="147"/>
+      <c r="S25" s="147"/>
+      <c r="T25" s="147"/>
+      <c r="U25" s="147"/>
+      <c r="V25" s="147"/>
+      <c r="W25" s="147"/>
+      <c r="X25" s="147"/>
+      <c r="Y25" s="147"/>
+      <c r="Z25" s="147"/>
+      <c r="AA25" s="147"/>
+      <c r="AB25" s="147"/>
+      <c r="AC25" s="147"/>
+      <c r="AD25" s="147"/>
+      <c r="AE25" s="148"/>
+      <c r="AF25" s="149"/>
+      <c r="AG25" s="150"/>
+      <c r="AH25" s="150"/>
+      <c r="AI25" s="151"/>
     </row>
     <row r="26" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="30"/>
-      <c r="B26" s="144"/>
-      <c r="C26" s="146"/>
-      <c r="D26" s="171"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="173"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="156"/>
-      <c r="K26" s="157"/>
-      <c r="L26" s="157"/>
-      <c r="M26" s="157"/>
-      <c r="N26" s="157"/>
-      <c r="O26" s="157"/>
-      <c r="P26" s="158"/>
-      <c r="Q26" s="153"/>
-      <c r="R26" s="154"/>
-      <c r="S26" s="154"/>
-      <c r="T26" s="154"/>
-      <c r="U26" s="154"/>
-      <c r="V26" s="154"/>
-      <c r="W26" s="154"/>
-      <c r="X26" s="154"/>
-      <c r="Y26" s="154"/>
-      <c r="Z26" s="154"/>
-      <c r="AA26" s="154"/>
-      <c r="AB26" s="154"/>
-      <c r="AC26" s="154"/>
-      <c r="AD26" s="154"/>
-      <c r="AE26" s="155"/>
-      <c r="AF26" s="156"/>
-      <c r="AG26" s="157"/>
-      <c r="AH26" s="157"/>
-      <c r="AI26" s="158"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="153"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="157"/>
+      <c r="I26" s="153"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
+      <c r="N26" s="150"/>
+      <c r="O26" s="150"/>
+      <c r="P26" s="151"/>
+      <c r="Q26" s="146"/>
+      <c r="R26" s="147"/>
+      <c r="S26" s="147"/>
+      <c r="T26" s="147"/>
+      <c r="U26" s="147"/>
+      <c r="V26" s="147"/>
+      <c r="W26" s="147"/>
+      <c r="X26" s="147"/>
+      <c r="Y26" s="147"/>
+      <c r="Z26" s="147"/>
+      <c r="AA26" s="147"/>
+      <c r="AB26" s="147"/>
+      <c r="AC26" s="147"/>
+      <c r="AD26" s="147"/>
+      <c r="AE26" s="148"/>
+      <c r="AF26" s="149"/>
+      <c r="AG26" s="150"/>
+      <c r="AH26" s="150"/>
+      <c r="AI26" s="151"/>
     </row>
     <row r="27" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
-      <c r="B27" s="144"/>
-      <c r="C27" s="146"/>
-      <c r="D27" s="171"/>
-      <c r="E27" s="172"/>
-      <c r="F27" s="173"/>
-      <c r="G27" s="144"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="156"/>
-      <c r="K27" s="157"/>
-      <c r="L27" s="157"/>
-      <c r="M27" s="157"/>
-      <c r="N27" s="157"/>
-      <c r="O27" s="157"/>
-      <c r="P27" s="158"/>
-      <c r="Q27" s="153"/>
-      <c r="R27" s="154"/>
-      <c r="S27" s="154"/>
-      <c r="T27" s="154"/>
-      <c r="U27" s="154"/>
-      <c r="V27" s="154"/>
-      <c r="W27" s="154"/>
-      <c r="X27" s="154"/>
-      <c r="Y27" s="154"/>
-      <c r="Z27" s="154"/>
-      <c r="AA27" s="154"/>
-      <c r="AB27" s="154"/>
-      <c r="AC27" s="154"/>
-      <c r="AD27" s="154"/>
-      <c r="AE27" s="155"/>
-      <c r="AF27" s="156"/>
-      <c r="AG27" s="157"/>
-      <c r="AH27" s="157"/>
-      <c r="AI27" s="158"/>
+      <c r="B27" s="152"/>
+      <c r="C27" s="153"/>
+      <c r="D27" s="154"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="156"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="157"/>
+      <c r="I27" s="153"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
+      <c r="N27" s="150"/>
+      <c r="O27" s="150"/>
+      <c r="P27" s="151"/>
+      <c r="Q27" s="146"/>
+      <c r="R27" s="147"/>
+      <c r="S27" s="147"/>
+      <c r="T27" s="147"/>
+      <c r="U27" s="147"/>
+      <c r="V27" s="147"/>
+      <c r="W27" s="147"/>
+      <c r="X27" s="147"/>
+      <c r="Y27" s="147"/>
+      <c r="Z27" s="147"/>
+      <c r="AA27" s="147"/>
+      <c r="AB27" s="147"/>
+      <c r="AC27" s="147"/>
+      <c r="AD27" s="147"/>
+      <c r="AE27" s="148"/>
+      <c r="AF27" s="149"/>
+      <c r="AG27" s="150"/>
+      <c r="AH27" s="150"/>
+      <c r="AI27" s="151"/>
     </row>
     <row r="28" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="30"/>
-      <c r="B28" s="144"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="171"/>
-      <c r="E28" s="172"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="145"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="156"/>
-      <c r="K28" s="157"/>
-      <c r="L28" s="157"/>
-      <c r="M28" s="157"/>
-      <c r="N28" s="157"/>
-      <c r="O28" s="157"/>
-      <c r="P28" s="158"/>
-      <c r="Q28" s="153"/>
-      <c r="R28" s="154"/>
-      <c r="S28" s="154"/>
-      <c r="T28" s="154"/>
-      <c r="U28" s="154"/>
-      <c r="V28" s="154"/>
-      <c r="W28" s="154"/>
-      <c r="X28" s="154"/>
-      <c r="Y28" s="154"/>
-      <c r="Z28" s="154"/>
-      <c r="AA28" s="154"/>
-      <c r="AB28" s="154"/>
-      <c r="AC28" s="154"/>
-      <c r="AD28" s="154"/>
-      <c r="AE28" s="155"/>
-      <c r="AF28" s="156"/>
-      <c r="AG28" s="157"/>
-      <c r="AH28" s="157"/>
-      <c r="AI28" s="158"/>
+      <c r="B28" s="152"/>
+      <c r="C28" s="153"/>
+      <c r="D28" s="154"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="157"/>
+      <c r="I28" s="153"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
+      <c r="N28" s="150"/>
+      <c r="O28" s="150"/>
+      <c r="P28" s="151"/>
+      <c r="Q28" s="146"/>
+      <c r="R28" s="147"/>
+      <c r="S28" s="147"/>
+      <c r="T28" s="147"/>
+      <c r="U28" s="147"/>
+      <c r="V28" s="147"/>
+      <c r="W28" s="147"/>
+      <c r="X28" s="147"/>
+      <c r="Y28" s="147"/>
+      <c r="Z28" s="147"/>
+      <c r="AA28" s="147"/>
+      <c r="AB28" s="147"/>
+      <c r="AC28" s="147"/>
+      <c r="AD28" s="147"/>
+      <c r="AE28" s="148"/>
+      <c r="AF28" s="149"/>
+      <c r="AG28" s="150"/>
+      <c r="AH28" s="150"/>
+      <c r="AI28" s="151"/>
     </row>
     <row r="29" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
-      <c r="B29" s="144"/>
-      <c r="C29" s="146"/>
-      <c r="D29" s="171"/>
-      <c r="E29" s="172"/>
-      <c r="F29" s="173"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="145"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="156"/>
-      <c r="K29" s="157"/>
-      <c r="L29" s="157"/>
-      <c r="M29" s="157"/>
-      <c r="N29" s="157"/>
-      <c r="O29" s="157"/>
-      <c r="P29" s="158"/>
-      <c r="Q29" s="153"/>
-      <c r="R29" s="154"/>
-      <c r="S29" s="154"/>
-      <c r="T29" s="154"/>
-      <c r="U29" s="154"/>
-      <c r="V29" s="154"/>
-      <c r="W29" s="154"/>
-      <c r="X29" s="154"/>
-      <c r="Y29" s="154"/>
-      <c r="Z29" s="154"/>
-      <c r="AA29" s="154"/>
-      <c r="AB29" s="154"/>
-      <c r="AC29" s="154"/>
-      <c r="AD29" s="154"/>
-      <c r="AE29" s="155"/>
-      <c r="AF29" s="156"/>
-      <c r="AG29" s="157"/>
-      <c r="AH29" s="157"/>
-      <c r="AI29" s="158"/>
+      <c r="B29" s="152"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="155"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="157"/>
+      <c r="I29" s="153"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
+      <c r="N29" s="150"/>
+      <c r="O29" s="150"/>
+      <c r="P29" s="151"/>
+      <c r="Q29" s="146"/>
+      <c r="R29" s="147"/>
+      <c r="S29" s="147"/>
+      <c r="T29" s="147"/>
+      <c r="U29" s="147"/>
+      <c r="V29" s="147"/>
+      <c r="W29" s="147"/>
+      <c r="X29" s="147"/>
+      <c r="Y29" s="147"/>
+      <c r="Z29" s="147"/>
+      <c r="AA29" s="147"/>
+      <c r="AB29" s="147"/>
+      <c r="AC29" s="147"/>
+      <c r="AD29" s="147"/>
+      <c r="AE29" s="148"/>
+      <c r="AF29" s="149"/>
+      <c r="AG29" s="150"/>
+      <c r="AH29" s="150"/>
+      <c r="AI29" s="151"/>
     </row>
     <row r="30" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
-      <c r="B30" s="144"/>
-      <c r="C30" s="146"/>
-      <c r="D30" s="171"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="173"/>
-      <c r="G30" s="144"/>
-      <c r="H30" s="145"/>
-      <c r="I30" s="146"/>
-      <c r="J30" s="156"/>
-      <c r="K30" s="157"/>
-      <c r="L30" s="157"/>
-      <c r="M30" s="157"/>
-      <c r="N30" s="157"/>
-      <c r="O30" s="157"/>
-      <c r="P30" s="158"/>
-      <c r="Q30" s="153"/>
-      <c r="R30" s="154"/>
-      <c r="S30" s="154"/>
-      <c r="T30" s="154"/>
-      <c r="U30" s="154"/>
-      <c r="V30" s="154"/>
-      <c r="W30" s="154"/>
-      <c r="X30" s="154"/>
-      <c r="Y30" s="154"/>
-      <c r="Z30" s="154"/>
-      <c r="AA30" s="154"/>
-      <c r="AB30" s="154"/>
-      <c r="AC30" s="154"/>
-      <c r="AD30" s="154"/>
-      <c r="AE30" s="155"/>
-      <c r="AF30" s="156"/>
-      <c r="AG30" s="157"/>
-      <c r="AH30" s="157"/>
-      <c r="AI30" s="158"/>
+      <c r="B30" s="152"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="155"/>
+      <c r="F30" s="156"/>
+      <c r="G30" s="152"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="153"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
+      <c r="N30" s="150"/>
+      <c r="O30" s="150"/>
+      <c r="P30" s="151"/>
+      <c r="Q30" s="146"/>
+      <c r="R30" s="147"/>
+      <c r="S30" s="147"/>
+      <c r="T30" s="147"/>
+      <c r="U30" s="147"/>
+      <c r="V30" s="147"/>
+      <c r="W30" s="147"/>
+      <c r="X30" s="147"/>
+      <c r="Y30" s="147"/>
+      <c r="Z30" s="147"/>
+      <c r="AA30" s="147"/>
+      <c r="AB30" s="147"/>
+      <c r="AC30" s="147"/>
+      <c r="AD30" s="147"/>
+      <c r="AE30" s="148"/>
+      <c r="AF30" s="149"/>
+      <c r="AG30" s="150"/>
+      <c r="AH30" s="150"/>
+      <c r="AI30" s="151"/>
     </row>
     <row r="31" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="30"/>
-      <c r="B31" s="144"/>
-      <c r="C31" s="146"/>
-      <c r="D31" s="171"/>
-      <c r="E31" s="172"/>
-      <c r="F31" s="173"/>
-      <c r="G31" s="144"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="146"/>
-      <c r="J31" s="156"/>
-      <c r="K31" s="157"/>
-      <c r="L31" s="157"/>
-      <c r="M31" s="157"/>
-      <c r="N31" s="157"/>
-      <c r="O31" s="157"/>
-      <c r="P31" s="158"/>
-      <c r="Q31" s="153"/>
-      <c r="R31" s="154"/>
-      <c r="S31" s="154"/>
-      <c r="T31" s="154"/>
-      <c r="U31" s="154"/>
-      <c r="V31" s="154"/>
-      <c r="W31" s="154"/>
-      <c r="X31" s="154"/>
-      <c r="Y31" s="154"/>
-      <c r="Z31" s="154"/>
-      <c r="AA31" s="154"/>
-      <c r="AB31" s="154"/>
-      <c r="AC31" s="154"/>
-      <c r="AD31" s="154"/>
-      <c r="AE31" s="155"/>
-      <c r="AF31" s="156"/>
-      <c r="AG31" s="157"/>
-      <c r="AH31" s="157"/>
-      <c r="AI31" s="158"/>
+      <c r="B31" s="152"/>
+      <c r="C31" s="153"/>
+      <c r="D31" s="154"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="152"/>
+      <c r="H31" s="157"/>
+      <c r="I31" s="153"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
+      <c r="N31" s="150"/>
+      <c r="O31" s="150"/>
+      <c r="P31" s="151"/>
+      <c r="Q31" s="146"/>
+      <c r="R31" s="147"/>
+      <c r="S31" s="147"/>
+      <c r="T31" s="147"/>
+      <c r="U31" s="147"/>
+      <c r="V31" s="147"/>
+      <c r="W31" s="147"/>
+      <c r="X31" s="147"/>
+      <c r="Y31" s="147"/>
+      <c r="Z31" s="147"/>
+      <c r="AA31" s="147"/>
+      <c r="AB31" s="147"/>
+      <c r="AC31" s="147"/>
+      <c r="AD31" s="147"/>
+      <c r="AE31" s="148"/>
+      <c r="AF31" s="149"/>
+      <c r="AG31" s="150"/>
+      <c r="AH31" s="150"/>
+      <c r="AI31" s="151"/>
     </row>
     <row r="32" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="30"/>
-      <c r="B32" s="144"/>
-      <c r="C32" s="146"/>
-      <c r="D32" s="171"/>
-      <c r="E32" s="172"/>
-      <c r="F32" s="173"/>
-      <c r="G32" s="144"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="146"/>
-      <c r="J32" s="156"/>
-      <c r="K32" s="157"/>
-      <c r="L32" s="157"/>
-      <c r="M32" s="157"/>
-      <c r="N32" s="157"/>
-      <c r="O32" s="157"/>
-      <c r="P32" s="158"/>
-      <c r="Q32" s="153"/>
-      <c r="R32" s="154"/>
-      <c r="S32" s="154"/>
-      <c r="T32" s="154"/>
-      <c r="U32" s="154"/>
-      <c r="V32" s="154"/>
-      <c r="W32" s="154"/>
-      <c r="X32" s="154"/>
-      <c r="Y32" s="154"/>
-      <c r="Z32" s="154"/>
-      <c r="AA32" s="154"/>
-      <c r="AB32" s="154"/>
-      <c r="AC32" s="154"/>
-      <c r="AD32" s="154"/>
-      <c r="AE32" s="155"/>
-      <c r="AF32" s="156"/>
-      <c r="AG32" s="157"/>
-      <c r="AH32" s="157"/>
-      <c r="AI32" s="158"/>
+      <c r="B32" s="152"/>
+      <c r="C32" s="153"/>
+      <c r="D32" s="154"/>
+      <c r="E32" s="155"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="152"/>
+      <c r="H32" s="157"/>
+      <c r="I32" s="153"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
+      <c r="N32" s="150"/>
+      <c r="O32" s="150"/>
+      <c r="P32" s="151"/>
+      <c r="Q32" s="146"/>
+      <c r="R32" s="147"/>
+      <c r="S32" s="147"/>
+      <c r="T32" s="147"/>
+      <c r="U32" s="147"/>
+      <c r="V32" s="147"/>
+      <c r="W32" s="147"/>
+      <c r="X32" s="147"/>
+      <c r="Y32" s="147"/>
+      <c r="Z32" s="147"/>
+      <c r="AA32" s="147"/>
+      <c r="AB32" s="147"/>
+      <c r="AC32" s="147"/>
+      <c r="AD32" s="147"/>
+      <c r="AE32" s="148"/>
+      <c r="AF32" s="149"/>
+      <c r="AG32" s="150"/>
+      <c r="AH32" s="150"/>
+      <c r="AI32" s="151"/>
     </row>
     <row r="33" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="30"/>
-      <c r="B33" s="144"/>
-      <c r="C33" s="146"/>
-      <c r="D33" s="171"/>
-      <c r="E33" s="172"/>
-      <c r="F33" s="173"/>
-      <c r="G33" s="144"/>
-      <c r="H33" s="145"/>
-      <c r="I33" s="146"/>
-      <c r="J33" s="156"/>
-      <c r="K33" s="157"/>
-      <c r="L33" s="157"/>
-      <c r="M33" s="157"/>
-      <c r="N33" s="157"/>
-      <c r="O33" s="157"/>
-      <c r="P33" s="158"/>
-      <c r="Q33" s="153"/>
-      <c r="R33" s="154"/>
-      <c r="S33" s="154"/>
-      <c r="T33" s="154"/>
-      <c r="U33" s="154"/>
-      <c r="V33" s="154"/>
-      <c r="W33" s="154"/>
-      <c r="X33" s="154"/>
-      <c r="Y33" s="154"/>
-      <c r="Z33" s="154"/>
-      <c r="AA33" s="154"/>
-      <c r="AB33" s="154"/>
-      <c r="AC33" s="154"/>
-      <c r="AD33" s="154"/>
-      <c r="AE33" s="155"/>
-      <c r="AF33" s="156"/>
-      <c r="AG33" s="157"/>
-      <c r="AH33" s="157"/>
-      <c r="AI33" s="158"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="153"/>
+      <c r="D33" s="154"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="156"/>
+      <c r="G33" s="152"/>
+      <c r="H33" s="157"/>
+      <c r="I33" s="153"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
+      <c r="N33" s="150"/>
+      <c r="O33" s="150"/>
+      <c r="P33" s="151"/>
+      <c r="Q33" s="146"/>
+      <c r="R33" s="147"/>
+      <c r="S33" s="147"/>
+      <c r="T33" s="147"/>
+      <c r="U33" s="147"/>
+      <c r="V33" s="147"/>
+      <c r="W33" s="147"/>
+      <c r="X33" s="147"/>
+      <c r="Y33" s="147"/>
+      <c r="Z33" s="147"/>
+      <c r="AA33" s="147"/>
+      <c r="AB33" s="147"/>
+      <c r="AC33" s="147"/>
+      <c r="AD33" s="147"/>
+      <c r="AE33" s="148"/>
+      <c r="AF33" s="149"/>
+      <c r="AG33" s="150"/>
+      <c r="AH33" s="150"/>
+      <c r="AI33" s="151"/>
     </row>
     <row r="34" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="26"/>
@@ -4962,6 +5017,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -4986,161 +5196,6 @@
     <mergeCell ref="AF22:AI22"/>
     <mergeCell ref="J23:P23"/>
     <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <printOptions horizontalCentered="1"/>
@@ -5157,7 +5212,7 @@
   <dimension ref="A1:AI37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5296,158 +5351,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="194" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="200" t="str">
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="215" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="202"/>
-      <c r="O1" s="206" t="s">
+      <c r="F1" s="216"/>
+      <c r="G1" s="216"/>
+      <c r="H1" s="216"/>
+      <c r="I1" s="216"/>
+      <c r="J1" s="216"/>
+      <c r="K1" s="216"/>
+      <c r="L1" s="216"/>
+      <c r="M1" s="216"/>
+      <c r="N1" s="217"/>
+      <c r="O1" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="207"/>
-      <c r="Q1" s="207"/>
-      <c r="R1" s="208"/>
-      <c r="S1" s="215" t="str">
+      <c r="P1" s="198"/>
+      <c r="Q1" s="198"/>
+      <c r="R1" s="199"/>
+      <c r="S1" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10104/汎用エラー</v>
       </c>
-      <c r="T1" s="216"/>
-      <c r="U1" s="216"/>
-      <c r="V1" s="216"/>
-      <c r="W1" s="216"/>
-      <c r="X1" s="216"/>
-      <c r="Y1" s="216"/>
-      <c r="Z1" s="217"/>
-      <c r="AA1" s="203" t="s">
+      <c r="T1" s="207"/>
+      <c r="U1" s="207"/>
+      <c r="V1" s="207"/>
+      <c r="W1" s="207"/>
+      <c r="X1" s="207"/>
+      <c r="Y1" s="207"/>
+      <c r="Z1" s="208"/>
+      <c r="AA1" s="194" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="205"/>
-      <c r="AC1" s="194" t="str">
+      <c r="AB1" s="196"/>
+      <c r="AC1" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="196"/>
-      <c r="AG1" s="197">
+      <c r="AD1" s="219"/>
+      <c r="AE1" s="219"/>
+      <c r="AF1" s="220"/>
+      <c r="AG1" s="221">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="198"/>
-      <c r="AI1" s="199"/>
+      <c r="AH1" s="222"/>
+      <c r="AI1" s="223"/>
     </row>
     <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="203" t="s">
+      <c r="A2" s="194" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="200" t="str">
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="215" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="202"/>
-      <c r="O2" s="209"/>
-      <c r="P2" s="210"/>
-      <c r="Q2" s="210"/>
-      <c r="R2" s="211"/>
-      <c r="S2" s="218"/>
-      <c r="T2" s="219"/>
-      <c r="U2" s="219"/>
-      <c r="V2" s="219"/>
-      <c r="W2" s="219"/>
-      <c r="X2" s="219"/>
-      <c r="Y2" s="219"/>
-      <c r="Z2" s="220"/>
-      <c r="AA2" s="203" t="s">
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="216"/>
+      <c r="N2" s="217"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="209"/>
+      <c r="T2" s="210"/>
+      <c r="U2" s="210"/>
+      <c r="V2" s="210"/>
+      <c r="W2" s="210"/>
+      <c r="X2" s="210"/>
+      <c r="Y2" s="210"/>
+      <c r="Z2" s="211"/>
+      <c r="AA2" s="194" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="194" t="str">
+      <c r="AB2" s="196"/>
+      <c r="AC2" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="197" t="str">
+      <c r="AD2" s="219"/>
+      <c r="AE2" s="219"/>
+      <c r="AF2" s="220"/>
+      <c r="AG2" s="221" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="199"/>
+      <c r="AH2" s="222"/>
+      <c r="AI2" s="223"/>
     </row>
     <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="203" t="s">
+      <c r="A3" s="194" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="200" t="str">
+      <c r="B3" s="195"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="215" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="202"/>
-      <c r="O3" s="212"/>
-      <c r="P3" s="213"/>
-      <c r="Q3" s="213"/>
-      <c r="R3" s="214"/>
-      <c r="S3" s="221"/>
-      <c r="T3" s="222"/>
-      <c r="U3" s="222"/>
-      <c r="V3" s="222"/>
-      <c r="W3" s="222"/>
-      <c r="X3" s="222"/>
-      <c r="Y3" s="222"/>
-      <c r="Z3" s="223"/>
-      <c r="AA3" s="203"/>
-      <c r="AB3" s="205"/>
-      <c r="AC3" s="194" t="str">
+      <c r="F3" s="216"/>
+      <c r="G3" s="216"/>
+      <c r="H3" s="216"/>
+      <c r="I3" s="216"/>
+      <c r="J3" s="216"/>
+      <c r="K3" s="216"/>
+      <c r="L3" s="216"/>
+      <c r="M3" s="216"/>
+      <c r="N3" s="217"/>
+      <c r="O3" s="203"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="205"/>
+      <c r="S3" s="212"/>
+      <c r="T3" s="213"/>
+      <c r="U3" s="213"/>
+      <c r="V3" s="213"/>
+      <c r="W3" s="213"/>
+      <c r="X3" s="213"/>
+      <c r="Y3" s="213"/>
+      <c r="Z3" s="214"/>
+      <c r="AA3" s="194"/>
+      <c r="AB3" s="196"/>
+      <c r="AC3" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="196"/>
-      <c r="AG3" s="197" t="str">
+      <c r="AD3" s="219"/>
+      <c r="AE3" s="219"/>
+      <c r="AF3" s="220"/>
+      <c r="AG3" s="221" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="198"/>
-      <c r="AI3" s="199"/>
+      <c r="AH3" s="222"/>
+      <c r="AI3" s="223"/>
     </row>
     <row r="4" spans="1:35" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
@@ -6329,6 +6384,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -6338,14 +6401,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -6362,7 +6417,7 @@
   <dimension ref="A1:AI52"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -6371,158 +6426,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="194" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="200" t="str">
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="215" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="202"/>
-      <c r="O1" s="206" t="s">
+      <c r="F1" s="216"/>
+      <c r="G1" s="216"/>
+      <c r="H1" s="216"/>
+      <c r="I1" s="216"/>
+      <c r="J1" s="216"/>
+      <c r="K1" s="216"/>
+      <c r="L1" s="216"/>
+      <c r="M1" s="216"/>
+      <c r="N1" s="217"/>
+      <c r="O1" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="207"/>
-      <c r="Q1" s="207"/>
-      <c r="R1" s="208"/>
-      <c r="S1" s="215" t="str">
+      <c r="P1" s="198"/>
+      <c r="Q1" s="198"/>
+      <c r="R1" s="199"/>
+      <c r="S1" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10104/汎用エラー</v>
       </c>
-      <c r="T1" s="216"/>
-      <c r="U1" s="216"/>
-      <c r="V1" s="216"/>
-      <c r="W1" s="216"/>
-      <c r="X1" s="216"/>
-      <c r="Y1" s="216"/>
-      <c r="Z1" s="217"/>
-      <c r="AA1" s="203" t="s">
+      <c r="T1" s="207"/>
+      <c r="U1" s="207"/>
+      <c r="V1" s="207"/>
+      <c r="W1" s="207"/>
+      <c r="X1" s="207"/>
+      <c r="Y1" s="207"/>
+      <c r="Z1" s="208"/>
+      <c r="AA1" s="194" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="205"/>
-      <c r="AC1" s="194" t="str">
+      <c r="AB1" s="196"/>
+      <c r="AC1" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="196"/>
-      <c r="AG1" s="197">
+      <c r="AD1" s="219"/>
+      <c r="AE1" s="219"/>
+      <c r="AF1" s="220"/>
+      <c r="AG1" s="221">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="198"/>
-      <c r="AI1" s="199"/>
+      <c r="AH1" s="222"/>
+      <c r="AI1" s="223"/>
     </row>
     <row r="2" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="203" t="s">
+      <c r="A2" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="200" t="str">
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="215" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="202"/>
-      <c r="O2" s="209"/>
-      <c r="P2" s="210"/>
-      <c r="Q2" s="210"/>
-      <c r="R2" s="211"/>
-      <c r="S2" s="218"/>
-      <c r="T2" s="219"/>
-      <c r="U2" s="219"/>
-      <c r="V2" s="219"/>
-      <c r="W2" s="219"/>
-      <c r="X2" s="219"/>
-      <c r="Y2" s="219"/>
-      <c r="Z2" s="220"/>
-      <c r="AA2" s="203" t="s">
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="216"/>
+      <c r="N2" s="217"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="209"/>
+      <c r="T2" s="210"/>
+      <c r="U2" s="210"/>
+      <c r="V2" s="210"/>
+      <c r="W2" s="210"/>
+      <c r="X2" s="210"/>
+      <c r="Y2" s="210"/>
+      <c r="Z2" s="211"/>
+      <c r="AA2" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="194" t="str">
+      <c r="AB2" s="196"/>
+      <c r="AC2" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="197" t="str">
+      <c r="AD2" s="219"/>
+      <c r="AE2" s="219"/>
+      <c r="AF2" s="220"/>
+      <c r="AG2" s="221" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="199"/>
+      <c r="AH2" s="222"/>
+      <c r="AI2" s="223"/>
     </row>
     <row r="3" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="203" t="s">
+      <c r="A3" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="200" t="str">
+      <c r="B3" s="195"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="215" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="202"/>
-      <c r="O3" s="212"/>
-      <c r="P3" s="213"/>
-      <c r="Q3" s="213"/>
-      <c r="R3" s="214"/>
-      <c r="S3" s="221"/>
-      <c r="T3" s="222"/>
-      <c r="U3" s="222"/>
-      <c r="V3" s="222"/>
-      <c r="W3" s="222"/>
-      <c r="X3" s="222"/>
-      <c r="Y3" s="222"/>
-      <c r="Z3" s="223"/>
-      <c r="AA3" s="203"/>
-      <c r="AB3" s="205"/>
-      <c r="AC3" s="194" t="str">
+      <c r="F3" s="216"/>
+      <c r="G3" s="216"/>
+      <c r="H3" s="216"/>
+      <c r="I3" s="216"/>
+      <c r="J3" s="216"/>
+      <c r="K3" s="216"/>
+      <c r="L3" s="216"/>
+      <c r="M3" s="216"/>
+      <c r="N3" s="217"/>
+      <c r="O3" s="203"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="205"/>
+      <c r="S3" s="212"/>
+      <c r="T3" s="213"/>
+      <c r="U3" s="213"/>
+      <c r="V3" s="213"/>
+      <c r="W3" s="213"/>
+      <c r="X3" s="213"/>
+      <c r="Y3" s="213"/>
+      <c r="Z3" s="214"/>
+      <c r="AA3" s="194"/>
+      <c r="AB3" s="196"/>
+      <c r="AC3" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="196"/>
-      <c r="AG3" s="197" t="str">
+      <c r="AD3" s="219"/>
+      <c r="AE3" s="219"/>
+      <c r="AF3" s="220"/>
+      <c r="AG3" s="221" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="198"/>
-      <c r="AI3" s="199"/>
+      <c r="AH3" s="222"/>
+      <c r="AI3" s="223"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -6830,6 +6885,18 @@
     <row r="52" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C10:F13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:AG8"/>
+    <mergeCell ref="G9:AG9"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -6841,18 +6908,6 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C10:F13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:AG8"/>
-    <mergeCell ref="G9:AG9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -6872,7 +6927,7 @@
   <dimension ref="A1:BF80"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -6883,160 +6938,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="279" t="s">
+      <c r="A1" s="273" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="280"/>
-      <c r="C1" s="280"/>
-      <c r="D1" s="281"/>
-      <c r="E1" s="200" t="str">
+      <c r="B1" s="274"/>
+      <c r="C1" s="274"/>
+      <c r="D1" s="275"/>
+      <c r="E1" s="215" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="202"/>
-      <c r="O1" s="206" t="s">
+      <c r="F1" s="216"/>
+      <c r="G1" s="216"/>
+      <c r="H1" s="216"/>
+      <c r="I1" s="216"/>
+      <c r="J1" s="216"/>
+      <c r="K1" s="216"/>
+      <c r="L1" s="216"/>
+      <c r="M1" s="216"/>
+      <c r="N1" s="217"/>
+      <c r="O1" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="207"/>
-      <c r="Q1" s="207"/>
-      <c r="R1" s="208"/>
-      <c r="S1" s="215" t="str">
+      <c r="P1" s="198"/>
+      <c r="Q1" s="198"/>
+      <c r="R1" s="199"/>
+      <c r="S1" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10104/汎用エラー</v>
       </c>
-      <c r="T1" s="216"/>
-      <c r="U1" s="216"/>
-      <c r="V1" s="216"/>
-      <c r="W1" s="216"/>
-      <c r="X1" s="216"/>
-      <c r="Y1" s="216"/>
-      <c r="Z1" s="217"/>
-      <c r="AA1" s="203" t="s">
+      <c r="T1" s="207"/>
+      <c r="U1" s="207"/>
+      <c r="V1" s="207"/>
+      <c r="W1" s="207"/>
+      <c r="X1" s="207"/>
+      <c r="Y1" s="207"/>
+      <c r="Z1" s="208"/>
+      <c r="AA1" s="194" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="205"/>
-      <c r="AC1" s="194" t="str">
+      <c r="AB1" s="196"/>
+      <c r="AC1" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="196"/>
-      <c r="AG1" s="276">
+      <c r="AD1" s="219"/>
+      <c r="AE1" s="219"/>
+      <c r="AF1" s="220"/>
+      <c r="AG1" s="270">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="277"/>
-      <c r="AI1" s="278"/>
+      <c r="AH1" s="271"/>
+      <c r="AI1" s="272"/>
       <c r="AJ1" s="94"/>
     </row>
     <row r="2" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="279" t="s">
+      <c r="A2" s="273" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="280"/>
-      <c r="C2" s="280"/>
-      <c r="D2" s="281"/>
-      <c r="E2" s="200" t="str">
+      <c r="B2" s="274"/>
+      <c r="C2" s="274"/>
+      <c r="D2" s="275"/>
+      <c r="E2" s="215" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="202"/>
-      <c r="O2" s="209"/>
-      <c r="P2" s="210"/>
-      <c r="Q2" s="210"/>
-      <c r="R2" s="211"/>
-      <c r="S2" s="218"/>
-      <c r="T2" s="219"/>
-      <c r="U2" s="219"/>
-      <c r="V2" s="219"/>
-      <c r="W2" s="219"/>
-      <c r="X2" s="219"/>
-      <c r="Y2" s="219"/>
-      <c r="Z2" s="220"/>
-      <c r="AA2" s="203" t="s">
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="216"/>
+      <c r="N2" s="217"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="209"/>
+      <c r="T2" s="210"/>
+      <c r="U2" s="210"/>
+      <c r="V2" s="210"/>
+      <c r="W2" s="210"/>
+      <c r="X2" s="210"/>
+      <c r="Y2" s="210"/>
+      <c r="Z2" s="211"/>
+      <c r="AA2" s="194" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="194" t="str">
+      <c r="AB2" s="196"/>
+      <c r="AC2" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="276" t="str">
+      <c r="AD2" s="219"/>
+      <c r="AE2" s="219"/>
+      <c r="AF2" s="220"/>
+      <c r="AG2" s="270" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="277"/>
-      <c r="AI2" s="278"/>
+      <c r="AH2" s="271"/>
+      <c r="AI2" s="272"/>
       <c r="AJ2" s="94"/>
     </row>
     <row r="3" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="279" t="s">
+      <c r="A3" s="273" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="280"/>
-      <c r="C3" s="280"/>
-      <c r="D3" s="281"/>
-      <c r="E3" s="200" t="str">
+      <c r="B3" s="274"/>
+      <c r="C3" s="274"/>
+      <c r="D3" s="275"/>
+      <c r="E3" s="215" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="202"/>
-      <c r="O3" s="212"/>
-      <c r="P3" s="213"/>
-      <c r="Q3" s="213"/>
-      <c r="R3" s="214"/>
-      <c r="S3" s="221"/>
-      <c r="T3" s="222"/>
-      <c r="U3" s="222"/>
-      <c r="V3" s="222"/>
-      <c r="W3" s="222"/>
-      <c r="X3" s="222"/>
-      <c r="Y3" s="222"/>
-      <c r="Z3" s="223"/>
-      <c r="AA3" s="203"/>
-      <c r="AB3" s="205"/>
-      <c r="AC3" s="194" t="str">
+      <c r="F3" s="216"/>
+      <c r="G3" s="216"/>
+      <c r="H3" s="216"/>
+      <c r="I3" s="216"/>
+      <c r="J3" s="216"/>
+      <c r="K3" s="216"/>
+      <c r="L3" s="216"/>
+      <c r="M3" s="216"/>
+      <c r="N3" s="217"/>
+      <c r="O3" s="203"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="205"/>
+      <c r="S3" s="212"/>
+      <c r="T3" s="213"/>
+      <c r="U3" s="213"/>
+      <c r="V3" s="213"/>
+      <c r="W3" s="213"/>
+      <c r="X3" s="213"/>
+      <c r="Y3" s="213"/>
+      <c r="Z3" s="214"/>
+      <c r="AA3" s="194"/>
+      <c r="AB3" s="196"/>
+      <c r="AC3" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="196"/>
-      <c r="AG3" s="276" t="str">
+      <c r="AD3" s="219"/>
+      <c r="AE3" s="219"/>
+      <c r="AF3" s="220"/>
+      <c r="AG3" s="270" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="277"/>
-      <c r="AI3" s="278"/>
+      <c r="AH3" s="271"/>
+      <c r="AI3" s="272"/>
       <c r="AJ3" s="94"/>
     </row>
     <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7188,39 +7243,39 @@
       <c r="D43" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="285" t="s">
+      <c r="E43" s="269" t="s">
         <v>54</v>
       </c>
-      <c r="F43" s="285"/>
-      <c r="G43" s="285"/>
-      <c r="H43" s="285"/>
-      <c r="I43" s="285"/>
-      <c r="J43" s="285"/>
-      <c r="K43" s="285"/>
-      <c r="L43" s="285"/>
-      <c r="M43" s="285"/>
-      <c r="N43" s="285" t="s">
+      <c r="F43" s="269"/>
+      <c r="G43" s="269"/>
+      <c r="H43" s="269"/>
+      <c r="I43" s="269"/>
+      <c r="J43" s="269"/>
+      <c r="K43" s="269"/>
+      <c r="L43" s="269"/>
+      <c r="M43" s="269"/>
+      <c r="N43" s="269" t="s">
         <v>55</v>
       </c>
-      <c r="O43" s="285"/>
-      <c r="P43" s="285"/>
-      <c r="Q43" s="285" t="s">
+      <c r="O43" s="269"/>
+      <c r="P43" s="269"/>
+      <c r="Q43" s="269" t="s">
         <v>56</v>
       </c>
-      <c r="R43" s="285"/>
-      <c r="S43" s="285"/>
-      <c r="T43" s="285"/>
-      <c r="U43" s="285"/>
-      <c r="V43" s="285" t="s">
+      <c r="R43" s="269"/>
+      <c r="S43" s="269"/>
+      <c r="T43" s="269"/>
+      <c r="U43" s="269"/>
+      <c r="V43" s="269" t="s">
         <v>57</v>
       </c>
-      <c r="W43" s="285"/>
-      <c r="X43" s="285"/>
-      <c r="Y43" s="285"/>
-      <c r="Z43" s="285"/>
-      <c r="AA43" s="285"/>
-      <c r="AB43" s="285"/>
-      <c r="AC43" s="285"/>
+      <c r="W43" s="269"/>
+      <c r="X43" s="269"/>
+      <c r="Y43" s="269"/>
+      <c r="Z43" s="269"/>
+      <c r="AA43" s="269"/>
+      <c r="AB43" s="269"/>
+      <c r="AC43" s="269"/>
       <c r="AD43" s="96"/>
       <c r="AE43" s="96"/>
       <c r="AF43" s="96"/>
@@ -7231,39 +7286,39 @@
       <c r="D44" s="98">
         <v>1</v>
       </c>
-      <c r="E44" s="300" t="s">
+      <c r="E44" s="261" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="300"/>
-      <c r="G44" s="300"/>
-      <c r="H44" s="300"/>
-      <c r="I44" s="300"/>
-      <c r="J44" s="300"/>
-      <c r="K44" s="300"/>
-      <c r="L44" s="300"/>
-      <c r="M44" s="300"/>
-      <c r="N44" s="300" t="s">
+      <c r="F44" s="261"/>
+      <c r="G44" s="261"/>
+      <c r="H44" s="261"/>
+      <c r="I44" s="261"/>
+      <c r="J44" s="261"/>
+      <c r="K44" s="261"/>
+      <c r="L44" s="261"/>
+      <c r="M44" s="261"/>
+      <c r="N44" s="261" t="s">
         <v>39</v>
       </c>
-      <c r="O44" s="300"/>
-      <c r="P44" s="300"/>
-      <c r="Q44" s="295" t="s">
+      <c r="O44" s="261"/>
+      <c r="P44" s="261"/>
+      <c r="Q44" s="251" t="s">
         <v>39</v>
       </c>
-      <c r="R44" s="295"/>
-      <c r="S44" s="295"/>
-      <c r="T44" s="295"/>
-      <c r="U44" s="295"/>
-      <c r="V44" s="295" t="s">
+      <c r="R44" s="251"/>
+      <c r="S44" s="251"/>
+      <c r="T44" s="251"/>
+      <c r="U44" s="251"/>
+      <c r="V44" s="251" t="s">
         <v>39</v>
       </c>
-      <c r="W44" s="295"/>
-      <c r="X44" s="295"/>
-      <c r="Y44" s="295"/>
-      <c r="Z44" s="295"/>
-      <c r="AA44" s="295"/>
-      <c r="AB44" s="295"/>
-      <c r="AC44" s="295"/>
+      <c r="W44" s="251"/>
+      <c r="X44" s="251"/>
+      <c r="Y44" s="251"/>
+      <c r="Z44" s="251"/>
+      <c r="AA44" s="251"/>
+      <c r="AB44" s="251"/>
+      <c r="AC44" s="251"/>
       <c r="AM44" s="40"/>
     </row>
     <row r="45" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7340,36 +7395,36 @@
       <c r="AZ48" s="49"/>
     </row>
     <row r="49" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D49" s="286" t="s">
+      <c r="D49" s="242" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="270" t="s">
+      <c r="E49" s="256" t="s">
         <v>58</v>
       </c>
-      <c r="F49" s="271"/>
-      <c r="G49" s="271"/>
-      <c r="H49" s="271"/>
-      <c r="I49" s="271"/>
-      <c r="J49" s="271"/>
-      <c r="K49" s="271"/>
-      <c r="L49" s="271"/>
-      <c r="M49" s="271"/>
-      <c r="N49" s="271"/>
-      <c r="O49" s="271"/>
-      <c r="P49" s="271"/>
-      <c r="Q49" s="271"/>
-      <c r="R49" s="271"/>
-      <c r="S49" s="271"/>
-      <c r="T49" s="271"/>
-      <c r="U49" s="271"/>
-      <c r="V49" s="271"/>
-      <c r="W49" s="271"/>
-      <c r="X49" s="271"/>
-      <c r="Y49" s="271"/>
-      <c r="Z49" s="271"/>
-      <c r="AA49" s="271"/>
-      <c r="AB49" s="271"/>
-      <c r="AC49" s="272"/>
+      <c r="F49" s="257"/>
+      <c r="G49" s="257"/>
+      <c r="H49" s="257"/>
+      <c r="I49" s="257"/>
+      <c r="J49" s="257"/>
+      <c r="K49" s="257"/>
+      <c r="L49" s="257"/>
+      <c r="M49" s="257"/>
+      <c r="N49" s="257"/>
+      <c r="O49" s="257"/>
+      <c r="P49" s="257"/>
+      <c r="Q49" s="257"/>
+      <c r="R49" s="257"/>
+      <c r="S49" s="257"/>
+      <c r="T49" s="257"/>
+      <c r="U49" s="257"/>
+      <c r="V49" s="257"/>
+      <c r="W49" s="257"/>
+      <c r="X49" s="257"/>
+      <c r="Y49" s="257"/>
+      <c r="Z49" s="257"/>
+      <c r="AA49" s="257"/>
+      <c r="AB49" s="257"/>
+      <c r="AC49" s="258"/>
       <c r="AD49" s="225" t="s">
         <v>59</v>
       </c>
@@ -7388,29 +7443,29 @@
       <c r="AQ49" s="81"/>
     </row>
     <row r="50" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D50" s="287"/>
+      <c r="D50" s="243"/>
       <c r="E50" s="225" t="s">
         <v>60</v>
       </c>
       <c r="F50" s="226"/>
       <c r="G50" s="226"/>
       <c r="H50" s="227"/>
-      <c r="I50" s="289" t="s">
+      <c r="I50" s="245" t="s">
         <v>61</v>
       </c>
-      <c r="J50" s="290"/>
-      <c r="K50" s="290"/>
-      <c r="L50" s="291"/>
-      <c r="M50" s="289" t="s">
+      <c r="J50" s="246"/>
+      <c r="K50" s="246"/>
+      <c r="L50" s="247"/>
+      <c r="M50" s="245" t="s">
         <v>62</v>
       </c>
-      <c r="N50" s="290"/>
-      <c r="O50" s="290"/>
-      <c r="P50" s="290"/>
-      <c r="Q50" s="290"/>
-      <c r="R50" s="290"/>
-      <c r="S50" s="290"/>
-      <c r="T50" s="291"/>
+      <c r="N50" s="246"/>
+      <c r="O50" s="246"/>
+      <c r="P50" s="246"/>
+      <c r="Q50" s="246"/>
+      <c r="R50" s="246"/>
+      <c r="S50" s="246"/>
+      <c r="T50" s="247"/>
       <c r="U50" s="225" t="s">
         <v>63</v>
       </c>
@@ -7423,7 +7478,7 @@
       </c>
       <c r="AA50" s="226"/>
       <c r="AB50" s="227"/>
-      <c r="AC50" s="304" t="s">
+      <c r="AC50" s="259" t="s">
         <v>116</v>
       </c>
       <c r="AD50" s="228"/>
@@ -7445,23 +7500,23 @@
       <c r="AT50" s="49"/>
     </row>
     <row r="51" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D51" s="288"/>
+      <c r="D51" s="244"/>
       <c r="E51" s="231"/>
       <c r="F51" s="232"/>
       <c r="G51" s="232"/>
       <c r="H51" s="233"/>
-      <c r="I51" s="292"/>
-      <c r="J51" s="293"/>
-      <c r="K51" s="293"/>
-      <c r="L51" s="294"/>
-      <c r="M51" s="292"/>
-      <c r="N51" s="293"/>
-      <c r="O51" s="293"/>
-      <c r="P51" s="293"/>
-      <c r="Q51" s="293"/>
-      <c r="R51" s="293"/>
-      <c r="S51" s="293"/>
-      <c r="T51" s="294"/>
+      <c r="I51" s="248"/>
+      <c r="J51" s="249"/>
+      <c r="K51" s="249"/>
+      <c r="L51" s="250"/>
+      <c r="M51" s="248"/>
+      <c r="N51" s="249"/>
+      <c r="O51" s="249"/>
+      <c r="P51" s="249"/>
+      <c r="Q51" s="249"/>
+      <c r="R51" s="249"/>
+      <c r="S51" s="249"/>
+      <c r="T51" s="250"/>
       <c r="U51" s="231"/>
       <c r="V51" s="232"/>
       <c r="W51" s="232"/>
@@ -7470,7 +7525,7 @@
       <c r="Z51" s="231"/>
       <c r="AA51" s="232"/>
       <c r="AB51" s="233"/>
-      <c r="AC51" s="305"/>
+      <c r="AC51" s="260"/>
       <c r="AD51" s="231"/>
       <c r="AE51" s="232"/>
       <c r="AF51" s="232"/>
@@ -7498,44 +7553,44 @@
       </c>
       <c r="F52" s="238"/>
       <c r="G52" s="238"/>
-      <c r="H52" s="296"/>
-      <c r="I52" s="297" t="s">
+      <c r="H52" s="252"/>
+      <c r="I52" s="253" t="s">
         <v>39</v>
       </c>
-      <c r="J52" s="298"/>
-      <c r="K52" s="298"/>
-      <c r="L52" s="299"/>
-      <c r="M52" s="301" t="s">
+      <c r="J52" s="254"/>
+      <c r="K52" s="254"/>
+      <c r="L52" s="255"/>
+      <c r="M52" s="262" t="s">
         <v>39</v>
       </c>
-      <c r="N52" s="302"/>
-      <c r="O52" s="302"/>
-      <c r="P52" s="302"/>
-      <c r="Q52" s="302"/>
-      <c r="R52" s="302"/>
-      <c r="S52" s="302"/>
-      <c r="T52" s="303"/>
-      <c r="U52" s="245" t="s">
+      <c r="N52" s="263"/>
+      <c r="O52" s="263"/>
+      <c r="P52" s="263"/>
+      <c r="Q52" s="263"/>
+      <c r="R52" s="263"/>
+      <c r="S52" s="263"/>
+      <c r="T52" s="264"/>
+      <c r="U52" s="265" t="s">
         <v>39</v>
       </c>
-      <c r="V52" s="246"/>
-      <c r="W52" s="246"/>
-      <c r="X52" s="246"/>
-      <c r="Y52" s="247"/>
-      <c r="Z52" s="284" t="s">
+      <c r="V52" s="266"/>
+      <c r="W52" s="266"/>
+      <c r="X52" s="266"/>
+      <c r="Y52" s="267"/>
+      <c r="Z52" s="268" t="s">
         <v>39</v>
       </c>
-      <c r="AA52" s="284"/>
-      <c r="AB52" s="284"/>
+      <c r="AA52" s="268"/>
+      <c r="AB52" s="268"/>
       <c r="AC52" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="AD52" s="245" t="s">
+      <c r="AD52" s="265" t="s">
         <v>39</v>
       </c>
-      <c r="AE52" s="246"/>
-      <c r="AF52" s="246"/>
-      <c r="AG52" s="247"/>
+      <c r="AE52" s="266"/>
+      <c r="AF52" s="266"/>
+      <c r="AG52" s="267"/>
       <c r="AH52" s="49"/>
       <c r="AI52" s="49"/>
       <c r="AJ52" s="49"/>
@@ -7658,24 +7713,24 @@
       <c r="AW56" s="42"/>
     </row>
     <row r="57" spans="3:53" x14ac:dyDescent="0.2">
-      <c r="D57" s="259" t="s">
+      <c r="D57" s="294" t="s">
         <v>30</v>
       </c>
-      <c r="E57" s="261" t="s">
+      <c r="E57" s="276" t="s">
         <v>65</v>
       </c>
-      <c r="F57" s="262"/>
-      <c r="G57" s="262"/>
-      <c r="H57" s="262"/>
-      <c r="I57" s="262"/>
-      <c r="J57" s="263"/>
-      <c r="K57" s="261" t="s">
+      <c r="F57" s="277"/>
+      <c r="G57" s="277"/>
+      <c r="H57" s="277"/>
+      <c r="I57" s="277"/>
+      <c r="J57" s="278"/>
+      <c r="K57" s="276" t="s">
         <v>66</v>
       </c>
-      <c r="L57" s="262"/>
-      <c r="M57" s="262"/>
-      <c r="N57" s="263"/>
-      <c r="O57" s="248" t="s">
+      <c r="L57" s="277"/>
+      <c r="M57" s="277"/>
+      <c r="N57" s="278"/>
+      <c r="O57" s="299" t="s">
         <v>67</v>
       </c>
       <c r="P57" s="107" t="s">
@@ -7686,21 +7741,21 @@
       <c r="S57" s="108"/>
       <c r="T57" s="108"/>
       <c r="U57" s="108"/>
-      <c r="V57" s="261" t="s">
+      <c r="V57" s="276" t="s">
         <v>57</v>
       </c>
-      <c r="W57" s="262"/>
-      <c r="X57" s="262"/>
-      <c r="Y57" s="262"/>
-      <c r="Z57" s="262"/>
-      <c r="AA57" s="262"/>
-      <c r="AB57" s="262"/>
-      <c r="AC57" s="262"/>
-      <c r="AD57" s="262"/>
-      <c r="AE57" s="262"/>
-      <c r="AF57" s="262"/>
-      <c r="AG57" s="262"/>
-      <c r="AH57" s="263"/>
+      <c r="W57" s="277"/>
+      <c r="X57" s="277"/>
+      <c r="Y57" s="277"/>
+      <c r="Z57" s="277"/>
+      <c r="AA57" s="277"/>
+      <c r="AB57" s="277"/>
+      <c r="AC57" s="277"/>
+      <c r="AD57" s="277"/>
+      <c r="AE57" s="277"/>
+      <c r="AF57" s="277"/>
+      <c r="AG57" s="277"/>
+      <c r="AH57" s="278"/>
       <c r="AK57" s="42"/>
       <c r="AL57" s="42"/>
       <c r="AM57" s="42"/>
@@ -7716,18 +7771,18 @@
       <c r="AW57" s="42"/>
     </row>
     <row r="58" spans="3:53" x14ac:dyDescent="0.2">
-      <c r="D58" s="260"/>
-      <c r="E58" s="264"/>
-      <c r="F58" s="265"/>
-      <c r="G58" s="265"/>
-      <c r="H58" s="265"/>
-      <c r="I58" s="265"/>
-      <c r="J58" s="266"/>
-      <c r="K58" s="264"/>
-      <c r="L58" s="265"/>
-      <c r="M58" s="265"/>
-      <c r="N58" s="266"/>
-      <c r="O58" s="249"/>
+      <c r="D58" s="295"/>
+      <c r="E58" s="279"/>
+      <c r="F58" s="280"/>
+      <c r="G58" s="280"/>
+      <c r="H58" s="280"/>
+      <c r="I58" s="280"/>
+      <c r="J58" s="281"/>
+      <c r="K58" s="279"/>
+      <c r="L58" s="280"/>
+      <c r="M58" s="280"/>
+      <c r="N58" s="281"/>
+      <c r="O58" s="300"/>
       <c r="P58" s="109" t="s">
         <v>69</v>
       </c>
@@ -7744,19 +7799,19 @@
         <v>73</v>
       </c>
       <c r="U58" s="283"/>
-      <c r="V58" s="264"/>
-      <c r="W58" s="265"/>
-      <c r="X58" s="265"/>
-      <c r="Y58" s="265"/>
-      <c r="Z58" s="265"/>
-      <c r="AA58" s="265"/>
-      <c r="AB58" s="265"/>
-      <c r="AC58" s="265"/>
-      <c r="AD58" s="265"/>
-      <c r="AE58" s="265"/>
-      <c r="AF58" s="265"/>
-      <c r="AG58" s="265"/>
-      <c r="AH58" s="266"/>
+      <c r="V58" s="279"/>
+      <c r="W58" s="280"/>
+      <c r="X58" s="280"/>
+      <c r="Y58" s="280"/>
+      <c r="Z58" s="280"/>
+      <c r="AA58" s="280"/>
+      <c r="AB58" s="280"/>
+      <c r="AC58" s="280"/>
+      <c r="AD58" s="280"/>
+      <c r="AE58" s="280"/>
+      <c r="AF58" s="280"/>
+      <c r="AG58" s="280"/>
+      <c r="AH58" s="281"/>
       <c r="AK58" s="42"/>
       <c r="AL58" s="42"/>
       <c r="AM58" s="42"/>
@@ -7775,20 +7830,20 @@
       <c r="D59" s="110">
         <v>1</v>
       </c>
-      <c r="E59" s="254" t="s">
+      <c r="E59" s="303" t="s">
         <v>39</v>
       </c>
-      <c r="F59" s="255"/>
-      <c r="G59" s="255"/>
-      <c r="H59" s="255"/>
-      <c r="I59" s="255"/>
-      <c r="J59" s="256"/>
-      <c r="K59" s="245" t="s">
+      <c r="F59" s="304"/>
+      <c r="G59" s="304"/>
+      <c r="H59" s="304"/>
+      <c r="I59" s="304"/>
+      <c r="J59" s="305"/>
+      <c r="K59" s="265" t="s">
         <v>39</v>
       </c>
-      <c r="L59" s="246"/>
-      <c r="M59" s="246"/>
-      <c r="N59" s="247"/>
+      <c r="L59" s="266"/>
+      <c r="M59" s="266"/>
+      <c r="N59" s="267"/>
       <c r="O59" s="111"/>
       <c r="P59" s="112" t="s">
         <v>39</v>
@@ -7802,25 +7857,25 @@
       <c r="S59" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="T59" s="257" t="s">
+      <c r="T59" s="292" t="s">
         <v>39</v>
       </c>
-      <c r="U59" s="258"/>
-      <c r="V59" s="245" t="s">
+      <c r="U59" s="293"/>
+      <c r="V59" s="265" t="s">
         <v>39</v>
       </c>
-      <c r="W59" s="246"/>
-      <c r="X59" s="246"/>
-      <c r="Y59" s="246"/>
-      <c r="Z59" s="246"/>
-      <c r="AA59" s="246"/>
-      <c r="AB59" s="246"/>
-      <c r="AC59" s="246"/>
-      <c r="AD59" s="246"/>
-      <c r="AE59" s="246"/>
-      <c r="AF59" s="246"/>
-      <c r="AG59" s="246"/>
-      <c r="AH59" s="247"/>
+      <c r="W59" s="266"/>
+      <c r="X59" s="266"/>
+      <c r="Y59" s="266"/>
+      <c r="Z59" s="266"/>
+      <c r="AA59" s="266"/>
+      <c r="AB59" s="266"/>
+      <c r="AC59" s="266"/>
+      <c r="AD59" s="266"/>
+      <c r="AE59" s="266"/>
+      <c r="AF59" s="266"/>
+      <c r="AG59" s="266"/>
+      <c r="AH59" s="267"/>
       <c r="AK59" s="42"/>
       <c r="AL59" s="42"/>
       <c r="AM59" s="42"/>
@@ -7946,91 +8001,91 @@
       <c r="D64" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="E64" s="250" t="s">
+      <c r="E64" s="301" t="s">
         <v>74</v>
       </c>
-      <c r="F64" s="251"/>
-      <c r="G64" s="251"/>
-      <c r="H64" s="251"/>
-      <c r="I64" s="251"/>
-      <c r="J64" s="252"/>
-      <c r="K64" s="250" t="s">
+      <c r="F64" s="287"/>
+      <c r="G64" s="287"/>
+      <c r="H64" s="287"/>
+      <c r="I64" s="287"/>
+      <c r="J64" s="302"/>
+      <c r="K64" s="301" t="s">
         <v>75</v>
       </c>
-      <c r="L64" s="251"/>
-      <c r="M64" s="251"/>
-      <c r="N64" s="251"/>
-      <c r="O64" s="251"/>
-      <c r="P64" s="251"/>
-      <c r="Q64" s="253"/>
+      <c r="L64" s="287"/>
+      <c r="M64" s="287"/>
+      <c r="N64" s="287"/>
+      <c r="O64" s="287"/>
+      <c r="P64" s="287"/>
+      <c r="Q64" s="288"/>
       <c r="R64" s="234" t="s">
         <v>76</v>
       </c>
-      <c r="S64" s="251"/>
-      <c r="T64" s="251"/>
-      <c r="U64" s="251"/>
-      <c r="V64" s="251"/>
-      <c r="W64" s="251"/>
-      <c r="X64" s="251"/>
-      <c r="Y64" s="253"/>
-      <c r="Z64" s="270" t="s">
+      <c r="S64" s="287"/>
+      <c r="T64" s="287"/>
+      <c r="U64" s="287"/>
+      <c r="V64" s="287"/>
+      <c r="W64" s="287"/>
+      <c r="X64" s="287"/>
+      <c r="Y64" s="288"/>
+      <c r="Z64" s="256" t="s">
         <v>77</v>
       </c>
-      <c r="AA64" s="271"/>
-      <c r="AB64" s="271"/>
-      <c r="AC64" s="271"/>
-      <c r="AD64" s="272"/>
-      <c r="AE64" s="267" t="s">
+      <c r="AA64" s="257"/>
+      <c r="AB64" s="257"/>
+      <c r="AC64" s="257"/>
+      <c r="AD64" s="258"/>
+      <c r="AE64" s="284" t="s">
         <v>78</v>
       </c>
-      <c r="AF64" s="268"/>
-      <c r="AG64" s="268"/>
-      <c r="AH64" s="269"/>
+      <c r="AF64" s="285"/>
+      <c r="AG64" s="285"/>
+      <c r="AH64" s="286"/>
     </row>
     <row r="65" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D65" s="118">
         <v>1</v>
       </c>
-      <c r="E65" s="242" t="s">
+      <c r="E65" s="296" t="s">
         <v>79</v>
       </c>
-      <c r="F65" s="243"/>
-      <c r="G65" s="243"/>
-      <c r="H65" s="243"/>
-      <c r="I65" s="243"/>
-      <c r="J65" s="244"/>
-      <c r="K65" s="245" t="s">
+      <c r="F65" s="297"/>
+      <c r="G65" s="297"/>
+      <c r="H65" s="297"/>
+      <c r="I65" s="297"/>
+      <c r="J65" s="298"/>
+      <c r="K65" s="265" t="s">
         <v>39</v>
       </c>
-      <c r="L65" s="246"/>
-      <c r="M65" s="246"/>
-      <c r="N65" s="246"/>
-      <c r="O65" s="246"/>
-      <c r="P65" s="246"/>
-      <c r="Q65" s="247"/>
-      <c r="R65" s="245" t="s">
+      <c r="L65" s="266"/>
+      <c r="M65" s="266"/>
+      <c r="N65" s="266"/>
+      <c r="O65" s="266"/>
+      <c r="P65" s="266"/>
+      <c r="Q65" s="267"/>
+      <c r="R65" s="265" t="s">
         <v>80</v>
       </c>
-      <c r="S65" s="246"/>
-      <c r="T65" s="246"/>
-      <c r="U65" s="246"/>
-      <c r="V65" s="246"/>
-      <c r="W65" s="246"/>
-      <c r="X65" s="246"/>
-      <c r="Y65" s="247"/>
-      <c r="Z65" s="245" t="s">
+      <c r="S65" s="266"/>
+      <c r="T65" s="266"/>
+      <c r="U65" s="266"/>
+      <c r="V65" s="266"/>
+      <c r="W65" s="266"/>
+      <c r="X65" s="266"/>
+      <c r="Y65" s="267"/>
+      <c r="Z65" s="265" t="s">
         <v>39</v>
       </c>
-      <c r="AA65" s="246"/>
-      <c r="AB65" s="246"/>
-      <c r="AC65" s="246"/>
-      <c r="AD65" s="247"/>
-      <c r="AE65" s="273" t="s">
+      <c r="AA65" s="266"/>
+      <c r="AB65" s="266"/>
+      <c r="AC65" s="266"/>
+      <c r="AD65" s="267"/>
+      <c r="AE65" s="289" t="s">
         <v>81</v>
       </c>
-      <c r="AF65" s="274"/>
-      <c r="AG65" s="274"/>
-      <c r="AH65" s="275"/>
+      <c r="AF65" s="290"/>
+      <c r="AG65" s="290"/>
+      <c r="AH65" s="291"/>
     </row>
     <row r="66" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D66" s="119"/>
@@ -8394,6 +8449,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="E65:J65"/>
+    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="E64:J64"/>
+    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="E59:J59"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="V59:AH59"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:J58"/>
+    <mergeCell ref="K57:N58"/>
+    <mergeCell ref="AE64:AH64"/>
+    <mergeCell ref="Z64:AD64"/>
+    <mergeCell ref="R65:Y65"/>
+    <mergeCell ref="Z65:AD65"/>
+    <mergeCell ref="R64:Y64"/>
+    <mergeCell ref="AE65:AH65"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="V57:AH58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AD49:AG51"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AD52:AG52"/>
+    <mergeCell ref="E43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="Q43:U43"/>
+    <mergeCell ref="V43:AC43"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="D49:D51"/>
     <mergeCell ref="M50:T51"/>
     <mergeCell ref="Q44:U44"/>
@@ -8410,50 +8509,6 @@
     <mergeCell ref="M52:T52"/>
     <mergeCell ref="U50:Y51"/>
     <mergeCell ref="U52:Y52"/>
-    <mergeCell ref="AD49:AG51"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AD52:AG52"/>
-    <mergeCell ref="E43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="V43:AC43"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="V57:AH58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AE64:AH64"/>
-    <mergeCell ref="Z64:AD64"/>
-    <mergeCell ref="R65:Y65"/>
-    <mergeCell ref="Z65:AD65"/>
-    <mergeCell ref="R64:Y64"/>
-    <mergeCell ref="AE65:AH65"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="V59:AH59"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:J58"/>
-    <mergeCell ref="K57:N58"/>
-    <mergeCell ref="E65:J65"/>
-    <mergeCell ref="K65:Q65"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="E64:J64"/>
-    <mergeCell ref="K64:Q64"/>
-    <mergeCell ref="E59:J59"/>
-    <mergeCell ref="K59:N59"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="5">
